--- a/Ice_Melt_AWP/Melt_AWP_region_Heatmap.xlsx
+++ b/Ice_Melt_AWP/Melt_AWP_region_Heatmap.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NicoS\Desktop\ASIF_content\ScienceData\Ice_Melt_AWP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\NSIDC\Melt_AWP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{350D345C-C7CB-4069-837A-30957838B181}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94BD0E06-CBC1-4920-AB4E-9D8D62EFCE44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51480" yWindow="1650" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11805" yWindow="480" windowWidth="21300" windowHeight="19725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Heatmap" sheetId="1" r:id="rId1"/>
+    <sheet name="Super_regional_List2" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -75,9 +75,6 @@
   </si>
   <si>
     <t>Anomaly</t>
-  </si>
-  <si>
-    <t>Mean</t>
   </si>
 </sst>
 </file>
@@ -929,8 +926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K50" sqref="K50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1030,43 +1027,43 @@
         <v>1979</v>
       </c>
       <c r="B2" s="2">
-        <v>248.45928599999999</v>
+        <v>215.22173100000001</v>
       </c>
       <c r="C2" s="2">
-        <v>80.834436999999994</v>
+        <v>68.051529000000002</v>
       </c>
       <c r="D2" s="2">
-        <v>429.61711600000001</v>
+        <v>263.46058699999998</v>
       </c>
       <c r="E2" s="2">
-        <v>273.53384699999998</v>
+        <v>139.96447699999999</v>
       </c>
       <c r="F2" s="2">
-        <v>249.74008799999999</v>
+        <v>111.70300899999999</v>
       </c>
       <c r="G2" s="2">
-        <v>218.02686499999999</v>
+        <v>91.187597999999994</v>
       </c>
       <c r="H2" s="2">
-        <v>146.90080599999999</v>
+        <v>-32.068097999999999</v>
       </c>
       <c r="I2" s="2">
-        <v>0.54259399999999902</v>
+        <v>-217.06034099999999</v>
       </c>
       <c r="J2" s="2">
-        <v>-148.47016099999999</v>
+        <v>-500.96615800000001</v>
       </c>
       <c r="K2" s="2">
-        <v>23.378889999999998</v>
+        <v>-139.41340700000001</v>
       </c>
       <c r="L2" s="2">
-        <v>-24.316907</v>
+        <v>-251.65729899999999</v>
       </c>
       <c r="M2" s="2">
-        <v>0.219721999999999</v>
+        <v>-196.77208899999999</v>
       </c>
       <c r="N2" s="2">
-        <v>-875.91565800000001</v>
+        <v>-1764.2568530000001</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" s="3">
@@ -1074,55 +1071,55 @@
       </c>
       <c r="Q2" s="2">
         <f>B2-B$45</f>
-        <v>89.27738785000011</v>
+        <v>73.006622100000129</v>
       </c>
       <c r="R2" s="2">
         <f t="shared" ref="R2:AC2" si="0">C2-C$45</f>
-        <v>-23.761908350000013</v>
+        <v>-20.74703554999995</v>
       </c>
       <c r="S2" s="2">
         <f t="shared" si="0"/>
-        <v>27.145087500000272</v>
+        <v>-7.550526600000012</v>
       </c>
       <c r="T2" s="2">
         <f t="shared" si="0"/>
-        <v>-32.266302099999848</v>
+        <v>-63.520841749999903</v>
       </c>
       <c r="U2" s="2">
         <f t="shared" si="0"/>
-        <v>6.2185242500000015</v>
+        <v>-24.127397049999914</v>
       </c>
       <c r="V2" s="2">
         <f t="shared" si="0"/>
-        <v>101.63108270000015</v>
+        <v>17.942102250000076</v>
       </c>
       <c r="W2" s="2">
         <f t="shared" si="0"/>
-        <v>-43.027298549999898</v>
+        <v>-95.336446649999942</v>
       </c>
       <c r="X2" s="2">
         <f t="shared" si="0"/>
-        <v>-115.93914094999992</v>
+        <v>-182.41425425</v>
       </c>
       <c r="Y2" s="2">
         <f t="shared" si="0"/>
-        <v>-334.37096834999994</v>
+        <v>-429.31984839999996</v>
       </c>
       <c r="Z2" s="2">
         <f t="shared" si="0"/>
-        <v>-87.674186899999981</v>
+        <v>-127.07546785000001</v>
       </c>
       <c r="AA2" s="2">
         <f t="shared" si="0"/>
-        <v>-180.23085944999997</v>
+        <v>-220.38046795</v>
       </c>
       <c r="AB2" s="2">
         <f t="shared" si="0"/>
-        <v>-170.23825799999986</v>
+        <v>-209.34373054999998</v>
       </c>
       <c r="AC2" s="2">
         <f t="shared" si="0"/>
-        <v>-371.47904810000011</v>
+        <v>-438.35903075000169</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
@@ -1130,43 +1127,43 @@
         <v>1980</v>
       </c>
       <c r="B3" s="2">
-        <v>244.677671</v>
+        <v>199.58315400000001</v>
       </c>
       <c r="C3" s="2">
-        <v>134.472712</v>
+        <v>112.121675</v>
       </c>
       <c r="D3" s="2">
-        <v>392.31799100000001</v>
+        <v>231.800862</v>
       </c>
       <c r="E3" s="2">
-        <v>267.39632899999998</v>
+        <v>128.73783</v>
       </c>
       <c r="F3" s="2">
-        <v>214.81200999999999</v>
+        <v>70.889510000000001</v>
       </c>
       <c r="G3" s="2">
-        <v>199.13864599999999</v>
+        <v>90.094511999999995</v>
       </c>
       <c r="H3" s="2">
-        <v>118.477998</v>
+        <v>-92.995384999999999</v>
       </c>
       <c r="I3" s="2">
-        <v>21.760200999999999</v>
+        <v>-171.45108300000001</v>
       </c>
       <c r="J3" s="2">
-        <v>-37.683056999999998</v>
+        <v>-383.73089900000002</v>
       </c>
       <c r="K3" s="2">
-        <v>27.977177999999999</v>
+        <v>-151.138758</v>
       </c>
       <c r="L3" s="2">
-        <v>-30.572092999999999</v>
+        <v>-268.80838999999997</v>
       </c>
       <c r="M3" s="2">
-        <v>98.381981999999994</v>
+        <v>-86.711107999999996</v>
       </c>
       <c r="N3" s="2">
-        <v>-822.06969600000002</v>
+        <v>-1732.8687789999999</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" s="3">
@@ -1174,55 +1171,55 @@
       </c>
       <c r="Q3" s="2">
         <f t="shared" ref="Q3:Q42" si="1">B3-B$45</f>
-        <v>85.495772850000122</v>
+        <v>57.368045100000131</v>
       </c>
       <c r="R3" s="2">
         <f t="shared" ref="R3:R42" si="2">C3-C$45</f>
-        <v>29.876366649999994</v>
+        <v>23.323110450000044</v>
       </c>
       <c r="S3" s="2">
         <f t="shared" ref="S3:S42" si="3">D3-D$45</f>
-        <v>-10.154037499999731</v>
+        <v>-39.210251599999992</v>
       </c>
       <c r="T3" s="2">
         <f t="shared" ref="T3:T42" si="4">E3-E$45</f>
-        <v>-38.403820099999848</v>
+        <v>-74.747488749999889</v>
       </c>
       <c r="U3" s="2">
         <f t="shared" ref="U3:U42" si="5">F3-F$45</f>
-        <v>-28.709553749999998</v>
+        <v>-64.940896049999907</v>
       </c>
       <c r="V3" s="2">
         <f t="shared" ref="V3:V42" si="6">G3-G$45</f>
-        <v>82.742863700000157</v>
+        <v>16.849016250000076</v>
       </c>
       <c r="W3" s="2">
         <f t="shared" ref="W3:W42" si="7">H3-H$45</f>
-        <v>-71.450106549999887</v>
+        <v>-156.26373364999995</v>
       </c>
       <c r="X3" s="2">
         <f t="shared" ref="X3:X42" si="8">I3-I$45</f>
-        <v>-94.721533949999923</v>
+        <v>-136.80499624999999</v>
       </c>
       <c r="Y3" s="2">
         <f t="shared" ref="Y3:Y42" si="9">J3-J$45</f>
-        <v>-223.58386434999994</v>
+        <v>-312.08458940000003</v>
       </c>
       <c r="Z3" s="2">
         <f t="shared" ref="Z3:Z42" si="10">K3-K$45</f>
-        <v>-83.075898899999984</v>
+        <v>-138.80081884999998</v>
       </c>
       <c r="AA3" s="2">
         <f t="shared" ref="AA3:AA42" si="11">L3-L$45</f>
-        <v>-186.48604544999995</v>
+        <v>-237.53155894999998</v>
       </c>
       <c r="AB3" s="2">
         <f t="shared" ref="AB3:AB42" si="12">M3-M$45</f>
-        <v>-72.075997999999856</v>
+        <v>-99.282749549999991</v>
       </c>
       <c r="AC3" s="2">
         <f t="shared" ref="AC3:AC42" si="13">N3-N$45</f>
-        <v>-317.63308610000013</v>
+        <v>-406.97095675000151</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
@@ -1230,43 +1227,43 @@
         <v>1981</v>
       </c>
       <c r="B4" s="2">
-        <v>212.388025999999</v>
+        <v>191.17874900000001</v>
       </c>
       <c r="C4" s="2">
-        <v>88.106251999999998</v>
+        <v>72.964023999999995</v>
       </c>
       <c r="D4" s="2">
-        <v>357.03100000000001</v>
+        <v>188.93710999999999</v>
       </c>
       <c r="E4" s="2">
-        <v>262.631505</v>
+        <v>134.461017</v>
       </c>
       <c r="F4" s="2">
-        <v>387.28740399999998</v>
+        <v>210.15427799999901</v>
       </c>
       <c r="G4" s="2">
-        <v>230.15294299999999</v>
+        <v>102.87181899999899</v>
       </c>
       <c r="H4" s="2">
-        <v>38.446331999999998</v>
+        <v>-176.84858600000001</v>
       </c>
       <c r="I4" s="2">
-        <v>56.054589</v>
+        <v>-138.54229099999901</v>
       </c>
       <c r="J4" s="2">
-        <v>82.855121999999994</v>
+        <v>-243.16130999999999</v>
       </c>
       <c r="K4" s="2">
-        <v>94.732290000000006</v>
+        <v>-83.197213000000005</v>
       </c>
       <c r="L4" s="2">
-        <v>84.956154999999995</v>
+        <v>-144.29505399999999</v>
       </c>
       <c r="M4" s="2">
-        <v>114.01047199999999</v>
+        <v>-51.415120000000002</v>
       </c>
       <c r="N4" s="2">
-        <v>-805.822047</v>
+        <v>-1713.6491100000001</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" s="3">
@@ -1274,55 +1271,55 @@
       </c>
       <c r="Q4" s="2">
         <f t="shared" si="1"/>
-        <v>53.20612784999912</v>
+        <v>48.963640100000134</v>
       </c>
       <c r="R4" s="2">
         <f t="shared" si="2"/>
-        <v>-16.490093350000009</v>
+        <v>-15.834540549999957</v>
       </c>
       <c r="S4" s="2">
         <f t="shared" si="3"/>
-        <v>-45.441028499999732</v>
+        <v>-82.074003599999998</v>
       </c>
       <c r="T4" s="2">
         <f t="shared" si="4"/>
-        <v>-43.168644099999824</v>
+        <v>-69.024301749999893</v>
       </c>
       <c r="U4" s="2">
         <f t="shared" si="5"/>
-        <v>143.76584025</v>
+        <v>74.323871949999102</v>
       </c>
       <c r="V4" s="2">
         <f t="shared" si="6"/>
-        <v>113.75716070000016</v>
+        <v>29.626323249999075</v>
       </c>
       <c r="W4" s="2">
         <f t="shared" si="7"/>
-        <v>-151.4817725499999</v>
+        <v>-240.11693464999996</v>
       </c>
       <c r="X4" s="2">
         <f t="shared" si="8"/>
-        <v>-60.427145949999918</v>
+        <v>-103.896204249999</v>
       </c>
       <c r="Y4" s="2">
         <f t="shared" si="9"/>
-        <v>-103.04568534999996</v>
+        <v>-171.51500039999996</v>
       </c>
       <c r="Z4" s="2">
         <f t="shared" si="10"/>
-        <v>-16.320786899999973</v>
+        <v>-70.859273850000008</v>
       </c>
       <c r="AA4" s="2">
         <f t="shared" si="11"/>
-        <v>-70.957797449999958</v>
+        <v>-113.01822294999999</v>
       </c>
       <c r="AB4" s="2">
         <f t="shared" si="12"/>
-        <v>-56.447507999999857</v>
+        <v>-63.986761549999997</v>
       </c>
       <c r="AC4" s="2">
         <f t="shared" si="13"/>
-        <v>-301.3854371000001</v>
+        <v>-387.75128775000167</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
@@ -1330,43 +1327,43 @@
         <v>1982</v>
       </c>
       <c r="B5" s="2">
-        <v>192.68542199999999</v>
+        <v>161.80416399999999</v>
       </c>
       <c r="C5" s="2">
-        <v>134.594855</v>
+        <v>110.517896999999</v>
       </c>
       <c r="D5" s="2">
-        <v>400.93222700000001</v>
+        <v>229.34898999999999</v>
       </c>
       <c r="E5" s="2">
-        <v>318.10139600000002</v>
+        <v>161.729983</v>
       </c>
       <c r="F5" s="2">
-        <v>300.02087899999998</v>
+        <v>138.57429099999999</v>
       </c>
       <c r="G5" s="2">
-        <v>186.31285700000001</v>
+        <v>53.943570999999999</v>
       </c>
       <c r="H5" s="2">
-        <v>81.605641000000006</v>
+        <v>-109.769385</v>
       </c>
       <c r="I5" s="2">
-        <v>-20.476289000000001</v>
+        <v>-225.88773599999999</v>
       </c>
       <c r="J5" s="2">
-        <v>-127.00336799999999</v>
+        <v>-473.10710499999999</v>
       </c>
       <c r="K5" s="2">
-        <v>14.472519999999999</v>
+        <v>-157.929416</v>
       </c>
       <c r="L5" s="2">
-        <v>-10.464897000000001</v>
+        <v>-228.30516600000001</v>
       </c>
       <c r="M5" s="2">
-        <v>75.874238000000005</v>
+        <v>-106.099402</v>
       </c>
       <c r="N5" s="2">
-        <v>-977.12088399999902</v>
+        <v>-1882.2067850000001</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" s="3">
@@ -1374,55 +1371,55 @@
       </c>
       <c r="Q5" s="2">
         <f t="shared" si="1"/>
-        <v>33.503523850000107</v>
+        <v>19.58905510000011</v>
       </c>
       <c r="R5" s="2">
         <f t="shared" si="2"/>
-        <v>29.998509649999988</v>
+        <v>21.719332449999044</v>
       </c>
       <c r="S5" s="2">
         <f t="shared" si="3"/>
-        <v>-1.5398014999997258</v>
+        <v>-41.662123600000001</v>
       </c>
       <c r="T5" s="2">
         <f t="shared" si="4"/>
-        <v>12.301246900000194</v>
+        <v>-41.755335749999887</v>
       </c>
       <c r="U5" s="2">
         <f t="shared" si="5"/>
-        <v>56.499315249999995</v>
+        <v>2.7438849500000799</v>
       </c>
       <c r="V5" s="2">
         <f t="shared" si="6"/>
-        <v>69.917074700000171</v>
+        <v>-19.30192474999992</v>
       </c>
       <c r="W5" s="2">
         <f t="shared" si="7"/>
-        <v>-108.32246354999988</v>
+        <v>-173.03773364999995</v>
       </c>
       <c r="X5" s="2">
         <f t="shared" si="8"/>
-        <v>-136.95802394999993</v>
+        <v>-191.24164924999997</v>
       </c>
       <c r="Y5" s="2">
         <f t="shared" si="9"/>
-        <v>-312.90417534999995</v>
+        <v>-401.46079539999994</v>
       </c>
       <c r="Z5" s="2">
         <f t="shared" si="10"/>
-        <v>-96.580556899999976</v>
+        <v>-145.59147684999999</v>
       </c>
       <c r="AA5" s="2">
         <f t="shared" si="11"/>
-        <v>-166.37884944999996</v>
+        <v>-197.02833495000002</v>
       </c>
       <c r="AB5" s="2">
         <f t="shared" si="12"/>
-        <v>-94.583741999999845</v>
+        <v>-118.67104354999999</v>
       </c>
       <c r="AC5" s="2">
         <f t="shared" si="13"/>
-        <v>-472.68427409999913</v>
+        <v>-556.30896275000168</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
@@ -1430,43 +1427,43 @@
         <v>1983</v>
       </c>
       <c r="B6" s="2">
-        <v>178.800543</v>
+        <v>156.58585500000001</v>
       </c>
       <c r="C6" s="2">
-        <v>101.583051</v>
+        <v>83.180581000000004</v>
       </c>
       <c r="D6" s="2">
-        <v>425.32261999999997</v>
+        <v>224.42735299999899</v>
       </c>
       <c r="E6" s="2">
-        <v>412.471586</v>
+        <v>228.58913999999999</v>
       </c>
       <c r="F6" s="2">
-        <v>280.99479600000001</v>
+        <v>142.29331399999899</v>
       </c>
       <c r="G6" s="2">
-        <v>162.383545</v>
+        <v>89.795154999999994</v>
       </c>
       <c r="H6" s="2">
-        <v>89.940860999999998</v>
+        <v>-101.171506999999</v>
       </c>
       <c r="I6" s="2">
-        <v>77.237022999999994</v>
+        <v>-111.392455</v>
       </c>
       <c r="J6" s="2">
-        <v>-115.031237</v>
+        <v>-460.40522499999997</v>
       </c>
       <c r="K6" s="2">
-        <v>-43.624518999999999</v>
+        <v>-240.067216</v>
       </c>
       <c r="L6" s="2">
-        <v>-30.882997999999901</v>
+        <v>-275.41390899999999</v>
       </c>
       <c r="M6" s="2">
-        <v>94.123429999999999</v>
+        <v>-89.045613000000003</v>
       </c>
       <c r="N6" s="2">
-        <v>-732.78480100000002</v>
+        <v>-1632.2457010000001</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" s="3">
@@ -1474,55 +1471,55 @@
       </c>
       <c r="Q6" s="2">
         <f t="shared" si="1"/>
-        <v>19.618644850000123</v>
+        <v>14.370746100000133</v>
       </c>
       <c r="R6" s="2">
         <f t="shared" si="2"/>
-        <v>-3.0132943500000096</v>
+        <v>-5.6179835499999484</v>
       </c>
       <c r="S6" s="2">
         <f t="shared" si="3"/>
-        <v>22.850591500000235</v>
+        <v>-46.583760600001</v>
       </c>
       <c r="T6" s="2">
         <f t="shared" si="4"/>
-        <v>106.67143690000017</v>
+        <v>25.103821250000095</v>
       </c>
       <c r="U6" s="2">
         <f t="shared" si="5"/>
-        <v>37.473232250000024</v>
+        <v>6.462907949999078</v>
       </c>
       <c r="V6" s="2">
         <f t="shared" si="6"/>
-        <v>45.987762700000161</v>
+        <v>16.549659250000076</v>
       </c>
       <c r="W6" s="2">
         <f t="shared" si="7"/>
-        <v>-99.987243549999889</v>
+        <v>-164.43985564999895</v>
       </c>
       <c r="X6" s="2">
         <f t="shared" si="8"/>
-        <v>-39.244711949999925</v>
+        <v>-76.746368249999989</v>
       </c>
       <c r="Y6" s="2">
         <f t="shared" si="9"/>
-        <v>-300.93204434999996</v>
+        <v>-388.75891539999998</v>
       </c>
       <c r="Z6" s="2">
         <f t="shared" si="10"/>
-        <v>-154.67759589999997</v>
+        <v>-227.72927684999999</v>
       </c>
       <c r="AA6" s="2">
         <f t="shared" si="11"/>
-        <v>-186.79695044999985</v>
+        <v>-244.13707794999999</v>
       </c>
       <c r="AB6" s="2">
         <f t="shared" si="12"/>
-        <v>-76.334549999999851</v>
+        <v>-101.61725455</v>
       </c>
       <c r="AC6" s="2">
         <f t="shared" si="13"/>
-        <v>-228.34819110000012</v>
+        <v>-306.34787875000166</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
@@ -1530,43 +1527,43 @@
         <v>1984</v>
       </c>
       <c r="B7" s="2">
-        <v>144.034223</v>
+        <v>125.01792500000001</v>
       </c>
       <c r="C7" s="2">
-        <v>158.40073100000001</v>
+        <v>129.96747999999999</v>
       </c>
       <c r="D7" s="2">
-        <v>400.34652699999998</v>
+        <v>229.50824399999999</v>
       </c>
       <c r="E7" s="2">
-        <v>359.57846000000001</v>
+        <v>194.48433299999999</v>
       </c>
       <c r="F7" s="2">
-        <v>287.37309199999999</v>
+        <v>161.83251999999999</v>
       </c>
       <c r="G7" s="2">
-        <v>120.52883799999999</v>
+        <v>59.195183999999998</v>
       </c>
       <c r="H7" s="2">
-        <v>86.446606000000003</v>
+        <v>-79.255848999999998</v>
       </c>
       <c r="I7" s="2">
-        <v>-9.5245829999999998</v>
+        <v>-220.256258</v>
       </c>
       <c r="J7" s="2">
-        <v>-111.306932</v>
+        <v>-457.222792999999</v>
       </c>
       <c r="K7" s="2">
-        <v>37.664757999999999</v>
+        <v>-138.06703200000001</v>
       </c>
       <c r="L7" s="2">
-        <v>12.447371</v>
+        <v>-236.39157299999999</v>
       </c>
       <c r="M7" s="2">
-        <v>92.874927</v>
+        <v>-81.560907999999998</v>
       </c>
       <c r="N7" s="2">
-        <v>-741.51046199999996</v>
+        <v>-1624.045537</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" s="3">
@@ -1574,55 +1571,55 @@
       </c>
       <c r="Q7" s="2">
         <f t="shared" si="1"/>
-        <v>-15.147675149999884</v>
+        <v>-17.197183899999871</v>
       </c>
       <c r="R7" s="2">
         <f t="shared" si="2"/>
-        <v>53.80438565</v>
+        <v>41.168915450000043</v>
       </c>
       <c r="S7" s="2">
         <f t="shared" si="3"/>
-        <v>-2.125501499999757</v>
+        <v>-41.502869599999997</v>
       </c>
       <c r="T7" s="2">
         <f t="shared" si="4"/>
-        <v>53.778310900000179</v>
+        <v>-9.0009857499998986</v>
       </c>
       <c r="U7" s="2">
         <f t="shared" si="5"/>
-        <v>43.851528250000001</v>
+        <v>26.00211395000008</v>
       </c>
       <c r="V7" s="2">
         <f t="shared" si="6"/>
-        <v>4.1330557000001562</v>
+        <v>-14.050311749999921</v>
       </c>
       <c r="W7" s="2">
         <f t="shared" si="7"/>
-        <v>-103.48149854999988</v>
+        <v>-142.52419764999993</v>
       </c>
       <c r="X7" s="2">
         <f t="shared" si="8"/>
-        <v>-126.00631794999993</v>
+        <v>-185.61017125000001</v>
       </c>
       <c r="Y7" s="2">
         <f t="shared" si="9"/>
-        <v>-297.20773934999994</v>
+        <v>-385.57648339999901</v>
       </c>
       <c r="Z7" s="2">
         <f t="shared" si="10"/>
-        <v>-73.388318899999973</v>
+        <v>-125.72909285000001</v>
       </c>
       <c r="AA7" s="2">
         <f t="shared" si="11"/>
-        <v>-143.46658144999995</v>
+        <v>-205.11474195</v>
       </c>
       <c r="AB7" s="2">
         <f t="shared" si="12"/>
-        <v>-77.58305299999985</v>
+        <v>-94.132549549999993</v>
       </c>
       <c r="AC7" s="2">
         <f t="shared" si="13"/>
-        <v>-237.07385210000007</v>
+        <v>-298.14771475000157</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
@@ -1630,43 +1627,43 @@
         <v>1985</v>
       </c>
       <c r="B8" s="2">
-        <v>162.05302599999999</v>
+        <v>130.20827199999999</v>
       </c>
       <c r="C8" s="2">
-        <v>150.15248199999999</v>
+        <v>118.73265600000001</v>
       </c>
       <c r="D8" s="2">
-        <v>363.48845999999998</v>
+        <v>192.71206799999999</v>
       </c>
       <c r="E8" s="2">
-        <v>344.51540999999997</v>
+        <v>217.70913199999899</v>
       </c>
       <c r="F8" s="2">
-        <v>281.05336699999998</v>
+        <v>165.58020300000001</v>
       </c>
       <c r="G8" s="2">
-        <v>182.12006700000001</v>
+        <v>91.204879000000005</v>
       </c>
       <c r="H8" s="2">
-        <v>174.81822099999999</v>
+        <v>16.984907</v>
       </c>
       <c r="I8" s="2">
-        <v>58.145806</v>
+        <v>-139.61671299999901</v>
       </c>
       <c r="J8" s="2">
-        <v>-66.339244999999906</v>
+        <v>-411.51916199999999</v>
       </c>
       <c r="K8" s="2">
-        <v>-29.845146</v>
+        <v>-216.74229199999999</v>
       </c>
       <c r="L8" s="2">
-        <v>-18.089939000000001</v>
+        <v>-268.37476299999997</v>
       </c>
       <c r="M8" s="2">
-        <v>108.601479</v>
+        <v>-62.743246999999997</v>
       </c>
       <c r="N8" s="2">
-        <v>-659.20476099999996</v>
+        <v>-1543.442818</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="3">
@@ -1674,55 +1671,55 @@
       </c>
       <c r="Q8" s="2">
         <f t="shared" si="1"/>
-        <v>2.8711278500001072</v>
+        <v>-12.006836899999882</v>
       </c>
       <c r="R8" s="2">
         <f t="shared" si="2"/>
-        <v>45.556136649999985</v>
+        <v>29.934091450000054</v>
       </c>
       <c r="S8" s="2">
         <f t="shared" si="3"/>
-        <v>-38.983568499999762</v>
+        <v>-78.299045599999999</v>
       </c>
       <c r="T8" s="2">
         <f t="shared" si="4"/>
-        <v>38.715260900000146</v>
+        <v>14.223813249999097</v>
       </c>
       <c r="U8" s="2">
         <f t="shared" si="5"/>
-        <v>37.531803249999996</v>
+        <v>29.749796950000103</v>
       </c>
       <c r="V8" s="2">
         <f t="shared" si="6"/>
-        <v>65.724284700000169</v>
+        <v>17.959383250000087</v>
       </c>
       <c r="W8" s="2">
         <f t="shared" si="7"/>
-        <v>-15.109883549999893</v>
+        <v>-46.283441649999936</v>
       </c>
       <c r="X8" s="2">
         <f t="shared" si="8"/>
-        <v>-58.335928949999918</v>
+        <v>-104.970626249999</v>
       </c>
       <c r="Y8" s="2">
         <f t="shared" si="9"/>
-        <v>-252.24005234999987</v>
+        <v>-339.87285239999994</v>
       </c>
       <c r="Z8" s="2">
         <f t="shared" si="10"/>
-        <v>-140.89822289999998</v>
+        <v>-204.40435284999998</v>
       </c>
       <c r="AA8" s="2">
         <f t="shared" si="11"/>
-        <v>-174.00389144999997</v>
+        <v>-237.09793194999997</v>
       </c>
       <c r="AB8" s="2">
         <f t="shared" si="12"/>
-        <v>-61.856500999999852</v>
+        <v>-75.314888549999992</v>
       </c>
       <c r="AC8" s="2">
         <f t="shared" si="13"/>
-        <v>-154.76815110000007</v>
+        <v>-217.54499575000159</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
@@ -1730,43 +1727,43 @@
         <v>1986</v>
       </c>
       <c r="B9" s="2">
-        <v>161.661506</v>
+        <v>142.60808899999901</v>
       </c>
       <c r="C9" s="2">
-        <v>121.60166</v>
+        <v>102.688768</v>
       </c>
       <c r="D9" s="2">
-        <v>432.24866100000003</v>
+        <v>261.952089</v>
       </c>
       <c r="E9" s="2">
-        <v>304.021402999999</v>
+        <v>164.62972500000001</v>
       </c>
       <c r="F9" s="2">
-        <v>230.28030699999999</v>
+        <v>89.291075000000006</v>
       </c>
       <c r="G9" s="2">
-        <v>138.23514900000001</v>
+        <v>40.886212999999998</v>
       </c>
       <c r="H9" s="2">
-        <v>67.799316000000005</v>
+        <v>-129.235297</v>
       </c>
       <c r="I9" s="2">
-        <v>-15.217423999999999</v>
+        <v>-223.69203399999901</v>
       </c>
       <c r="J9" s="2">
-        <v>100.410384999999</v>
+        <v>-231.19983300000001</v>
       </c>
       <c r="K9" s="2">
-        <v>17.907682000000001</v>
+        <v>-134.59583699999999</v>
       </c>
       <c r="L9" s="2">
-        <v>-33.511190999999997</v>
+        <v>-273.30221699999998</v>
       </c>
       <c r="M9" s="2">
-        <v>51.616377999999997</v>
+        <v>-138.27865199999999</v>
       </c>
       <c r="N9" s="2">
-        <v>-880.32249200000001</v>
+        <v>-1773.1855410000001</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="3">
@@ -1774,55 +1771,55 @@
       </c>
       <c r="Q9" s="2">
         <f t="shared" si="1"/>
-        <v>2.4796078500001215</v>
+        <v>0.39298009999913575</v>
       </c>
       <c r="R9" s="2">
         <f t="shared" si="2"/>
-        <v>17.005314649999988</v>
+        <v>13.890203450000044</v>
       </c>
       <c r="S9" s="2">
         <f t="shared" si="3"/>
-        <v>29.776632500000289</v>
+        <v>-9.0590245999999865</v>
       </c>
       <c r="T9" s="2">
         <f t="shared" si="4"/>
-        <v>-1.7787461000008307</v>
+        <v>-38.855593749999883</v>
       </c>
       <c r="U9" s="2">
         <f t="shared" si="5"/>
-        <v>-13.241256749999991</v>
+        <v>-46.539331049999902</v>
       </c>
       <c r="V9" s="2">
         <f t="shared" si="6"/>
-        <v>21.83936670000017</v>
+        <v>-32.35928274999992</v>
       </c>
       <c r="W9" s="2">
         <f t="shared" si="7"/>
-        <v>-122.12878854999988</v>
+        <v>-192.50364564999995</v>
       </c>
       <c r="X9" s="2">
         <f t="shared" si="8"/>
-        <v>-131.69915894999991</v>
+        <v>-189.04594724999902</v>
       </c>
       <c r="Y9" s="2">
         <f t="shared" si="9"/>
-        <v>-85.490422350000955</v>
+        <v>-159.55352339999999</v>
       </c>
       <c r="Z9" s="2">
         <f t="shared" si="10"/>
-        <v>-93.145394899999985</v>
+        <v>-122.25789784999999</v>
       </c>
       <c r="AA9" s="2">
         <f t="shared" si="11"/>
-        <v>-189.42514344999995</v>
+        <v>-242.02538594999999</v>
       </c>
       <c r="AB9" s="2">
         <f t="shared" si="12"/>
-        <v>-118.84160199999985</v>
+        <v>-150.85029354999998</v>
       </c>
       <c r="AC9" s="2">
         <f t="shared" si="13"/>
-        <v>-375.88588210000012</v>
+        <v>-447.28771875000166</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
@@ -1830,43 +1827,43 @@
         <v>1987</v>
       </c>
       <c r="B10" s="2">
-        <v>189.370046</v>
+        <v>168.798509</v>
       </c>
       <c r="C10" s="2">
-        <v>136.25735800000001</v>
+        <v>110.038302</v>
       </c>
       <c r="D10" s="2">
-        <v>420.11800599999998</v>
+        <v>241.908886</v>
       </c>
       <c r="E10" s="2">
-        <v>382.143663</v>
+        <v>229.35451</v>
       </c>
       <c r="F10" s="2">
-        <v>298.71061600000002</v>
+        <v>151.30108300000001</v>
       </c>
       <c r="G10" s="2">
-        <v>190.44585799999999</v>
+        <v>79.408896999999996</v>
       </c>
       <c r="H10" s="2">
-        <v>145.50950599999999</v>
+        <v>-37.534140999999998</v>
       </c>
       <c r="I10" s="2">
-        <v>3.1454629999999999</v>
+        <v>-201.086961</v>
       </c>
       <c r="J10" s="2">
-        <v>-82.016959999999997</v>
+        <v>-406.60066</v>
       </c>
       <c r="K10" s="2">
-        <v>9.2067540000000001</v>
+        <v>-163.95335800000001</v>
       </c>
       <c r="L10" s="2">
-        <v>25.118047000000001</v>
+        <v>-181.014306</v>
       </c>
       <c r="M10" s="2">
-        <v>53.754317</v>
+        <v>-131.14870400000001</v>
       </c>
       <c r="N10" s="2">
-        <v>-821.38046099999997</v>
+        <v>-1711.5636669999999</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" s="3">
@@ -1874,55 +1871,55 @@
       </c>
       <c r="Q10" s="2">
         <f t="shared" si="1"/>
-        <v>30.188147850000121</v>
+        <v>26.583400100000119</v>
       </c>
       <c r="R10" s="2">
         <f t="shared" si="2"/>
-        <v>31.661012650000004</v>
+        <v>21.23973745000005</v>
       </c>
       <c r="S10" s="2">
         <f t="shared" si="3"/>
-        <v>17.645977500000242</v>
+        <v>-29.102227599999992</v>
       </c>
       <c r="T10" s="2">
         <f t="shared" si="4"/>
-        <v>76.343513900000175</v>
+        <v>25.869191250000114</v>
       </c>
       <c r="U10" s="2">
         <f t="shared" si="5"/>
-        <v>55.189052250000032</v>
+        <v>15.470676950000097</v>
       </c>
       <c r="V10" s="2">
         <f t="shared" si="6"/>
-        <v>74.05007570000015</v>
+        <v>6.1634012500000779</v>
       </c>
       <c r="W10" s="2">
         <f t="shared" si="7"/>
-        <v>-44.418598549999899</v>
+        <v>-100.80248964999993</v>
       </c>
       <c r="X10" s="2">
         <f t="shared" si="8"/>
-        <v>-113.33627194999991</v>
+        <v>-166.44087424999998</v>
       </c>
       <c r="Y10" s="2">
         <f t="shared" si="9"/>
-        <v>-267.91776734999996</v>
+        <v>-334.95435039999995</v>
       </c>
       <c r="Z10" s="2">
         <f t="shared" si="10"/>
-        <v>-101.84632289999998</v>
+        <v>-151.61541885</v>
       </c>
       <c r="AA10" s="2">
         <f t="shared" si="11"/>
-        <v>-130.79590544999996</v>
+        <v>-149.73747495000001</v>
       </c>
       <c r="AB10" s="2">
         <f t="shared" si="12"/>
-        <v>-116.70366299999985</v>
+        <v>-143.72034554999999</v>
       </c>
       <c r="AC10" s="2">
         <f t="shared" si="13"/>
-        <v>-316.94385110000007</v>
+        <v>-385.6658447500015</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
@@ -1930,43 +1927,43 @@
         <v>1988</v>
       </c>
       <c r="B11" s="2">
-        <v>178.85976299999999</v>
+        <v>157.21942999999999</v>
       </c>
       <c r="C11" s="2">
-        <v>119.13727900000001</v>
+        <v>101.039245999999</v>
       </c>
       <c r="D11" s="2">
-        <v>406.87858399999999</v>
+        <v>245.951764</v>
       </c>
       <c r="E11" s="2">
-        <v>292.01084500000002</v>
+        <v>162.03233899999901</v>
       </c>
       <c r="F11" s="2">
-        <v>309.48149999999998</v>
+        <v>164.260086</v>
       </c>
       <c r="G11" s="2">
-        <v>182.42477</v>
+        <v>86.245233999999996</v>
       </c>
       <c r="H11" s="2">
-        <v>139.53437299999999</v>
+        <v>-40.156844999999997</v>
       </c>
       <c r="I11" s="2">
-        <v>44.664257999999997</v>
+        <v>-137.99653499999999</v>
       </c>
       <c r="J11" s="2">
-        <v>-46.890729</v>
+        <v>-381.29091899999997</v>
       </c>
       <c r="K11" s="2">
-        <v>33.062964999999998</v>
+        <v>-158.707258</v>
       </c>
       <c r="L11" s="2">
-        <v>51.364032999999999</v>
+        <v>-171.30324899999999</v>
       </c>
       <c r="M11" s="2">
-        <v>112.113537999999</v>
+        <v>-54.282670999999901</v>
       </c>
       <c r="N11" s="2">
-        <v>-873.86123699999996</v>
+        <v>-1763.9568280000001</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" s="3">
@@ -1974,55 +1971,55 @@
       </c>
       <c r="Q11" s="2">
         <f t="shared" si="1"/>
-        <v>19.677864850000105</v>
+        <v>15.004321100000112</v>
       </c>
       <c r="R11" s="2">
         <f t="shared" si="2"/>
-        <v>14.540933649999999</v>
+        <v>12.240681449999045</v>
       </c>
       <c r="S11" s="2">
         <f t="shared" si="3"/>
-        <v>4.4065555000002519</v>
+        <v>-25.05934959999999</v>
       </c>
       <c r="T11" s="2">
         <f t="shared" si="4"/>
-        <v>-13.789304099999811</v>
+        <v>-41.452979750000878</v>
       </c>
       <c r="U11" s="2">
         <f t="shared" si="5"/>
-        <v>65.959936249999998</v>
+        <v>28.429679950000093</v>
       </c>
       <c r="V11" s="2">
         <f t="shared" si="6"/>
-        <v>66.028987700000158</v>
+        <v>12.999738250000078</v>
       </c>
       <c r="W11" s="2">
         <f t="shared" si="7"/>
-        <v>-50.393731549999899</v>
+        <v>-103.42519364999993</v>
       </c>
       <c r="X11" s="2">
         <f t="shared" si="8"/>
-        <v>-71.817476949999929</v>
+        <v>-103.35044824999999</v>
       </c>
       <c r="Y11" s="2">
         <f t="shared" si="9"/>
-        <v>-232.79153634999994</v>
+        <v>-309.64460939999992</v>
       </c>
       <c r="Z11" s="2">
         <f t="shared" si="10"/>
-        <v>-77.990111899999988</v>
+        <v>-146.36931884999998</v>
       </c>
       <c r="AA11" s="2">
         <f t="shared" si="11"/>
-        <v>-104.54991944999995</v>
+        <v>-140.02641795</v>
       </c>
       <c r="AB11" s="2">
         <f t="shared" si="12"/>
-        <v>-58.344442000000853</v>
+        <v>-66.854312549999889</v>
       </c>
       <c r="AC11" s="2">
         <f t="shared" si="13"/>
-        <v>-369.42462710000007</v>
+        <v>-438.05900575000169</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
@@ -2030,43 +2027,43 @@
         <v>1989</v>
       </c>
       <c r="B12" s="2">
-        <v>142.21538200000001</v>
+        <v>126.180925</v>
       </c>
       <c r="C12" s="2">
-        <v>85.900521999999995</v>
+        <v>75.003102999999996</v>
       </c>
       <c r="D12" s="2">
-        <v>386.60279300000002</v>
+        <v>220.41056399999999</v>
       </c>
       <c r="E12" s="2">
-        <v>359.15407499999998</v>
+        <v>215.210589</v>
       </c>
       <c r="F12" s="2">
-        <v>295.22662200000002</v>
+        <v>129.55122800000001</v>
       </c>
       <c r="G12" s="2">
-        <v>161.45638799999901</v>
+        <v>67.200366000000002</v>
       </c>
       <c r="H12" s="2">
-        <v>11.829326999999999</v>
+        <v>-177.939043</v>
       </c>
       <c r="I12" s="2">
-        <v>28.842288</v>
+        <v>-178.713661</v>
       </c>
       <c r="J12" s="2">
-        <v>83.160330999999999</v>
+        <v>-210.701336</v>
       </c>
       <c r="K12" s="2">
-        <v>26.384406999999999</v>
+        <v>-133.519417</v>
       </c>
       <c r="L12" s="2">
-        <v>41.235931999999998</v>
+        <v>-194.95545200000001</v>
       </c>
       <c r="M12" s="2">
-        <v>131.361648</v>
+        <v>-41.391296999999902</v>
       </c>
       <c r="N12" s="2">
-        <v>-947.58254999999997</v>
+        <v>-1839.6920210000001</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" s="3">
@@ -2074,55 +2071,55 @@
       </c>
       <c r="Q12" s="2">
         <f t="shared" si="1"/>
-        <v>-16.966516149999876</v>
+        <v>-16.034183899999874</v>
       </c>
       <c r="R12" s="2">
         <f t="shared" si="2"/>
-        <v>-18.695823350000012</v>
+        <v>-13.795461549999956</v>
       </c>
       <c r="S12" s="2">
         <f t="shared" si="3"/>
-        <v>-15.869235499999718</v>
+        <v>-50.600549599999994</v>
       </c>
       <c r="T12" s="2">
         <f t="shared" si="4"/>
-        <v>53.353925900000149</v>
+        <v>11.725270250000108</v>
       </c>
       <c r="U12" s="2">
         <f t="shared" si="5"/>
-        <v>51.705058250000036</v>
+        <v>-6.2791780499998993</v>
       </c>
       <c r="V12" s="2">
         <f t="shared" si="6"/>
-        <v>45.060605699999172</v>
+        <v>-6.0451297499999157</v>
       </c>
       <c r="W12" s="2">
         <f t="shared" si="7"/>
-        <v>-178.09877754999988</v>
+        <v>-241.20739164999992</v>
       </c>
       <c r="X12" s="2">
         <f t="shared" si="8"/>
-        <v>-87.639446949999922</v>
+        <v>-144.06757425000001</v>
       </c>
       <c r="Y12" s="2">
         <f t="shared" si="9"/>
-        <v>-102.74047634999995</v>
+        <v>-139.05502639999997</v>
       </c>
       <c r="Z12" s="2">
         <f t="shared" si="10"/>
-        <v>-84.668669899999983</v>
+        <v>-121.18147785000001</v>
       </c>
       <c r="AA12" s="2">
         <f t="shared" si="11"/>
-        <v>-114.67802044999996</v>
+        <v>-163.67862095000001</v>
       </c>
       <c r="AB12" s="2">
         <f t="shared" si="12"/>
-        <v>-39.096331999999848</v>
+        <v>-53.96293854999989</v>
       </c>
       <c r="AC12" s="2">
         <f t="shared" si="13"/>
-        <v>-443.14594010000008</v>
+        <v>-513.79419875000167</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
@@ -2130,43 +2127,43 @@
         <v>1990</v>
       </c>
       <c r="B13" s="2">
-        <v>160.73220900000001</v>
+        <v>147.25173100000001</v>
       </c>
       <c r="C13" s="2">
-        <v>132.73110500000001</v>
+        <v>112.073511</v>
       </c>
       <c r="D13" s="2">
-        <v>419.130662999999</v>
+        <v>248.158331</v>
       </c>
       <c r="E13" s="2">
-        <v>439.17512299999999</v>
+        <v>292.81214599999998</v>
       </c>
       <c r="F13" s="2">
-        <v>352.274632</v>
+        <v>222.03571700000001</v>
       </c>
       <c r="G13" s="2">
-        <v>153.09560999999999</v>
+        <v>96.738336000000004</v>
       </c>
       <c r="H13" s="2">
-        <v>100.498565</v>
+        <v>-76.571600000000004</v>
       </c>
       <c r="I13" s="2">
-        <v>95.518490999999997</v>
+        <v>-63.238170999999902</v>
       </c>
       <c r="J13" s="2">
-        <v>133.109149</v>
+        <v>-91.386354999999995</v>
       </c>
       <c r="K13" s="2">
-        <v>40.927574</v>
+        <v>-112.804588</v>
       </c>
       <c r="L13" s="2">
-        <v>-21.464759000000001</v>
+        <v>-250.48130099999901</v>
       </c>
       <c r="M13" s="2">
-        <v>68.279390000000006</v>
+        <v>-112.784945999999</v>
       </c>
       <c r="N13" s="2">
-        <v>-836.867155999999</v>
+        <v>-1722.1292249999999</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" s="3">
@@ -2174,55 +2171,55 @@
       </c>
       <c r="Q13" s="2">
         <f t="shared" si="1"/>
-        <v>1.5503108500001304</v>
+        <v>5.0366221000001303</v>
       </c>
       <c r="R13" s="2">
         <f t="shared" si="2"/>
-        <v>28.134759650000007</v>
+        <v>23.274946450000044</v>
       </c>
       <c r="S13" s="2">
         <f t="shared" si="3"/>
-        <v>16.658634499999266</v>
+        <v>-22.852782599999983</v>
       </c>
       <c r="T13" s="2">
         <f t="shared" si="4"/>
-        <v>133.37497390000016</v>
+        <v>89.326827250000093</v>
       </c>
       <c r="U13" s="2">
         <f t="shared" si="5"/>
-        <v>108.75306825000001</v>
+        <v>86.205310950000097</v>
       </c>
       <c r="V13" s="2">
         <f t="shared" si="6"/>
-        <v>36.699827700000156</v>
+        <v>23.492840250000086</v>
       </c>
       <c r="W13" s="2">
         <f t="shared" si="7"/>
-        <v>-89.429539549999888</v>
+        <v>-139.83994864999994</v>
       </c>
       <c r="X13" s="2">
         <f t="shared" si="8"/>
-        <v>-20.963243949999921</v>
+        <v>-28.592084249999893</v>
       </c>
       <c r="Y13" s="2">
         <f t="shared" si="9"/>
-        <v>-52.791658349999949</v>
+        <v>-19.740045399999971</v>
       </c>
       <c r="Z13" s="2">
         <f t="shared" si="10"/>
-        <v>-70.125502899999987</v>
+        <v>-100.46664885</v>
       </c>
       <c r="AA13" s="2">
         <f t="shared" si="11"/>
-        <v>-177.37871144999997</v>
+        <v>-219.20446994999901</v>
       </c>
       <c r="AB13" s="2">
         <f t="shared" si="12"/>
-        <v>-102.17858999999984</v>
+        <v>-125.35658754999899</v>
       </c>
       <c r="AC13" s="2">
         <f t="shared" si="13"/>
-        <v>-332.43054609999911</v>
+        <v>-396.23140275000151</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
@@ -2230,43 +2227,43 @@
         <v>1991</v>
       </c>
       <c r="B14" s="2">
-        <v>158.57836399999999</v>
+        <v>141.46614600000001</v>
       </c>
       <c r="C14" s="2">
-        <v>117.10771699999999</v>
+        <v>94.291850999999994</v>
       </c>
       <c r="D14" s="2">
-        <v>389.057725</v>
+        <v>228.23396600000001</v>
       </c>
       <c r="E14" s="2">
-        <v>362.70019400000001</v>
+        <v>208.47612599999999</v>
       </c>
       <c r="F14" s="2">
-        <v>246.52041299999999</v>
+        <v>133.48827199999999</v>
       </c>
       <c r="G14" s="2">
-        <v>178.01380800000001</v>
+        <v>99.570038999999994</v>
       </c>
       <c r="H14" s="2">
-        <v>127.535212999999</v>
+        <v>-61.281306999999998</v>
       </c>
       <c r="I14" s="2">
-        <v>78.921374999999998</v>
+        <v>-86.477667999999994</v>
       </c>
       <c r="J14" s="2">
-        <v>90.891143</v>
+        <v>-201.25632899999999</v>
       </c>
       <c r="K14" s="2">
-        <v>10.307200999999999</v>
+        <v>-161.01912999999999</v>
       </c>
       <c r="L14" s="2">
-        <v>-15.459564</v>
+        <v>-262.14196299999998</v>
       </c>
       <c r="M14" s="2">
-        <v>127.59074299999899</v>
+        <v>-49.706395000000001</v>
       </c>
       <c r="N14" s="2">
-        <v>-793.28454499999998</v>
+        <v>-1680.1996140000001</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" s="3">
@@ -2274,55 +2271,55 @@
       </c>
       <c r="Q14" s="2">
         <f t="shared" si="1"/>
-        <v>-0.60353414999988786</v>
+        <v>-0.7489628999998672</v>
       </c>
       <c r="R14" s="2">
         <f t="shared" si="2"/>
-        <v>12.511371649999987</v>
+        <v>5.493286450000042</v>
       </c>
       <c r="S14" s="2">
         <f t="shared" si="3"/>
-        <v>-13.414303499999733</v>
+        <v>-42.777147599999978</v>
       </c>
       <c r="T14" s="2">
         <f t="shared" si="4"/>
-        <v>56.900044900000182</v>
+        <v>4.9908072500001026</v>
       </c>
       <c r="U14" s="2">
         <f t="shared" si="5"/>
-        <v>2.9988492500000064</v>
+        <v>-2.3421340499999133</v>
       </c>
       <c r="V14" s="2">
         <f t="shared" si="6"/>
-        <v>61.618025700000175</v>
+        <v>26.324543250000076</v>
       </c>
       <c r="W14" s="2">
         <f t="shared" si="7"/>
-        <v>-62.392891550000883</v>
+        <v>-124.54965564999993</v>
       </c>
       <c r="X14" s="2">
         <f t="shared" si="8"/>
-        <v>-37.560359949999921</v>
+        <v>-51.831581249999985</v>
       </c>
       <c r="Y14" s="2">
         <f t="shared" si="9"/>
-        <v>-95.009664349999952</v>
+        <v>-129.61001939999997</v>
       </c>
       <c r="Z14" s="2">
         <f t="shared" si="10"/>
-        <v>-100.74587589999999</v>
+        <v>-148.68119084999998</v>
       </c>
       <c r="AA14" s="2">
         <f t="shared" si="11"/>
-        <v>-171.37351644999995</v>
+        <v>-230.86513194999998</v>
       </c>
       <c r="AB14" s="2">
         <f t="shared" si="12"/>
-        <v>-42.867237000000856</v>
+        <v>-62.278036549999996</v>
       </c>
       <c r="AC14" s="2">
         <f t="shared" si="13"/>
-        <v>-288.84793510000009</v>
+        <v>-354.30179175000171</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
@@ -2330,43 +2327,43 @@
         <v>1992</v>
       </c>
       <c r="B15" s="2">
-        <v>141.062848</v>
+        <v>123.620866999999</v>
       </c>
       <c r="C15" s="2">
-        <v>119.64486599999999</v>
+        <v>95.517871</v>
       </c>
       <c r="D15" s="2">
-        <v>430.55340899999999</v>
+        <v>226.26673500000001</v>
       </c>
       <c r="E15" s="2">
-        <v>382.660864</v>
+        <v>221.71895099999901</v>
       </c>
       <c r="F15" s="2">
-        <v>289.17852499999998</v>
+        <v>127.653894999999</v>
       </c>
       <c r="G15" s="2">
-        <v>137.34988899999999</v>
+        <v>80.960622000000001</v>
       </c>
       <c r="H15" s="2">
-        <v>119.735937999999</v>
+        <v>-59.734521999999998</v>
       </c>
       <c r="I15" s="2">
-        <v>56.102452999999997</v>
+        <v>-144.26481100000001</v>
       </c>
       <c r="J15" s="2">
-        <v>105.42703400000001</v>
+        <v>-185.575255</v>
       </c>
       <c r="K15" s="2">
-        <v>-10.88002</v>
+        <v>-179.73973799999999</v>
       </c>
       <c r="L15" s="2">
-        <v>-46.428730999999999</v>
+        <v>-287.36167499999999</v>
       </c>
       <c r="M15" s="2">
-        <v>63.484364999999997</v>
+        <v>-120.662228</v>
       </c>
       <c r="N15" s="2">
-        <v>-783.81537500000002</v>
+        <v>-1672.4888169999999</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" s="3">
@@ -2374,55 +2371,55 @@
       </c>
       <c r="Q15" s="2">
         <f t="shared" si="1"/>
-        <v>-18.119050149999879</v>
+        <v>-18.594241900000881</v>
       </c>
       <c r="R15" s="2">
         <f t="shared" si="2"/>
-        <v>15.048520649999986</v>
+        <v>6.7193064500000474</v>
       </c>
       <c r="S15" s="2">
         <f t="shared" si="3"/>
-        <v>28.08138050000025</v>
+        <v>-44.744378599999976</v>
       </c>
       <c r="T15" s="2">
         <f t="shared" si="4"/>
-        <v>76.860714900000175</v>
+        <v>18.233632249999118</v>
       </c>
       <c r="U15" s="2">
         <f t="shared" si="5"/>
-        <v>45.656961249999995</v>
+        <v>-8.1765110500009115</v>
       </c>
       <c r="V15" s="2">
         <f t="shared" si="6"/>
-        <v>20.954106700000153</v>
+        <v>7.7151262500000826</v>
       </c>
       <c r="W15" s="2">
         <f t="shared" si="7"/>
-        <v>-70.192166550000891</v>
+        <v>-123.00287064999993</v>
       </c>
       <c r="X15" s="2">
         <f t="shared" si="8"/>
-        <v>-60.379281949999921</v>
+        <v>-109.61872425</v>
       </c>
       <c r="Y15" s="2">
         <f t="shared" si="9"/>
-        <v>-80.473773349999945</v>
+        <v>-113.92894539999998</v>
       </c>
       <c r="Z15" s="2">
         <f t="shared" si="10"/>
-        <v>-121.93309689999998</v>
+        <v>-167.40179884999998</v>
       </c>
       <c r="AA15" s="2">
         <f t="shared" si="11"/>
-        <v>-202.34268344999995</v>
+        <v>-256.08484394999999</v>
       </c>
       <c r="AB15" s="2">
         <f t="shared" si="12"/>
-        <v>-106.97361499999985</v>
+        <v>-133.23386954999998</v>
       </c>
       <c r="AC15" s="2">
         <f t="shared" si="13"/>
-        <v>-279.37876510000012</v>
+        <v>-346.59099475000153</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
@@ -2430,43 +2427,43 @@
         <v>1993</v>
       </c>
       <c r="B16" s="2">
-        <v>170.53331699999899</v>
+        <v>152.54019299999999</v>
       </c>
       <c r="C16" s="2">
-        <v>91.007638</v>
+        <v>77.222424000000004</v>
       </c>
       <c r="D16" s="2">
-        <v>367.90315099999998</v>
+        <v>213.63191099999901</v>
       </c>
       <c r="E16" s="2">
-        <v>439.78168199999999</v>
+        <v>278.52948099999998</v>
       </c>
       <c r="F16" s="2">
-        <v>231.98170299999899</v>
+        <v>85.728645</v>
       </c>
       <c r="G16" s="2">
-        <v>176.20464899999999</v>
+        <v>77.638157999999905</v>
       </c>
       <c r="H16" s="2">
-        <v>181.511977</v>
+        <v>23.737544</v>
       </c>
       <c r="I16" s="2">
-        <v>73.889131000000006</v>
+        <v>-122.858035</v>
       </c>
       <c r="J16" s="2">
-        <v>131.845437</v>
+        <v>-136.216396</v>
       </c>
       <c r="K16" s="2">
-        <v>77.616799</v>
+        <v>-60.889596999999902</v>
       </c>
       <c r="L16" s="2">
-        <v>86.914620999999997</v>
+        <v>-110.24981399999901</v>
       </c>
       <c r="M16" s="2">
-        <v>144.83109299999899</v>
+        <v>-24.286885999999999</v>
       </c>
       <c r="N16" s="2">
-        <v>-673.17910599999902</v>
+        <v>-1555.6517119999901</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" s="3">
@@ -2474,55 +2471,55 @@
       </c>
       <c r="Q16" s="2">
         <f t="shared" si="1"/>
-        <v>11.351418849999106</v>
+        <v>10.325084100000112</v>
       </c>
       <c r="R16" s="2">
         <f t="shared" si="2"/>
-        <v>-13.588707350000007</v>
+        <v>-11.576140549999948</v>
       </c>
       <c r="S16" s="2">
         <f t="shared" si="3"/>
-        <v>-34.568877499999758</v>
+        <v>-57.37920260000098</v>
       </c>
       <c r="T16" s="2">
         <f t="shared" si="4"/>
-        <v>133.98153290000016</v>
+        <v>75.044162250000085</v>
       </c>
       <c r="U16" s="2">
         <f t="shared" si="5"/>
-        <v>-11.539860750000997</v>
+        <v>-50.101761049999908</v>
       </c>
       <c r="V16" s="2">
         <f t="shared" si="6"/>
-        <v>59.808866700000152</v>
+        <v>4.3926622499999866</v>
       </c>
       <c r="W16" s="2">
         <f t="shared" si="7"/>
-        <v>-8.4161275499998851</v>
+        <v>-39.530804649999936</v>
       </c>
       <c r="X16" s="2">
         <f t="shared" si="8"/>
-        <v>-42.592603949999912</v>
+        <v>-88.211948249999992</v>
       </c>
       <c r="Y16" s="2">
         <f t="shared" si="9"/>
-        <v>-54.055370349999947</v>
+        <v>-64.57008639999998</v>
       </c>
       <c r="Z16" s="2">
         <f t="shared" si="10"/>
-        <v>-33.436277899999979</v>
+        <v>-48.551657849999899</v>
       </c>
       <c r="AA16" s="2">
         <f t="shared" si="11"/>
-        <v>-68.999331449999957</v>
+        <v>-78.972982949999007</v>
       </c>
       <c r="AB16" s="2">
         <f t="shared" si="12"/>
-        <v>-25.626887000000863</v>
+        <v>-36.858527549999991</v>
       </c>
       <c r="AC16" s="2">
         <f t="shared" si="13"/>
-        <v>-168.74249609999913</v>
+        <v>-229.75388974999169</v>
       </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.25">
@@ -2530,43 +2527,43 @@
         <v>1994</v>
       </c>
       <c r="B17" s="2">
-        <v>153.50105099999999</v>
+        <v>128.90710300000001</v>
       </c>
       <c r="C17" s="2">
-        <v>154.78298100000001</v>
+        <v>129.855986</v>
       </c>
       <c r="D17" s="2">
-        <v>377.32604300000003</v>
+        <v>214.83138599999899</v>
       </c>
       <c r="E17" s="2">
-        <v>361.98649799999998</v>
+        <v>232.53143700000001</v>
       </c>
       <c r="F17" s="2">
-        <v>257.62602099999998</v>
+        <v>128.483869</v>
       </c>
       <c r="G17" s="2">
-        <v>154.80379500000001</v>
+        <v>78.006694999999993</v>
       </c>
       <c r="H17" s="2">
-        <v>132.02388099999999</v>
+        <v>-36.319798999999897</v>
       </c>
       <c r="I17" s="2">
-        <v>80.938148999999996</v>
+        <v>-109.29447500000001</v>
       </c>
       <c r="J17" s="2">
-        <v>-14.0493589999999</v>
+        <v>-348.88086499999997</v>
       </c>
       <c r="K17" s="2">
-        <v>45.056478999999896</v>
+        <v>-137.028021</v>
       </c>
       <c r="L17" s="2">
-        <v>24.159886</v>
+        <v>-213.75985699999899</v>
       </c>
       <c r="M17" s="2">
-        <v>148.68580700000001</v>
+        <v>-15.424218</v>
       </c>
       <c r="N17" s="2">
-        <v>-668.04884700000002</v>
+        <v>-1535.922564</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" s="3">
@@ -2574,55 +2571,55 @@
       </c>
       <c r="Q17" s="2">
         <f t="shared" si="1"/>
-        <v>-5.6808471499998916</v>
+        <v>-13.30800589999987</v>
       </c>
       <c r="R17" s="2">
         <f t="shared" si="2"/>
-        <v>50.186635649999999</v>
+        <v>41.057421450000049</v>
       </c>
       <c r="S17" s="2">
         <f t="shared" si="3"/>
-        <v>-25.145985499999711</v>
+        <v>-56.179727600001002</v>
       </c>
       <c r="T17" s="2">
         <f t="shared" si="4"/>
-        <v>56.186348900000155</v>
+        <v>29.04611825000012</v>
       </c>
       <c r="U17" s="2">
         <f t="shared" si="5"/>
-        <v>14.104457249999996</v>
+        <v>-7.3465370499999096</v>
       </c>
       <c r="V17" s="2">
         <f t="shared" si="6"/>
-        <v>38.408012700000171</v>
+        <v>4.7611992500000753</v>
       </c>
       <c r="W17" s="2">
         <f t="shared" si="7"/>
-        <v>-57.904223549999898</v>
+        <v>-99.588147649999826</v>
       </c>
       <c r="X17" s="2">
         <f t="shared" si="8"/>
-        <v>-35.543585949999922</v>
+        <v>-74.648388249999996</v>
       </c>
       <c r="Y17" s="2">
         <f t="shared" si="9"/>
-        <v>-199.95016634999985</v>
+        <v>-277.23455539999998</v>
       </c>
       <c r="Z17" s="2">
         <f t="shared" si="10"/>
-        <v>-65.996597900000083</v>
+        <v>-124.69008185</v>
       </c>
       <c r="AA17" s="2">
         <f t="shared" si="11"/>
-        <v>-131.75406644999995</v>
+        <v>-182.48302594999899</v>
       </c>
       <c r="AB17" s="2">
         <f t="shared" si="12"/>
-        <v>-21.772172999999839</v>
+        <v>-27.995859549999992</v>
       </c>
       <c r="AC17" s="2">
         <f t="shared" si="13"/>
-        <v>-163.61223710000013</v>
+        <v>-210.02474175000157</v>
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
@@ -2630,43 +2627,43 @@
         <v>1995</v>
       </c>
       <c r="B18" s="2">
-        <v>177.386224</v>
+        <v>156.09869599999999</v>
       </c>
       <c r="C18" s="2">
-        <v>115.15613399999999</v>
+        <v>96.728043</v>
       </c>
       <c r="D18" s="2">
-        <v>355.95084400000002</v>
+        <v>213.00803999999999</v>
       </c>
       <c r="E18" s="2">
-        <v>336.42076900000001</v>
+        <v>208.911967</v>
       </c>
       <c r="F18" s="2">
-        <v>279.67327299999999</v>
+        <v>124.828554</v>
       </c>
       <c r="G18" s="2">
-        <v>109.4284</v>
+        <v>62.668308999999901</v>
       </c>
       <c r="H18" s="2">
-        <v>215.38257899999999</v>
+        <v>103.118898</v>
       </c>
       <c r="I18" s="2">
-        <v>100.818839</v>
+        <v>-45.959365999999903</v>
       </c>
       <c r="J18" s="2">
-        <v>1.859645</v>
+        <v>-301.40643999999998</v>
       </c>
       <c r="K18" s="2">
-        <v>65.686231999999904</v>
+        <v>-101.210272</v>
       </c>
       <c r="L18" s="2">
-        <v>136.550645</v>
+        <v>-68.146023</v>
       </c>
       <c r="M18" s="2">
-        <v>159.020838</v>
+        <v>-8.0572280000000003</v>
       </c>
       <c r="N18" s="2">
-        <v>-756.60451399999999</v>
+        <v>-1623.4149829999999</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" s="3">
@@ -2674,55 +2671,55 @@
       </c>
       <c r="Q18" s="2">
         <f t="shared" si="1"/>
-        <v>18.204325850000117</v>
+        <v>13.883587100000113</v>
       </c>
       <c r="R18" s="2">
         <f t="shared" si="2"/>
-        <v>10.559788649999987</v>
+        <v>7.9294784500000475</v>
       </c>
       <c r="S18" s="2">
         <f t="shared" si="3"/>
-        <v>-46.52118449999972</v>
+        <v>-58.003073599999993</v>
       </c>
       <c r="T18" s="2">
         <f t="shared" si="4"/>
-        <v>30.620619900000179</v>
+        <v>5.4266482500001132</v>
       </c>
       <c r="U18" s="2">
         <f t="shared" si="5"/>
-        <v>36.15170925000001</v>
+        <v>-11.001852049999911</v>
       </c>
       <c r="V18" s="2">
         <f t="shared" si="6"/>
-        <v>-6.9673822999998407</v>
+        <v>-10.577186750000017</v>
       </c>
       <c r="W18" s="2">
         <f t="shared" si="7"/>
-        <v>25.454474450000106</v>
+        <v>39.850549350000065</v>
       </c>
       <c r="X18" s="2">
         <f t="shared" si="8"/>
-        <v>-15.662895949999921</v>
+        <v>-11.313279249999894</v>
       </c>
       <c r="Y18" s="2">
         <f t="shared" si="9"/>
-        <v>-184.04116234999995</v>
+        <v>-229.76013039999995</v>
       </c>
       <c r="Z18" s="2">
         <f t="shared" si="10"/>
-        <v>-45.366844900000075</v>
+        <v>-88.872332850000006</v>
       </c>
       <c r="AA18" s="2">
         <f t="shared" si="11"/>
-        <v>-19.363307449999951</v>
+        <v>-36.869191950000001</v>
       </c>
       <c r="AB18" s="2">
         <f t="shared" si="12"/>
-        <v>-11.437141999999852</v>
+        <v>-20.62886954999999</v>
       </c>
       <c r="AC18" s="2">
         <f t="shared" si="13"/>
-        <v>-252.1679041000001</v>
+        <v>-297.51716075000149</v>
       </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.25">
@@ -2730,43 +2727,43 @@
         <v>1996</v>
       </c>
       <c r="B19" s="2">
-        <v>145.06170499999999</v>
+        <v>133.044274</v>
       </c>
       <c r="C19" s="2">
-        <v>79.203942999999995</v>
+        <v>67.678618</v>
       </c>
       <c r="D19" s="2">
-        <v>402.14009299999998</v>
+        <v>239.05071899999999</v>
       </c>
       <c r="E19" s="2">
-        <v>340.054979</v>
+        <v>181.42927499999999</v>
       </c>
       <c r="F19" s="2">
-        <v>338.14222599999999</v>
+        <v>211.82374899999999</v>
       </c>
       <c r="G19" s="2">
-        <v>158.17413500000001</v>
+        <v>76.386374000000004</v>
       </c>
       <c r="H19" s="2">
-        <v>67.194013999999996</v>
+        <v>-120.140277</v>
       </c>
       <c r="I19" s="2">
-        <v>-50.723807999999998</v>
+        <v>-272.7826</v>
       </c>
       <c r="J19" s="2">
-        <v>-85.997767999999994</v>
+        <v>-428.68228699999997</v>
       </c>
       <c r="K19" s="2">
-        <v>60.019517999999998</v>
+        <v>-87.636036000000004</v>
       </c>
       <c r="L19" s="2">
-        <v>68.759281000000001</v>
+        <v>-170.868582</v>
       </c>
       <c r="M19" s="2">
-        <v>139.12357399999999</v>
+        <v>-32.587561999999998</v>
       </c>
       <c r="N19" s="2">
-        <v>-793.10869100000002</v>
+        <v>-1665.2191849999999</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" s="3">
@@ -2774,55 +2771,55 @@
       </c>
       <c r="Q19" s="2">
         <f t="shared" si="1"/>
-        <v>-14.120193149999892</v>
+        <v>-9.1708348999998748</v>
       </c>
       <c r="R19" s="2">
         <f t="shared" si="2"/>
-        <v>-25.392402350000012</v>
+        <v>-21.119946549999952</v>
       </c>
       <c r="S19" s="2">
         <f t="shared" si="3"/>
-        <v>-0.33193549999975858</v>
+        <v>-31.960394600000001</v>
       </c>
       <c r="T19" s="2">
         <f t="shared" si="4"/>
-        <v>34.254829900000175</v>
+        <v>-22.056043749999901</v>
       </c>
       <c r="U19" s="2">
         <f t="shared" si="5"/>
-        <v>94.620662250000009</v>
+        <v>75.993342950000084</v>
       </c>
       <c r="V19" s="2">
         <f t="shared" si="6"/>
-        <v>41.77835270000017</v>
+        <v>3.1408782500000854</v>
       </c>
       <c r="W19" s="2">
         <f t="shared" si="7"/>
-        <v>-122.73409054999989</v>
+        <v>-183.40862564999992</v>
       </c>
       <c r="X19" s="2">
         <f t="shared" si="8"/>
-        <v>-167.20554294999991</v>
+        <v>-238.13651325000001</v>
       </c>
       <c r="Y19" s="2">
         <f t="shared" si="9"/>
-        <v>-271.89857534999993</v>
+        <v>-357.03597739999998</v>
       </c>
       <c r="Z19" s="2">
         <f t="shared" si="10"/>
-        <v>-51.033558899999981</v>
+        <v>-75.298096850000007</v>
       </c>
       <c r="AA19" s="2">
         <f t="shared" si="11"/>
-        <v>-87.154671449999952</v>
+        <v>-139.59175095000001</v>
       </c>
       <c r="AB19" s="2">
         <f t="shared" si="12"/>
-        <v>-31.334405999999859</v>
+        <v>-45.159203549999987</v>
       </c>
       <c r="AC19" s="2">
         <f t="shared" si="13"/>
-        <v>-288.67208110000013</v>
+        <v>-339.32136275000153</v>
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.25">
@@ -2830,43 +2827,43 @@
         <v>1997</v>
       </c>
       <c r="B20" s="2">
-        <v>132.58082300000001</v>
+        <v>122.61984099999999</v>
       </c>
       <c r="C20" s="2">
-        <v>99.491597999999996</v>
+        <v>86.476006999999996</v>
       </c>
       <c r="D20" s="2">
-        <v>370.82381099999998</v>
+        <v>223.07427799999999</v>
       </c>
       <c r="E20" s="2">
-        <v>331.36649</v>
+        <v>208.596103</v>
       </c>
       <c r="F20" s="2">
-        <v>314.76972000000001</v>
+        <v>167.765469</v>
       </c>
       <c r="G20" s="2">
-        <v>202.152489</v>
+        <v>118.44122400000001</v>
       </c>
       <c r="H20" s="2">
-        <v>196.01560900000001</v>
+        <v>61.810718000000001</v>
       </c>
       <c r="I20" s="2">
-        <v>76.677190999999993</v>
+        <v>-103.043238</v>
       </c>
       <c r="J20" s="2">
-        <v>35.207276</v>
+        <v>-280.14236799999998</v>
       </c>
       <c r="K20" s="2">
-        <v>47.461172999999903</v>
+        <v>-94.743358999999998</v>
       </c>
       <c r="L20" s="2">
-        <v>76.566776000000004</v>
+        <v>-138.491883</v>
       </c>
       <c r="M20" s="2">
-        <v>116.14747300000001</v>
+        <v>-59.796344999999903</v>
       </c>
       <c r="N20" s="2">
-        <v>-809.02458999999999</v>
+        <v>-1673.516216</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" s="3">
@@ -2874,55 +2871,55 @@
       </c>
       <c r="Q20" s="2">
         <f t="shared" si="1"/>
-        <v>-26.601075149999872</v>
+        <v>-19.595267899999882</v>
       </c>
       <c r="R20" s="2">
         <f t="shared" si="2"/>
-        <v>-5.1047473500000109</v>
+        <v>-2.3225575499999564</v>
       </c>
       <c r="S20" s="2">
         <f t="shared" si="3"/>
-        <v>-31.64821749999976</v>
+        <v>-47.936835599999995</v>
       </c>
       <c r="T20" s="2">
         <f t="shared" si="4"/>
-        <v>25.566340900000171</v>
+        <v>5.1107842500001084</v>
       </c>
       <c r="U20" s="2">
         <f t="shared" si="5"/>
-        <v>71.248156250000022</v>
+        <v>31.935062950000088</v>
       </c>
       <c r="V20" s="2">
         <f t="shared" si="6"/>
-        <v>85.756706700000166</v>
+        <v>45.195728250000087</v>
       </c>
       <c r="W20" s="2">
         <f t="shared" si="7"/>
-        <v>6.0875044500001252</v>
+        <v>-1.4576306499999347</v>
       </c>
       <c r="X20" s="2">
         <f t="shared" si="8"/>
-        <v>-39.804543949999925</v>
+        <v>-68.397151249999993</v>
       </c>
       <c r="Y20" s="2">
         <f t="shared" si="9"/>
-        <v>-150.69353134999994</v>
+        <v>-208.49605839999995</v>
       </c>
       <c r="Z20" s="2">
         <f t="shared" si="10"/>
-        <v>-63.591903900000077</v>
+        <v>-82.405419850000001</v>
       </c>
       <c r="AA20" s="2">
         <f t="shared" si="11"/>
-        <v>-79.347176449999949</v>
+        <v>-107.21505195</v>
       </c>
       <c r="AB20" s="2">
         <f t="shared" si="12"/>
-        <v>-54.310506999999845</v>
+        <v>-72.367986549999898</v>
       </c>
       <c r="AC20" s="2">
         <f t="shared" si="13"/>
-        <v>-304.5879801000001</v>
+        <v>-347.61839375000159</v>
       </c>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.25">
@@ -2930,43 +2927,43 @@
         <v>1998</v>
       </c>
       <c r="B21" s="2">
-        <v>187.10968799999901</v>
+        <v>165.17643200000001</v>
       </c>
       <c r="C21" s="2">
-        <v>101.519051</v>
+        <v>84.529089999999997</v>
       </c>
       <c r="D21" s="2">
-        <v>382.40840400000002</v>
+        <v>262.91101800000001</v>
       </c>
       <c r="E21" s="2">
-        <v>356.748312</v>
+        <v>241.05774299999999</v>
       </c>
       <c r="F21" s="2">
-        <v>317.11656499999998</v>
+        <v>175.46752799999999</v>
       </c>
       <c r="G21" s="2">
-        <v>260.48191600000001</v>
+        <v>139.78966499999899</v>
       </c>
       <c r="H21" s="2">
-        <v>115.637642</v>
+        <v>-72.000339999999994</v>
       </c>
       <c r="I21" s="2">
-        <v>97.219844999999907</v>
+        <v>-98.789905000000005</v>
       </c>
       <c r="J21" s="2">
-        <v>58.558002000000002</v>
+        <v>-275.43225699999999</v>
       </c>
       <c r="K21" s="2">
-        <v>117.74189399999899</v>
+        <v>-36.853698000000001</v>
       </c>
       <c r="L21" s="2">
-        <v>96.063020999999907</v>
+        <v>-59.113323999999999</v>
       </c>
       <c r="M21" s="2">
-        <v>225.42862799999901</v>
+        <v>75.143753000000004</v>
       </c>
       <c r="N21" s="2">
-        <v>-635.55306900000005</v>
+        <v>-1505.568544</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" s="3">
@@ -2974,55 +2971,55 @@
       </c>
       <c r="Q21" s="2">
         <f t="shared" si="1"/>
-        <v>27.92778984999913</v>
+        <v>22.961323100000129</v>
       </c>
       <c r="R21" s="2">
         <f t="shared" si="2"/>
-        <v>-3.0772943500000025</v>
+        <v>-4.2694745499999556</v>
       </c>
       <c r="S21" s="2">
         <f t="shared" si="3"/>
-        <v>-20.063624499999719</v>
+        <v>-8.1000955999999746</v>
       </c>
       <c r="T21" s="2">
         <f t="shared" si="4"/>
-        <v>50.94816290000017</v>
+        <v>37.572424250000097</v>
       </c>
       <c r="U21" s="2">
         <f t="shared" si="5"/>
-        <v>73.595001249999996</v>
+        <v>39.637121950000079</v>
       </c>
       <c r="V21" s="2">
         <f t="shared" si="6"/>
-        <v>144.08613370000018</v>
+        <v>66.544169249999072</v>
       </c>
       <c r="W21" s="2">
         <f t="shared" si="7"/>
-        <v>-74.290462549999887</v>
+        <v>-135.26868864999994</v>
       </c>
       <c r="X21" s="2">
         <f t="shared" si="8"/>
-        <v>-19.261889950000011</v>
+        <v>-64.143818249999995</v>
       </c>
       <c r="Y21" s="2">
         <f t="shared" si="9"/>
-        <v>-127.34280534999995</v>
+        <v>-203.78594739999997</v>
       </c>
       <c r="Z21" s="2">
         <f t="shared" si="10"/>
-        <v>6.6888170999990137</v>
+        <v>-24.515758850000001</v>
       </c>
       <c r="AA21" s="2">
         <f t="shared" si="11"/>
-        <v>-59.850931450000047</v>
+        <v>-27.83649295</v>
       </c>
       <c r="AB21" s="2">
         <f t="shared" si="12"/>
-        <v>54.970647999999159</v>
+        <v>62.572111450000008</v>
       </c>
       <c r="AC21" s="2">
         <f t="shared" si="13"/>
-        <v>-131.11645910000016</v>
+        <v>-179.67072175000158</v>
       </c>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.25">
@@ -3030,43 +3027,43 @@
         <v>1999</v>
       </c>
       <c r="B22" s="2">
-        <v>224.619418</v>
+        <v>194.27495200000001</v>
       </c>
       <c r="C22" s="2">
-        <v>170.61532700000001</v>
+        <v>139.94582</v>
       </c>
       <c r="D22" s="2">
-        <v>398.57257999999899</v>
+        <v>279.151162</v>
       </c>
       <c r="E22" s="2">
-        <v>283.71015</v>
+        <v>156.28699900000001</v>
       </c>
       <c r="F22" s="2">
-        <v>206.441182</v>
+        <v>96.369101999999998</v>
       </c>
       <c r="G22" s="2">
-        <v>211.17415</v>
+        <v>111.493033</v>
       </c>
       <c r="H22" s="2">
-        <v>211.34946199999999</v>
+        <v>20.866278999999999</v>
       </c>
       <c r="I22" s="2">
-        <v>112.36391399999999</v>
+        <v>-47.711624999999998</v>
       </c>
       <c r="J22" s="2">
-        <v>121.941327</v>
+        <v>-193.68188499999999</v>
       </c>
       <c r="K22" s="2">
-        <v>85.676520999999994</v>
+        <v>-66.715213000000006</v>
       </c>
       <c r="L22" s="2">
-        <v>138.53432000000001</v>
+        <v>-75.718667999999994</v>
       </c>
       <c r="M22" s="2">
-        <v>151.28318100000001</v>
+        <v>-8.6932980000000004</v>
       </c>
       <c r="N22" s="2">
-        <v>-704.43847900000003</v>
+        <v>-1564.0970279999999</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" s="3">
@@ -3074,55 +3071,55 @@
       </c>
       <c r="Q22" s="2">
         <f t="shared" si="1"/>
-        <v>65.437519850000115</v>
+        <v>52.059843100000137</v>
       </c>
       <c r="R22" s="2">
         <f t="shared" si="2"/>
-        <v>66.018981650000001</v>
+        <v>51.147255450000046</v>
       </c>
       <c r="S22" s="2">
         <f t="shared" si="3"/>
-        <v>-3.8994485000007444</v>
+        <v>8.140048400000012</v>
       </c>
       <c r="T22" s="2">
         <f t="shared" si="4"/>
-        <v>-22.089999099999829</v>
+        <v>-47.198319749999882</v>
       </c>
       <c r="U22" s="2">
         <f t="shared" si="5"/>
-        <v>-37.080381749999987</v>
+        <v>-39.46130404999991</v>
       </c>
       <c r="V22" s="2">
         <f t="shared" si="6"/>
-        <v>94.77836770000016</v>
+        <v>38.247537250000079</v>
       </c>
       <c r="W22" s="2">
         <f t="shared" si="7"/>
-        <v>21.421357450000102</v>
+        <v>-42.402069649999937</v>
       </c>
       <c r="X22" s="2">
         <f t="shared" si="8"/>
-        <v>-4.1178209499999241</v>
+        <v>-13.065538249999989</v>
       </c>
       <c r="Y22" s="2">
         <f t="shared" si="9"/>
-        <v>-63.95948034999995</v>
+        <v>-122.03557539999997</v>
       </c>
       <c r="Z22" s="2">
         <f t="shared" si="10"/>
-        <v>-25.376555899999985</v>
+        <v>-54.377273850000009</v>
       </c>
       <c r="AA22" s="2">
         <f t="shared" si="11"/>
-        <v>-17.379632449999946</v>
+        <v>-44.441836949999995</v>
       </c>
       <c r="AB22" s="2">
         <f t="shared" si="12"/>
-        <v>-19.174798999999837</v>
+        <v>-21.264939549999994</v>
       </c>
       <c r="AC22" s="2">
         <f t="shared" si="13"/>
-        <v>-200.00186910000014</v>
+        <v>-238.19920575000151</v>
       </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.25">
@@ -3130,43 +3127,43 @@
         <v>2000</v>
       </c>
       <c r="B23" s="2">
-        <v>188.79350400000001</v>
+        <v>171.220732</v>
       </c>
       <c r="C23" s="2">
-        <v>123.882531</v>
+        <v>101.63166200000001</v>
       </c>
       <c r="D23" s="2">
-        <v>420.34521699999999</v>
+        <v>272.35763300000002</v>
       </c>
       <c r="E23" s="2">
-        <v>274.731820999999</v>
+        <v>163.17545699999999</v>
       </c>
       <c r="F23" s="2">
-        <v>288.09836799999999</v>
+        <v>153.50824299999999</v>
       </c>
       <c r="G23" s="2">
-        <v>157.16076999999899</v>
+        <v>102.615554</v>
       </c>
       <c r="H23" s="2">
-        <v>172.615915</v>
+        <v>21.080590000000001</v>
       </c>
       <c r="I23" s="2">
-        <v>127.59014099999899</v>
+        <v>-31.780033</v>
       </c>
       <c r="J23" s="2">
-        <v>115.643097</v>
+        <v>-192.86390700000001</v>
       </c>
       <c r="K23" s="2">
-        <v>102.561503</v>
+        <v>-63.308222000000001</v>
       </c>
       <c r="L23" s="2">
-        <v>86.318737999999996</v>
+        <v>-141.81192300000001</v>
       </c>
       <c r="M23" s="2">
-        <v>174.93329900000001</v>
+        <v>8.6241059999999994</v>
       </c>
       <c r="N23" s="2">
-        <v>-524.47026100000005</v>
+        <v>-1386.0653929999901</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" s="3">
@@ -3174,55 +3171,55 @@
       </c>
       <c r="Q23" s="2">
         <f t="shared" si="1"/>
-        <v>29.611605850000132</v>
+        <v>29.005623100000122</v>
       </c>
       <c r="R23" s="2">
         <f t="shared" si="2"/>
-        <v>19.286185649999993</v>
+        <v>12.833097450000054</v>
       </c>
       <c r="S23" s="2">
         <f t="shared" si="3"/>
-        <v>17.873188500000253</v>
+        <v>1.3465194000000338</v>
       </c>
       <c r="T23" s="2">
         <f t="shared" si="4"/>
-        <v>-31.068328100000826</v>
+        <v>-40.309861749999897</v>
       </c>
       <c r="U23" s="2">
         <f t="shared" si="5"/>
-        <v>44.576804250000009</v>
+        <v>17.677836950000085</v>
       </c>
       <c r="V23" s="2">
         <f t="shared" si="6"/>
-        <v>40.764987699999153</v>
+        <v>29.370058250000085</v>
       </c>
       <c r="W23" s="2">
         <f t="shared" si="7"/>
-        <v>-17.312189549999886</v>
+        <v>-42.187758649999935</v>
       </c>
       <c r="X23" s="2">
         <f t="shared" si="8"/>
-        <v>11.108406049999076</v>
+        <v>2.8660537500000096</v>
       </c>
       <c r="Y23" s="2">
         <f t="shared" si="9"/>
-        <v>-70.257710349999954</v>
+        <v>-121.21759739999999</v>
       </c>
       <c r="Z23" s="2">
         <f t="shared" si="10"/>
-        <v>-8.4915738999999775</v>
+        <v>-50.970282850000004</v>
       </c>
       <c r="AA23" s="2">
         <f t="shared" si="11"/>
-        <v>-69.595214449999958</v>
+        <v>-110.53509195000001</v>
       </c>
       <c r="AB23" s="2">
         <f t="shared" si="12"/>
-        <v>4.4753190000001553</v>
+        <v>-3.9475355499999925</v>
       </c>
       <c r="AC23" s="2">
         <f t="shared" si="13"/>
-        <v>-20.033651100000156</v>
+        <v>-60.167570749991683</v>
       </c>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.25">
@@ -3230,43 +3227,43 @@
         <v>2001</v>
       </c>
       <c r="B24" s="2">
-        <v>219.41896699999899</v>
+        <v>184.43480099999999</v>
       </c>
       <c r="C24" s="2">
-        <v>110.311683</v>
+        <v>92.991185999999999</v>
       </c>
       <c r="D24" s="2">
-        <v>390.46417100000002</v>
+        <v>271.08287100000001</v>
       </c>
       <c r="E24" s="2">
-        <v>324.33918999999997</v>
+        <v>209.66773799999899</v>
       </c>
       <c r="F24" s="2">
-        <v>282.23006900000001</v>
+        <v>167.58565200000001</v>
       </c>
       <c r="G24" s="2">
-        <v>124.47860799999999</v>
+        <v>67.853864999999999</v>
       </c>
       <c r="H24" s="2">
-        <v>171.477135</v>
+        <v>24.981901000000001</v>
       </c>
       <c r="I24" s="2">
-        <v>37.031791999999903</v>
+        <v>-165.535854</v>
       </c>
       <c r="J24" s="2">
-        <v>117.30008100000001</v>
+        <v>-203.397684</v>
       </c>
       <c r="K24" s="2">
-        <v>95.126514999999998</v>
+        <v>-63.612483999999903</v>
       </c>
       <c r="L24" s="2">
-        <v>45.603582000000003</v>
+        <v>-188.225886</v>
       </c>
       <c r="M24" s="2">
-        <v>143.16395700000001</v>
+        <v>-26.010857999999999</v>
       </c>
       <c r="N24" s="2">
-        <v>-636.22837400000003</v>
+        <v>-1485.4449059999999</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" s="3">
@@ -3274,55 +3271,55 @@
       </c>
       <c r="Q24" s="2">
         <f t="shared" si="1"/>
-        <v>60.237068849999105</v>
+        <v>42.219692100000117</v>
       </c>
       <c r="R24" s="2">
         <f t="shared" si="2"/>
-        <v>5.7153376499999951</v>
+        <v>4.1926214500000469</v>
       </c>
       <c r="S24" s="2">
         <f t="shared" si="3"/>
-        <v>-12.007857499999716</v>
+        <v>7.1757400000024063E-2</v>
       </c>
       <c r="T24" s="2">
         <f t="shared" si="4"/>
-        <v>18.539040900000145</v>
+        <v>6.1824192499991</v>
       </c>
       <c r="U24" s="2">
         <f t="shared" si="5"/>
-        <v>38.70850525000003</v>
+        <v>31.755245950000102</v>
       </c>
       <c r="V24" s="2">
         <f t="shared" si="6"/>
-        <v>8.0828257000001571</v>
+        <v>-5.3916307499999192</v>
       </c>
       <c r="W24" s="2">
         <f t="shared" si="7"/>
-        <v>-18.450969549999883</v>
+        <v>-38.286447649999936</v>
       </c>
       <c r="X24" s="2">
         <f t="shared" si="8"/>
-        <v>-79.449942950000008</v>
+        <v>-130.88976724999998</v>
       </c>
       <c r="Y24" s="2">
         <f t="shared" si="9"/>
-        <v>-68.600726349999945</v>
+        <v>-131.75137439999997</v>
       </c>
       <c r="Z24" s="2">
         <f t="shared" si="10"/>
-        <v>-15.926561899999982</v>
+        <v>-51.274544849999899</v>
       </c>
       <c r="AA24" s="2">
         <f t="shared" si="11"/>
-        <v>-110.31037044999995</v>
+        <v>-156.94905495</v>
       </c>
       <c r="AB24" s="2">
         <f t="shared" si="12"/>
-        <v>-27.294022999999839</v>
+        <v>-38.582499549999994</v>
       </c>
       <c r="AC24" s="2">
         <f t="shared" si="13"/>
-        <v>-131.79176410000014</v>
+        <v>-159.54708375000155</v>
       </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.25">
@@ -3330,43 +3327,43 @@
         <v>2002</v>
       </c>
       <c r="B25" s="2">
-        <v>191.875225</v>
+        <v>173.436904</v>
       </c>
       <c r="C25" s="2">
-        <v>82.055689000000001</v>
+        <v>68.954825999999997</v>
       </c>
       <c r="D25" s="2">
-        <v>392.55172599999997</v>
+        <v>243.02770299999901</v>
       </c>
       <c r="E25" s="2">
-        <v>259.87327299999998</v>
+        <v>154.92355800000001</v>
       </c>
       <c r="F25" s="2">
-        <v>227.529325</v>
+        <v>136.67551799999899</v>
       </c>
       <c r="G25" s="2">
-        <v>165.853004</v>
+        <v>103.786316</v>
       </c>
       <c r="H25" s="2">
-        <v>154.85043899999999</v>
+        <v>-10.285368</v>
       </c>
       <c r="I25" s="2">
-        <v>86.575700999999995</v>
+        <v>-85.257604999999998</v>
       </c>
       <c r="J25" s="2">
-        <v>143.67982900000001</v>
+        <v>-131.73435499999999</v>
       </c>
       <c r="K25" s="2">
-        <v>118.226377</v>
+        <v>-15.2999309999999</v>
       </c>
       <c r="L25" s="2">
-        <v>112.55617599999999</v>
+        <v>-103.317235</v>
       </c>
       <c r="M25" s="2">
-        <v>172.25210799999999</v>
+        <v>-3.9635279999999899</v>
       </c>
       <c r="N25" s="2">
-        <v>-751.88016100000004</v>
+        <v>-1606.3370669999999</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" s="3">
@@ -3374,55 +3371,55 @@
       </c>
       <c r="Q25" s="2">
         <f t="shared" si="1"/>
-        <v>32.693326850000119</v>
+        <v>31.221795100000122</v>
       </c>
       <c r="R25" s="2">
         <f t="shared" si="2"/>
-        <v>-22.540656350000006</v>
+        <v>-19.843738549999955</v>
       </c>
       <c r="S25" s="2">
         <f t="shared" si="3"/>
-        <v>-9.9203024999997638</v>
+        <v>-27.98341060000098</v>
       </c>
       <c r="T25" s="2">
         <f t="shared" si="4"/>
-        <v>-45.926876099999845</v>
+        <v>-48.561760749999877</v>
       </c>
       <c r="U25" s="2">
         <f t="shared" si="5"/>
-        <v>-15.992238749999984</v>
+        <v>0.84511194999907957</v>
       </c>
       <c r="V25" s="2">
         <f t="shared" si="6"/>
-        <v>49.457221700000161</v>
+        <v>30.540820250000081</v>
       </c>
       <c r="W25" s="2">
         <f t="shared" si="7"/>
-        <v>-35.077665549999892</v>
+        <v>-73.553716649999942</v>
       </c>
       <c r="X25" s="2">
         <f t="shared" si="8"/>
-        <v>-29.906033949999923</v>
+        <v>-50.611518249999989</v>
       </c>
       <c r="Y25" s="2">
         <f t="shared" si="9"/>
-        <v>-42.220978349999939</v>
+        <v>-60.08804539999997</v>
       </c>
       <c r="Z25" s="2">
         <f t="shared" si="10"/>
-        <v>7.1733001000000201</v>
+        <v>-2.9619918499998992</v>
       </c>
       <c r="AA25" s="2">
         <f t="shared" si="11"/>
-        <v>-43.35777644999996</v>
+        <v>-72.040403949999998</v>
       </c>
       <c r="AB25" s="2">
         <f t="shared" si="12"/>
-        <v>1.7941280000001427</v>
+        <v>-16.535169549999981</v>
       </c>
       <c r="AC25" s="2">
         <f t="shared" si="13"/>
-        <v>-247.44355110000015</v>
+        <v>-280.43924475000154</v>
       </c>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.25">
@@ -3430,43 +3427,43 @@
         <v>2003</v>
       </c>
       <c r="B26" s="2">
-        <v>183.24843300000001</v>
+        <v>166.748897</v>
       </c>
       <c r="C26" s="2">
-        <v>53.375964000000003</v>
+        <v>43.911512999999999</v>
       </c>
       <c r="D26" s="2">
-        <v>407.58176200000003</v>
+        <v>272.50495999999998</v>
       </c>
       <c r="E26" s="2">
-        <v>335.14427999999998</v>
+        <v>237.22800799999999</v>
       </c>
       <c r="F26" s="2">
-        <v>265.17014599999999</v>
+        <v>164.79413</v>
       </c>
       <c r="G26" s="2">
-        <v>242.49367899999999</v>
+        <v>143.169568</v>
       </c>
       <c r="H26" s="2">
-        <v>119.182248</v>
+        <v>-73.842681999999996</v>
       </c>
       <c r="I26" s="2">
-        <v>128.421997</v>
+        <v>-39.431930999999999</v>
       </c>
       <c r="J26" s="2">
-        <v>214.38869399999999</v>
+        <v>-54.900655999999998</v>
       </c>
       <c r="K26" s="2">
-        <v>104.988794</v>
+        <v>-19.715419000000001</v>
       </c>
       <c r="L26" s="2">
-        <v>173.17290399999999</v>
+        <v>-39.698832000000003</v>
       </c>
       <c r="M26" s="2">
-        <v>135.42817600000001</v>
+        <v>-40.161845</v>
       </c>
       <c r="N26" s="2">
-        <v>-630.312366</v>
+        <v>-1490.1907470000001</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" s="3">
@@ -3474,55 +3471,55 @@
       </c>
       <c r="Q26" s="2">
         <f t="shared" si="1"/>
-        <v>24.066534850000124</v>
+        <v>24.533788100000123</v>
       </c>
       <c r="R26" s="2">
         <f t="shared" si="2"/>
-        <v>-51.220381350000004</v>
+        <v>-44.887051549999953</v>
       </c>
       <c r="S26" s="2">
         <f t="shared" si="3"/>
-        <v>5.1097335000002886</v>
+        <v>1.4938463999999954</v>
       </c>
       <c r="T26" s="2">
         <f t="shared" si="4"/>
-        <v>29.344130900000152</v>
+        <v>33.742689250000097</v>
       </c>
       <c r="U26" s="2">
         <f t="shared" si="5"/>
-        <v>21.648582250000004</v>
+        <v>28.963723950000087</v>
       </c>
       <c r="V26" s="2">
         <f t="shared" si="6"/>
-        <v>126.09789670000015</v>
+        <v>69.92407225000008</v>
       </c>
       <c r="W26" s="2">
         <f t="shared" si="7"/>
-        <v>-70.745856549999885</v>
+        <v>-137.11103064999992</v>
       </c>
       <c r="X26" s="2">
         <f t="shared" si="8"/>
-        <v>11.940262050000086</v>
+        <v>-4.7858442499999896</v>
       </c>
       <c r="Y26" s="2">
         <f t="shared" si="9"/>
-        <v>28.487886650000036</v>
+        <v>16.745653600000026</v>
       </c>
       <c r="Z26" s="2">
         <f t="shared" si="10"/>
-        <v>-6.0642828999999807</v>
+        <v>-7.3774798500000003</v>
       </c>
       <c r="AA26" s="2">
         <f t="shared" si="11"/>
-        <v>17.258951550000035</v>
+        <v>-8.4220009500000046</v>
       </c>
       <c r="AB26" s="2">
         <f t="shared" si="12"/>
-        <v>-35.029803999999842</v>
+        <v>-52.733486549999995</v>
       </c>
       <c r="AC26" s="2">
         <f t="shared" si="13"/>
-        <v>-125.8757561000001</v>
+        <v>-164.2929247500017</v>
       </c>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.25">
@@ -3530,43 +3527,43 @@
         <v>2004</v>
       </c>
       <c r="B27" s="2">
-        <v>140.403751</v>
+        <v>126.368246</v>
       </c>
       <c r="C27" s="2">
-        <v>80.464099000000004</v>
+        <v>69.052052000000003</v>
       </c>
       <c r="D27" s="2">
-        <v>453.39021100000002</v>
+        <v>293.21854999999999</v>
       </c>
       <c r="E27" s="2">
-        <v>253.73915899999901</v>
+        <v>148.801839</v>
       </c>
       <c r="F27" s="2">
-        <v>204.903176</v>
+        <v>117.919881</v>
       </c>
       <c r="G27" s="2">
-        <v>150.19873000000001</v>
+        <v>85.808477999999994</v>
       </c>
       <c r="H27" s="2">
-        <v>174.504324</v>
+        <v>29.851051999999999</v>
       </c>
       <c r="I27" s="2">
-        <v>1.364371</v>
+        <v>-204.216385</v>
       </c>
       <c r="J27" s="2">
-        <v>131.94699499999999</v>
+        <v>-156.88764</v>
       </c>
       <c r="K27" s="2">
-        <v>93.102013999999997</v>
+        <v>-34.920228000000002</v>
       </c>
       <c r="L27" s="2">
-        <v>87.025035000000003</v>
+        <v>-117.097719</v>
       </c>
       <c r="M27" s="2">
-        <v>110.589312999999</v>
+        <v>-66.813655999999995</v>
       </c>
       <c r="N27" s="2">
-        <v>-653.69287699999995</v>
+        <v>-1490.805762</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" s="3">
@@ -3574,55 +3571,55 @@
       </c>
       <c r="Q27" s="2">
         <f t="shared" si="1"/>
-        <v>-18.778147149999882</v>
+        <v>-15.846862899999877</v>
       </c>
       <c r="R27" s="2">
         <f t="shared" si="2"/>
-        <v>-24.132246350000003</v>
+        <v>-19.746512549999949</v>
       </c>
       <c r="S27" s="2">
         <f t="shared" si="3"/>
-        <v>50.918182500000285</v>
+        <v>22.207436400000006</v>
       </c>
       <c r="T27" s="2">
         <f t="shared" si="4"/>
-        <v>-52.060990100000822</v>
+        <v>-54.68347974999989</v>
       </c>
       <c r="U27" s="2">
         <f t="shared" si="5"/>
-        <v>-38.618387749999982</v>
+        <v>-17.910525049999904</v>
       </c>
       <c r="V27" s="2">
         <f t="shared" si="6"/>
-        <v>33.802947700000175</v>
+        <v>12.562982250000076</v>
       </c>
       <c r="W27" s="2">
         <f t="shared" si="7"/>
-        <v>-15.42378054999989</v>
+        <v>-33.41729664999994</v>
       </c>
       <c r="X27" s="2">
         <f t="shared" si="8"/>
-        <v>-115.11736394999991</v>
+        <v>-169.57029825000001</v>
       </c>
       <c r="Y27" s="2">
         <f t="shared" si="9"/>
-        <v>-53.953812349999964</v>
+        <v>-85.241330399999981</v>
       </c>
       <c r="Z27" s="2">
         <f t="shared" si="10"/>
-        <v>-17.951062899999982</v>
+        <v>-22.582288850000001</v>
       </c>
       <c r="AA27" s="2">
         <f t="shared" si="11"/>
-        <v>-68.888917449999951</v>
+        <v>-85.820887949999999</v>
       </c>
       <c r="AB27" s="2">
         <f t="shared" si="12"/>
-        <v>-59.868667000000855</v>
+        <v>-79.38529754999999</v>
       </c>
       <c r="AC27" s="2">
         <f t="shared" si="13"/>
-        <v>-149.25626710000006</v>
+        <v>-164.90793975000156</v>
       </c>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.25">
@@ -3630,43 +3627,43 @@
         <v>2005</v>
       </c>
       <c r="B28" s="2">
-        <v>144.09037699999999</v>
+        <v>126.21536999999999</v>
       </c>
       <c r="C28" s="2">
-        <v>108.27625</v>
+        <v>92.095981999999907</v>
       </c>
       <c r="D28" s="2">
-        <v>481.20791399999899</v>
+        <v>353.481382</v>
       </c>
       <c r="E28" s="2">
-        <v>254.65353899999999</v>
+        <v>154.63065</v>
       </c>
       <c r="F28" s="2">
-        <v>252.431613</v>
+        <v>132.833023</v>
       </c>
       <c r="G28" s="2">
-        <v>128.448227</v>
+        <v>74.430867000000006</v>
       </c>
       <c r="H28" s="2">
-        <v>193.29295099999999</v>
+        <v>64.428608999999994</v>
       </c>
       <c r="I28" s="2">
-        <v>106.88545499999999</v>
+        <v>-36.499184</v>
       </c>
       <c r="J28" s="2">
-        <v>160.893315</v>
+        <v>-98.229828999999995</v>
       </c>
       <c r="K28" s="2">
-        <v>65.267119999999906</v>
+        <v>-70.012073999999998</v>
       </c>
       <c r="L28" s="2">
-        <v>64.850476</v>
+        <v>-146.83216299999901</v>
       </c>
       <c r="M28" s="2">
-        <v>184.84823600000001</v>
+        <v>14.6690079999999</v>
       </c>
       <c r="N28" s="2">
-        <v>-712.083563999999</v>
+        <v>-1552.5272619999901</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" s="3">
@@ -3674,55 +3671,55 @@
       </c>
       <c r="Q28" s="2">
         <f t="shared" si="1"/>
-        <v>-15.091521149999892</v>
+        <v>-15.999738899999883</v>
       </c>
       <c r="R28" s="2">
         <f t="shared" si="2"/>
-        <v>3.6799046499999974</v>
+        <v>3.2974174499999549</v>
       </c>
       <c r="S28" s="2">
         <f t="shared" si="3"/>
-        <v>78.735885499999256</v>
+        <v>82.470268400000009</v>
       </c>
       <c r="T28" s="2">
         <f t="shared" si="4"/>
-        <v>-51.146610099999833</v>
+        <v>-48.854668749999888</v>
       </c>
       <c r="U28" s="2">
         <f t="shared" si="5"/>
-        <v>8.9100492500000144</v>
+        <v>-2.997383049999911</v>
       </c>
       <c r="V28" s="2">
         <f t="shared" si="6"/>
-        <v>12.052444700000166</v>
+        <v>1.1853712500000881</v>
       </c>
       <c r="W28" s="2">
         <f t="shared" si="7"/>
-        <v>3.3648464500001012</v>
+        <v>1.1602603500000583</v>
       </c>
       <c r="X28" s="2">
         <f t="shared" si="8"/>
-        <v>-9.596279949999925</v>
+        <v>-1.8530972499999905</v>
       </c>
       <c r="Y28" s="2">
         <f t="shared" si="9"/>
-        <v>-25.00749234999995</v>
+        <v>-26.583519399999972</v>
       </c>
       <c r="Z28" s="2">
         <f t="shared" si="10"/>
-        <v>-45.785956900000073</v>
+        <v>-57.674134850000002</v>
       </c>
       <c r="AA28" s="2">
         <f t="shared" si="11"/>
-        <v>-91.063476449999953</v>
+        <v>-115.55533194999902</v>
       </c>
       <c r="AB28" s="2">
         <f t="shared" si="12"/>
-        <v>14.390256000000164</v>
+        <v>2.0973664499999085</v>
       </c>
       <c r="AC28" s="2">
         <f t="shared" si="13"/>
-        <v>-207.64695409999911</v>
+        <v>-226.62943974999166</v>
       </c>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.25">
@@ -3730,43 +3727,43 @@
         <v>2006</v>
       </c>
       <c r="B29" s="2">
-        <v>143.902987</v>
+        <v>127.75914499999899</v>
       </c>
       <c r="C29" s="2">
-        <v>166.04403199999999</v>
+        <v>141.166752</v>
       </c>
       <c r="D29" s="2">
-        <v>372.50049799999999</v>
+        <v>262.74782099999999</v>
       </c>
       <c r="E29" s="2">
-        <v>258.68921899999998</v>
+        <v>168.30161100000001</v>
       </c>
       <c r="F29" s="2">
-        <v>225.019429</v>
+        <v>119.227751</v>
       </c>
       <c r="G29" s="2">
-        <v>71.176530999999997</v>
+        <v>50.166028999999902</v>
       </c>
       <c r="H29" s="2">
-        <v>186.98610400000001</v>
+        <v>57.811558999999903</v>
       </c>
       <c r="I29" s="2">
-        <v>117.69797</v>
+        <v>-40.294536000000001</v>
       </c>
       <c r="J29" s="2">
-        <v>255.01978700000001</v>
+        <v>-25.587413000000002</v>
       </c>
       <c r="K29" s="2">
-        <v>95.722479000000007</v>
+        <v>-58.727343999999903</v>
       </c>
       <c r="L29" s="2">
-        <v>98.409532999999996</v>
+        <v>-125.79042699999999</v>
       </c>
       <c r="M29" s="2">
-        <v>172.17510999999999</v>
+        <v>17.096084999999999</v>
       </c>
       <c r="N29" s="2">
-        <v>-579.52703499999996</v>
+        <v>-1411.7889299999999</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" s="3">
@@ -3774,55 +3771,55 @@
       </c>
       <c r="Q29" s="2">
         <f t="shared" si="1"/>
-        <v>-15.278911149999885</v>
+        <v>-14.455963900000881</v>
       </c>
       <c r="R29" s="2">
         <f t="shared" si="2"/>
-        <v>61.44768664999998</v>
+        <v>52.36818745000005</v>
       </c>
       <c r="S29" s="2">
         <f t="shared" si="3"/>
-        <v>-29.971530499999744</v>
+        <v>-8.2632925999999998</v>
       </c>
       <c r="T29" s="2">
         <f t="shared" si="4"/>
-        <v>-47.110930099999848</v>
+        <v>-35.183707749999883</v>
       </c>
       <c r="U29" s="2">
         <f t="shared" si="5"/>
-        <v>-18.502134749999982</v>
+        <v>-16.60265504999991</v>
       </c>
       <c r="V29" s="2">
         <f t="shared" si="6"/>
-        <v>-45.21925129999984</v>
+        <v>-23.079466750000016</v>
       </c>
       <c r="W29" s="2">
         <f t="shared" si="7"/>
-        <v>-2.9420005499998751</v>
+        <v>-5.456789650000033</v>
       </c>
       <c r="X29" s="2">
         <f t="shared" si="8"/>
-        <v>1.2162350500000798</v>
+        <v>-5.6484492499999917</v>
       </c>
       <c r="Y29" s="2">
         <f t="shared" si="9"/>
-        <v>69.118979650000057</v>
+        <v>46.058896600000026</v>
       </c>
       <c r="Z29" s="2">
         <f t="shared" si="10"/>
-        <v>-15.330597899999972</v>
+        <v>-46.389404849999906</v>
       </c>
       <c r="AA29" s="2">
         <f t="shared" si="11"/>
-        <v>-57.504419449999958</v>
+        <v>-94.513595949999996</v>
       </c>
       <c r="AB29" s="2">
         <f t="shared" si="12"/>
-        <v>1.7171300000001395</v>
+        <v>4.5244434500000068</v>
       </c>
       <c r="AC29" s="2">
         <f t="shared" si="13"/>
-        <v>-75.090425100000061</v>
+        <v>-85.891107750001538</v>
       </c>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.25">
@@ -3830,43 +3827,43 @@
         <v>2007</v>
       </c>
       <c r="B30" s="2">
-        <v>136.97087500000001</v>
+        <v>122.213163999999</v>
       </c>
       <c r="C30" s="2">
-        <v>126.57960799999999</v>
+        <v>109.737224</v>
       </c>
       <c r="D30" s="2">
-        <v>454.157096999999</v>
+        <v>323.57561099999998</v>
       </c>
       <c r="E30" s="2">
-        <v>340.84168499999998</v>
+        <v>233.09435099999999</v>
       </c>
       <c r="F30" s="2">
-        <v>257.578844</v>
+        <v>129.96417099999999</v>
       </c>
       <c r="G30" s="2">
-        <v>107.808555</v>
+        <v>73.285399999999996</v>
       </c>
       <c r="H30" s="2">
-        <v>220.87330800000001</v>
+        <v>90.614469999999997</v>
       </c>
       <c r="I30" s="2">
-        <v>115.128961</v>
+        <v>-22.741195000000001</v>
       </c>
       <c r="J30" s="2">
-        <v>213.979208</v>
+        <v>18.830613</v>
       </c>
       <c r="K30" s="2">
-        <v>123.774822</v>
+        <v>14.964670999999999</v>
       </c>
       <c r="L30" s="2">
-        <v>268.01567599999998</v>
+        <v>75.621303999999995</v>
       </c>
       <c r="M30" s="2">
-        <v>177.25544299999899</v>
+        <v>31.938776000000001</v>
       </c>
       <c r="N30" s="2">
-        <v>-415.32517000000001</v>
+        <v>-1235.753483</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" s="3">
@@ -3874,55 +3871,55 @@
       </c>
       <c r="Q30" s="2">
         <f t="shared" si="1"/>
-        <v>-22.211023149999875</v>
+        <v>-20.001944900000879</v>
       </c>
       <c r="R30" s="2">
         <f t="shared" si="2"/>
-        <v>21.983262649999986</v>
+        <v>20.938659450000046</v>
       </c>
       <c r="S30" s="2">
         <f t="shared" si="3"/>
-        <v>51.685068499999261</v>
+        <v>52.564497399999993</v>
       </c>
       <c r="T30" s="2">
         <f t="shared" si="4"/>
-        <v>35.041535900000156</v>
+        <v>29.609032250000098</v>
       </c>
       <c r="U30" s="2">
         <f t="shared" si="5"/>
-        <v>14.057280250000019</v>
+        <v>-5.866235049999915</v>
       </c>
       <c r="V30" s="2">
         <f t="shared" si="6"/>
-        <v>-8.5872272999998387</v>
+        <v>3.9904250000077468E-2</v>
       </c>
       <c r="W30" s="2">
         <f t="shared" si="7"/>
-        <v>30.945203450000122</v>
+        <v>27.346121350000061</v>
       </c>
       <c r="X30" s="2">
         <f t="shared" si="8"/>
-        <v>-1.3527739499999143</v>
+        <v>11.904891750000008</v>
       </c>
       <c r="Y30" s="2">
         <f t="shared" si="9"/>
-        <v>28.078400650000049</v>
+        <v>90.476922600000023</v>
       </c>
       <c r="Z30" s="2">
         <f t="shared" si="10"/>
-        <v>12.721745100000021</v>
+        <v>27.30261015</v>
       </c>
       <c r="AA30" s="2">
         <f t="shared" si="11"/>
-        <v>112.10172355000003</v>
+        <v>106.89813504999999</v>
       </c>
       <c r="AB30" s="2">
         <f t="shared" si="12"/>
-        <v>6.7974629999991407</v>
+        <v>19.367134450000009</v>
       </c>
       <c r="AC30" s="2">
         <f t="shared" si="13"/>
-        <v>89.11143989999988</v>
+        <v>90.144339249998438</v>
       </c>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.25">
@@ -3930,43 +3927,43 @@
         <v>2008</v>
       </c>
       <c r="B31" s="2">
-        <v>140.753681</v>
+        <v>124.88616399999999</v>
       </c>
       <c r="C31" s="2">
-        <v>132.72274999999999</v>
+        <v>109.593694</v>
       </c>
       <c r="D31" s="2">
-        <v>366.06339100000002</v>
+        <v>230.488406</v>
       </c>
       <c r="E31" s="2">
-        <v>293.74929400000002</v>
+        <v>192.90114399999999</v>
       </c>
       <c r="F31" s="2">
-        <v>242.44685000000001</v>
+        <v>126.194622</v>
       </c>
       <c r="G31" s="2">
-        <v>128.50687299999899</v>
+        <v>80.262472000000002</v>
       </c>
       <c r="H31" s="2">
-        <v>208.30685500000001</v>
+        <v>77.673061000000004</v>
       </c>
       <c r="I31" s="2">
-        <v>66.551932999999906</v>
+        <v>-121.064196</v>
       </c>
       <c r="J31" s="2">
-        <v>200.26643799999999</v>
+        <v>-57.398986999999998</v>
       </c>
       <c r="K31" s="2">
-        <v>150.97010299999999</v>
+        <v>29.3637219999999</v>
       </c>
       <c r="L31" s="2">
-        <v>227.938513</v>
+        <v>84.746954000000002</v>
       </c>
       <c r="M31" s="2">
-        <v>162.60803200000001</v>
+        <v>11.777328000000001</v>
       </c>
       <c r="N31" s="2">
-        <v>-395.07909999999998</v>
+        <v>-1233.3901719999999</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" s="3">
@@ -3974,55 +3971,55 @@
       </c>
       <c r="Q31" s="2">
         <f t="shared" si="1"/>
-        <v>-18.428217149999881</v>
+        <v>-17.328944899999883</v>
       </c>
       <c r="R31" s="2">
         <f t="shared" si="2"/>
-        <v>28.126404649999984</v>
+        <v>20.795129450000047</v>
       </c>
       <c r="S31" s="2">
         <f t="shared" si="3"/>
-        <v>-36.408637499999713</v>
+        <v>-40.52270759999999</v>
       </c>
       <c r="T31" s="2">
         <f t="shared" si="4"/>
-        <v>-12.050855099999808</v>
+        <v>-10.584174749999903</v>
       </c>
       <c r="U31" s="2">
         <f t="shared" si="5"/>
-        <v>-1.0747137499999724</v>
+        <v>-9.6357840499999128</v>
       </c>
       <c r="V31" s="2">
         <f t="shared" si="6"/>
-        <v>12.111090699999153</v>
+        <v>7.0169762500000843</v>
       </c>
       <c r="W31" s="2">
         <f t="shared" si="7"/>
-        <v>18.378750450000126</v>
+        <v>14.404712350000068</v>
       </c>
       <c r="X31" s="2">
         <f t="shared" si="8"/>
-        <v>-49.929801950000012</v>
+        <v>-86.418109249999986</v>
       </c>
       <c r="Y31" s="2">
         <f t="shared" si="9"/>
-        <v>14.365630650000043</v>
+        <v>14.247322600000025</v>
       </c>
       <c r="Z31" s="2">
         <f t="shared" si="10"/>
-        <v>39.917026100000015</v>
+        <v>41.7016611499999</v>
       </c>
       <c r="AA31" s="2">
         <f t="shared" si="11"/>
-        <v>72.024560550000047</v>
+        <v>116.02378505</v>
       </c>
       <c r="AB31" s="2">
         <f t="shared" si="12"/>
-        <v>-7.8499479999998414</v>
+        <v>-0.79431354999999115</v>
       </c>
       <c r="AC31" s="2">
         <f t="shared" si="13"/>
-        <v>109.35750989999991</v>
+        <v>92.507650249998505</v>
       </c>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.25">
@@ -4030,43 +4027,43 @@
         <v>2009</v>
       </c>
       <c r="B32" s="2">
-        <v>137.56636399999999</v>
+        <v>120.632687</v>
       </c>
       <c r="C32" s="2">
-        <v>146.073115</v>
+        <v>122.3633</v>
       </c>
       <c r="D32" s="2">
-        <v>378.37989800000003</v>
+        <v>229.92230799999999</v>
       </c>
       <c r="E32" s="2">
-        <v>321.22645899999998</v>
+        <v>219.43086400000001</v>
       </c>
       <c r="F32" s="2">
-        <v>222.49875399999999</v>
+        <v>110.78976599999901</v>
       </c>
       <c r="G32" s="2">
-        <v>141.293476</v>
+        <v>91.892016999999996</v>
       </c>
       <c r="H32" s="2">
-        <v>200.15139399999899</v>
+        <v>66.074680000000001</v>
       </c>
       <c r="I32" s="2">
-        <v>140.656791</v>
+        <v>-5.4134399999999996</v>
       </c>
       <c r="J32" s="2">
-        <v>135.00232</v>
+        <v>-122.31619499999999</v>
       </c>
       <c r="K32" s="2">
-        <v>82.929143999999994</v>
+        <v>-30.056556</v>
       </c>
       <c r="L32" s="2">
-        <v>133.917057</v>
+        <v>-58.805728999999999</v>
       </c>
       <c r="M32" s="2">
-        <v>162.71585099999999</v>
+        <v>-3.6524220000000001</v>
       </c>
       <c r="N32" s="2">
-        <v>-650.71797900000001</v>
+        <v>-1485.7707</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" s="3">
@@ -4074,55 +4071,55 @@
       </c>
       <c r="Q32" s="2">
         <f t="shared" si="1"/>
-        <v>-21.615534149999888</v>
+        <v>-21.582421899999872</v>
       </c>
       <c r="R32" s="2">
         <f t="shared" si="2"/>
-        <v>41.476769649999994</v>
+        <v>33.564735450000043</v>
       </c>
       <c r="S32" s="2">
         <f t="shared" si="3"/>
-        <v>-24.092130499999712</v>
+        <v>-41.088805600000001</v>
       </c>
       <c r="T32" s="2">
         <f t="shared" si="4"/>
-        <v>15.426309900000149</v>
+        <v>15.945545250000123</v>
       </c>
       <c r="U32" s="2">
         <f t="shared" si="5"/>
-        <v>-21.022809749999993</v>
+        <v>-25.040640050000903</v>
       </c>
       <c r="V32" s="2">
         <f t="shared" si="6"/>
-        <v>24.897693700000161</v>
+        <v>18.646521250000077</v>
       </c>
       <c r="W32" s="2">
         <f t="shared" si="7"/>
-        <v>10.2232894499991</v>
+        <v>2.8063313500000646</v>
       </c>
       <c r="X32" s="2">
         <f t="shared" si="8"/>
-        <v>24.17505605000008</v>
+        <v>29.232646750000008</v>
       </c>
       <c r="Y32" s="2">
         <f t="shared" si="9"/>
-        <v>-50.898487349999954</v>
+        <v>-50.66988539999997</v>
       </c>
       <c r="Z32" s="2">
         <f t="shared" si="10"/>
-        <v>-28.123932899999986</v>
+        <v>-17.71861685</v>
       </c>
       <c r="AA32" s="2">
         <f t="shared" si="11"/>
-        <v>-21.996895449999954</v>
+        <v>-27.528897950000001</v>
       </c>
       <c r="AB32" s="2">
         <f t="shared" si="12"/>
-        <v>-7.7421289999998635</v>
+        <v>-16.224063549999993</v>
       </c>
       <c r="AC32" s="2">
         <f t="shared" si="13"/>
-        <v>-146.28136910000012</v>
+        <v>-159.87287775000163</v>
       </c>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.25">
@@ -4130,43 +4127,43 @@
         <v>2010</v>
       </c>
       <c r="B33" s="2">
-        <v>193.150655</v>
+        <v>170.052322</v>
       </c>
       <c r="C33" s="2">
-        <v>133.00068200000001</v>
+        <v>109.771891</v>
       </c>
       <c r="D33" s="2">
-        <v>394.75931600000001</v>
+        <v>284.62192900000002</v>
       </c>
       <c r="E33" s="2">
-        <v>285.27439500000003</v>
+        <v>189.59258700000001</v>
       </c>
       <c r="F33" s="2">
-        <v>229.684371</v>
+        <v>125.47556299999999</v>
       </c>
       <c r="G33" s="2">
-        <v>87.314897000000002</v>
+        <v>54.835547999999903</v>
       </c>
       <c r="H33" s="2">
-        <v>238.566033</v>
+        <v>122.049904</v>
       </c>
       <c r="I33" s="2">
-        <v>120.49955199999999</v>
+        <v>-27.090955999999998</v>
       </c>
       <c r="J33" s="2">
-        <v>197.07911100000001</v>
+        <v>-72.482224000000002</v>
       </c>
       <c r="K33" s="2">
-        <v>102.938288</v>
+        <v>-22.281741</v>
       </c>
       <c r="L33" s="2">
-        <v>167.29956999999999</v>
+        <v>-6.6463199999999896</v>
       </c>
       <c r="M33" s="2">
-        <v>159.95517799999999</v>
+        <v>15.386904999999899</v>
       </c>
       <c r="N33" s="2">
-        <v>-324.71486299999998</v>
+        <v>-1151.348935</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" s="3">
@@ -4174,55 +4171,55 @@
       </c>
       <c r="Q33" s="2">
         <f t="shared" si="1"/>
-        <v>33.968756850000119</v>
+        <v>27.837213100000127</v>
       </c>
       <c r="R33" s="2">
         <f t="shared" si="2"/>
-        <v>28.404336650000005</v>
+        <v>20.973326450000044</v>
       </c>
       <c r="S33" s="2">
         <f t="shared" si="3"/>
-        <v>-7.712712499999725</v>
+        <v>13.610815400000035</v>
       </c>
       <c r="T33" s="2">
         <f t="shared" si="4"/>
-        <v>-20.525754099999801</v>
+        <v>-13.892731749999882</v>
       </c>
       <c r="U33" s="2">
         <f t="shared" si="5"/>
-        <v>-13.837192749999986</v>
+        <v>-10.354843049999914</v>
       </c>
       <c r="V33" s="2">
         <f t="shared" si="6"/>
-        <v>-29.080885299999835</v>
+        <v>-18.409947750000015</v>
       </c>
       <c r="W33" s="2">
         <f t="shared" si="7"/>
-        <v>48.637928450000118</v>
+        <v>58.781555350000062</v>
       </c>
       <c r="X33" s="2">
         <f t="shared" si="8"/>
-        <v>4.0178170500000761</v>
+        <v>7.5551307500000107</v>
       </c>
       <c r="Y33" s="2">
         <f t="shared" si="9"/>
-        <v>11.178303650000061</v>
+        <v>-0.83591439999997874</v>
       </c>
       <c r="Z33" s="2">
         <f t="shared" si="10"/>
-        <v>-8.1147888999999793</v>
+        <v>-9.9438018499999998</v>
       </c>
       <c r="AA33" s="2">
         <f t="shared" si="11"/>
-        <v>11.385617550000035</v>
+        <v>24.63051105000001</v>
       </c>
       <c r="AB33" s="2">
         <f t="shared" si="12"/>
-        <v>-10.502801999999861</v>
+        <v>2.8152634499999074</v>
       </c>
       <c r="AC33" s="2">
         <f t="shared" si="13"/>
-        <v>179.72174689999991</v>
+        <v>174.54888724999842</v>
       </c>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.25">
@@ -4230,43 +4227,43 @@
         <v>2011</v>
       </c>
       <c r="B34" s="2">
-        <v>159.81936299999899</v>
+        <v>143.62297000000001</v>
       </c>
       <c r="C34" s="2">
-        <v>107.008702</v>
+        <v>92.804351999999994</v>
       </c>
       <c r="D34" s="2">
-        <v>365.50530699999899</v>
+        <v>247.10094100000001</v>
       </c>
       <c r="E34" s="2">
-        <v>297.51258300000001</v>
+        <v>202.66475399999999</v>
       </c>
       <c r="F34" s="2">
-        <v>260.194457</v>
+        <v>131.50900799999999</v>
       </c>
       <c r="G34" s="2">
-        <v>149.120915</v>
+        <v>106.433388999999</v>
       </c>
       <c r="H34" s="2">
-        <v>211.44644099999999</v>
+        <v>115.406269999999</v>
       </c>
       <c r="I34" s="2">
-        <v>132.65151</v>
+        <v>17.810310000000001</v>
       </c>
       <c r="J34" s="2">
-        <v>134.354029</v>
+        <v>-120.775879</v>
       </c>
       <c r="K34" s="2">
-        <v>72.352743000000004</v>
+        <v>-34.469815999999902</v>
       </c>
       <c r="L34" s="2">
-        <v>185.27074400000001</v>
+        <v>13.145113</v>
       </c>
       <c r="M34" s="2">
-        <v>209.28746000000001</v>
+        <v>66.960879000000006</v>
       </c>
       <c r="N34" s="2">
-        <v>-382.56644299999999</v>
+        <v>-1198.1122989999999</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" s="3">
@@ -4274,55 +4271,55 @@
       </c>
       <c r="Q34" s="2">
         <f t="shared" si="1"/>
-        <v>0.63746484999910535</v>
+        <v>1.4078611000001331</v>
       </c>
       <c r="R34" s="2">
         <f t="shared" si="2"/>
-        <v>2.4123566499999924</v>
+        <v>4.0057874500000423</v>
       </c>
       <c r="S34" s="2">
         <f t="shared" si="3"/>
-        <v>-36.966721500000745</v>
+        <v>-23.910172599999981</v>
       </c>
       <c r="T34" s="2">
         <f t="shared" si="4"/>
-        <v>-8.2875660999998217</v>
+        <v>-0.82056474999990314</v>
       </c>
       <c r="U34" s="2">
         <f t="shared" si="5"/>
-        <v>16.672893250000016</v>
+        <v>-4.3213980499999138</v>
       </c>
       <c r="V34" s="2">
         <f t="shared" si="6"/>
-        <v>32.72513270000016</v>
+        <v>33.187893249999078</v>
       </c>
       <c r="W34" s="2">
         <f t="shared" si="7"/>
-        <v>21.518336450000106</v>
+        <v>52.137921349999061</v>
       </c>
       <c r="X34" s="2">
         <f t="shared" si="8"/>
-        <v>16.169775050000084</v>
+        <v>52.45639675000001</v>
       </c>
       <c r="Y34" s="2">
         <f t="shared" si="9"/>
-        <v>-51.546778349999954</v>
+        <v>-49.12956939999998</v>
       </c>
       <c r="Z34" s="2">
         <f t="shared" si="10"/>
-        <v>-38.700333899999976</v>
+        <v>-22.131876849999902</v>
       </c>
       <c r="AA34" s="2">
         <f t="shared" si="11"/>
-        <v>29.356791550000054</v>
+        <v>44.42194405</v>
       </c>
       <c r="AB34" s="2">
         <f t="shared" si="12"/>
-        <v>38.82948000000016</v>
+        <v>54.38923745000001</v>
       </c>
       <c r="AC34" s="2">
         <f t="shared" si="13"/>
-        <v>121.8701668999999</v>
+        <v>127.7855232499985</v>
       </c>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.25">
@@ -4330,43 +4327,43 @@
         <v>2012</v>
       </c>
       <c r="B35" s="2">
-        <v>183.76130499999999</v>
+        <v>164.32192000000001</v>
       </c>
       <c r="C35" s="2">
-        <v>186.194695</v>
+        <v>153.67648799999901</v>
       </c>
       <c r="D35" s="2">
-        <v>398.255493</v>
+        <v>274.61569900000001</v>
       </c>
       <c r="E35" s="2">
-        <v>271.88206400000001</v>
+        <v>181.066846</v>
       </c>
       <c r="F35" s="2">
-        <v>297.09386899999998</v>
+        <v>169.480378</v>
       </c>
       <c r="G35" s="2">
-        <v>48.971089999999997</v>
+        <v>30.510206</v>
       </c>
       <c r="H35" s="2">
-        <v>171.82786999999999</v>
+        <v>89.599857</v>
       </c>
       <c r="I35" s="2">
-        <v>187.07409999999999</v>
+        <v>59.981120999999902</v>
       </c>
       <c r="J35" s="2">
-        <v>338.63914399999999</v>
+        <v>115.80684299999901</v>
       </c>
       <c r="K35" s="2">
-        <v>181.35653400000001</v>
+        <v>58.146970999999901</v>
       </c>
       <c r="L35" s="2">
-        <v>206.50258700000001</v>
+        <v>67.917828999999998</v>
       </c>
       <c r="M35" s="2">
-        <v>199.01564500000001</v>
+        <v>57.686931000000001</v>
       </c>
       <c r="N35" s="2">
-        <v>-328.19620800000001</v>
+        <v>-1117.1481449999901</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" s="3">
@@ -4374,55 +4371,55 @@
       </c>
       <c r="Q35" s="2">
         <f t="shared" si="1"/>
-        <v>24.579406850000112</v>
+        <v>22.106811100000129</v>
       </c>
       <c r="R35" s="2">
         <f t="shared" si="2"/>
-        <v>81.598349649999989</v>
+        <v>64.877923449999059</v>
       </c>
       <c r="S35" s="2">
         <f t="shared" si="3"/>
-        <v>-4.2165354999997362</v>
+        <v>3.604585400000019</v>
       </c>
       <c r="T35" s="2">
         <f t="shared" si="4"/>
-        <v>-33.918085099999814</v>
+        <v>-22.418472749999893</v>
       </c>
       <c r="U35" s="2">
         <f t="shared" si="5"/>
-        <v>53.572305249999999</v>
+        <v>33.649971950000094</v>
       </c>
       <c r="V35" s="2">
         <f t="shared" si="6"/>
-        <v>-67.424692299999833</v>
+        <v>-42.735289749999922</v>
       </c>
       <c r="W35" s="2">
         <f t="shared" si="7"/>
-        <v>-18.100234549999897</v>
+        <v>26.331508350000064</v>
       </c>
       <c r="X35" s="2">
         <f t="shared" si="8"/>
-        <v>70.592365050000069</v>
+        <v>94.627207749999911</v>
       </c>
       <c r="Y35" s="2">
         <f t="shared" si="9"/>
-        <v>152.73833665000004</v>
+        <v>187.45315259999904</v>
       </c>
       <c r="Z35" s="2">
         <f t="shared" si="10"/>
-        <v>70.303457100000031</v>
+        <v>70.484910149999905</v>
       </c>
       <c r="AA35" s="2">
         <f t="shared" si="11"/>
-        <v>50.588634550000052</v>
+        <v>99.194660049999996</v>
       </c>
       <c r="AB35" s="2">
         <f t="shared" si="12"/>
-        <v>28.557665000000156</v>
+        <v>45.115289450000006</v>
       </c>
       <c r="AC35" s="2">
         <f t="shared" si="13"/>
-        <v>176.24040189999988</v>
+        <v>208.74967725000829</v>
       </c>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.25">
@@ -4430,43 +4427,43 @@
         <v>2013</v>
       </c>
       <c r="B36" s="2">
-        <v>160.23957300000001</v>
+        <v>139.96476000000001</v>
       </c>
       <c r="C36" s="2">
-        <v>159.20154600000001</v>
+        <v>134.34408500000001</v>
       </c>
       <c r="D36" s="2">
-        <v>366.44824299999999</v>
+        <v>234.71261799999999</v>
       </c>
       <c r="E36" s="2">
-        <v>324.84310399999998</v>
+        <v>220.874281</v>
       </c>
       <c r="F36" s="2">
-        <v>252.8477</v>
+        <v>152.710162</v>
       </c>
       <c r="G36" s="2">
-        <v>74.405552999999998</v>
+        <v>47.121891999999903</v>
       </c>
       <c r="H36" s="2">
-        <v>194.003715</v>
+        <v>67.144782999999904</v>
       </c>
       <c r="I36" s="2">
-        <v>148.673036</v>
+        <v>11.319953999999999</v>
       </c>
       <c r="J36" s="2">
-        <v>160.85466700000001</v>
+        <v>-114.89544199999899</v>
       </c>
       <c r="K36" s="2">
-        <v>118.051502</v>
+        <v>-12.385968</v>
       </c>
       <c r="L36" s="2">
-        <v>66.985088000000005</v>
+        <v>-141.85489899999999</v>
       </c>
       <c r="M36" s="2">
-        <v>149.63925699999999</v>
+        <v>-11.706977</v>
       </c>
       <c r="N36" s="2">
-        <v>-356.64905499999998</v>
+        <v>-1147.01126</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" s="3">
@@ -4474,55 +4471,55 @@
       </c>
       <c r="Q36" s="2">
         <f t="shared" si="1"/>
-        <v>1.0576748500001258</v>
+        <v>-2.2503488999998638</v>
       </c>
       <c r="R36" s="2">
         <f t="shared" si="2"/>
-        <v>54.60520065</v>
+        <v>45.545520450000055</v>
       </c>
       <c r="S36" s="2">
         <f t="shared" si="3"/>
-        <v>-36.023785499999747</v>
+        <v>-36.298495599999995</v>
       </c>
       <c r="T36" s="2">
         <f t="shared" si="4"/>
-        <v>19.042954900000154</v>
+        <v>17.388962250000105</v>
       </c>
       <c r="U36" s="2">
         <f t="shared" si="5"/>
-        <v>9.3261362500000189</v>
+        <v>16.879755950000089</v>
       </c>
       <c r="V36" s="2">
         <f t="shared" si="6"/>
-        <v>-41.990229299999839</v>
+        <v>-26.123603750000015</v>
       </c>
       <c r="W36" s="2">
         <f t="shared" si="7"/>
-        <v>4.0756104500001129</v>
+        <v>3.8764343499999683</v>
       </c>
       <c r="X36" s="2">
         <f t="shared" si="8"/>
-        <v>32.191301050000078</v>
+        <v>45.966040750000005</v>
       </c>
       <c r="Y36" s="2">
         <f t="shared" si="9"/>
-        <v>-25.046140349999945</v>
+        <v>-43.24913239999897</v>
       </c>
       <c r="Z36" s="2">
         <f t="shared" si="10"/>
-        <v>6.9984251000000199</v>
+        <v>-4.8028849999999679E-2</v>
       </c>
       <c r="AA36" s="2">
         <f t="shared" si="11"/>
-        <v>-88.928864449999949</v>
+        <v>-110.57806794999999</v>
       </c>
       <c r="AB36" s="2">
         <f t="shared" si="12"/>
-        <v>-20.818722999999864</v>
+        <v>-24.27861854999999</v>
       </c>
       <c r="AC36" s="2">
         <f t="shared" si="13"/>
-        <v>147.78755489999992</v>
+        <v>178.88656224999841</v>
       </c>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.25">
@@ -4530,43 +4527,43 @@
         <v>2014</v>
       </c>
       <c r="B37" s="2">
-        <v>140.067195</v>
+        <v>129.449704</v>
       </c>
       <c r="C37" s="2">
-        <v>89.876754000000005</v>
+        <v>77.572389000000001</v>
       </c>
       <c r="D37" s="2">
-        <v>385.524214999999</v>
+        <v>253.97269299999999</v>
       </c>
       <c r="E37" s="2">
-        <v>373.984881999999</v>
+        <v>276.73172199999999</v>
       </c>
       <c r="F37" s="2">
-        <v>260.58513099999999</v>
+        <v>154.39534</v>
       </c>
       <c r="G37" s="2">
-        <v>122.198816999999</v>
+        <v>80.145088000000001</v>
       </c>
       <c r="H37" s="2">
-        <v>243.38690199999999</v>
+        <v>105.267447</v>
       </c>
       <c r="I37" s="2">
-        <v>120.98088300000001</v>
+        <v>13.545364999999901</v>
       </c>
       <c r="J37" s="2">
-        <v>153.08521399999901</v>
+        <v>-107.39218200000001</v>
       </c>
       <c r="K37" s="2">
-        <v>105.274134</v>
+        <v>-21.868137000000001</v>
       </c>
       <c r="L37" s="2">
-        <v>105.926005</v>
+        <v>-84.144892999999996</v>
       </c>
       <c r="M37" s="2">
-        <v>119.672023</v>
+        <v>-41.939962000000001</v>
       </c>
       <c r="N37" s="2">
-        <v>-626.96901300000002</v>
+        <v>-1443.2409339999999</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" s="3">
@@ -4574,55 +4571,55 @@
       </c>
       <c r="Q37" s="2">
         <f t="shared" si="1"/>
-        <v>-19.114703149999883</v>
+        <v>-12.765404899999879</v>
       </c>
       <c r="R37" s="2">
         <f t="shared" si="2"/>
-        <v>-14.719591350000002</v>
+        <v>-11.226175549999951</v>
       </c>
       <c r="S37" s="2">
         <f t="shared" si="3"/>
-        <v>-16.947813500000734</v>
+        <v>-17.038420599999995</v>
       </c>
       <c r="T37" s="2">
         <f t="shared" si="4"/>
-        <v>68.184732899999176</v>
+        <v>73.2464032500001</v>
       </c>
       <c r="U37" s="2">
         <f t="shared" si="5"/>
-        <v>17.063567250000006</v>
+        <v>18.564933950000096</v>
       </c>
       <c r="V37" s="2">
         <f t="shared" si="6"/>
-        <v>5.8030346999991593</v>
+        <v>6.899592250000083</v>
       </c>
       <c r="W37" s="2">
         <f t="shared" si="7"/>
-        <v>53.458797450000105</v>
+        <v>41.999098350000068</v>
       </c>
       <c r="X37" s="2">
         <f t="shared" si="8"/>
-        <v>4.4991480500000876</v>
+        <v>48.191451749999914</v>
       </c>
       <c r="Y37" s="2">
         <f t="shared" si="9"/>
-        <v>-32.815593350000938</v>
+        <v>-35.745872399999982</v>
       </c>
       <c r="Z37" s="2">
         <f t="shared" si="10"/>
-        <v>-5.7789428999999757</v>
+        <v>-9.5301978500000004</v>
       </c>
       <c r="AA37" s="2">
         <f t="shared" si="11"/>
-        <v>-49.98794744999995</v>
+        <v>-52.868061949999998</v>
       </c>
       <c r="AB37" s="2">
         <f t="shared" si="12"/>
-        <v>-50.785956999999854</v>
+        <v>-54.51160354999999</v>
       </c>
       <c r="AC37" s="2">
         <f t="shared" si="13"/>
-        <v>-122.53240310000012</v>
+        <v>-117.34311175000153</v>
       </c>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.25">
@@ -4630,43 +4627,43 @@
         <v>2015</v>
       </c>
       <c r="B38" s="2">
-        <v>126.837754</v>
+        <v>111.48933899999901</v>
       </c>
       <c r="C38" s="2">
-        <v>85.087267999999995</v>
+        <v>75.157111</v>
       </c>
       <c r="D38" s="2">
-        <v>435.01519299999899</v>
+        <v>297.89809700000001</v>
       </c>
       <c r="E38" s="2">
-        <v>343.39728100000002</v>
+        <v>224.35021099999901</v>
       </c>
       <c r="F38" s="2">
-        <v>240.67648299999999</v>
+        <v>128.33118999999999</v>
       </c>
       <c r="G38" s="2">
-        <v>78.529147999999907</v>
+        <v>46.437308999999999</v>
       </c>
       <c r="H38" s="2">
-        <v>174.23634099999899</v>
+        <v>77.741254999999995</v>
       </c>
       <c r="I38" s="2">
-        <v>112.937999</v>
+        <v>-26.647257</v>
       </c>
       <c r="J38" s="2">
-        <v>178.71363299999999</v>
+        <v>-53.128542000000003</v>
       </c>
       <c r="K38" s="2">
-        <v>159.51254</v>
+        <v>54.698270999999998</v>
       </c>
       <c r="L38" s="2">
-        <v>304.50101899999999</v>
+        <v>133.5977</v>
       </c>
       <c r="M38" s="2">
-        <v>233.615925</v>
+        <v>86.571012999999994</v>
       </c>
       <c r="N38" s="2">
-        <v>-465.420119</v>
+        <v>-1264.9616149999999</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" s="3">
@@ -4674,55 +4671,55 @@
       </c>
       <c r="Q38" s="2">
         <f t="shared" si="1"/>
-        <v>-32.344144149999877</v>
+        <v>-30.72576990000087</v>
       </c>
       <c r="R38" s="2">
         <f t="shared" si="2"/>
-        <v>-19.509077350000013</v>
+        <v>-13.641453549999952</v>
       </c>
       <c r="S38" s="2">
         <f t="shared" si="3"/>
-        <v>32.54316449999925</v>
+        <v>26.88698340000002</v>
       </c>
       <c r="T38" s="2">
         <f t="shared" si="4"/>
-        <v>37.597131900000193</v>
+        <v>20.864892249999116</v>
       </c>
       <c r="U38" s="2">
         <f t="shared" si="5"/>
-        <v>-2.8450807499999939</v>
+        <v>-7.4992160499999159</v>
       </c>
       <c r="V38" s="2">
         <f t="shared" si="6"/>
-        <v>-37.86663429999993</v>
+        <v>-26.808186749999919</v>
       </c>
       <c r="W38" s="2">
         <f t="shared" si="7"/>
-        <v>-15.6917635500009</v>
+        <v>14.472906350000059</v>
       </c>
       <c r="X38" s="2">
         <f t="shared" si="8"/>
-        <v>-3.5437359499999133</v>
+        <v>7.9988297500000094</v>
       </c>
       <c r="Y38" s="2">
         <f t="shared" si="9"/>
-        <v>-7.1871743499999639</v>
+        <v>18.51776760000002</v>
       </c>
       <c r="Z38" s="2">
         <f t="shared" si="10"/>
-        <v>48.459463100000022</v>
+        <v>67.036210150000002</v>
       </c>
       <c r="AA38" s="2">
         <f t="shared" si="11"/>
-        <v>148.58706655000003</v>
+        <v>164.87453105</v>
       </c>
       <c r="AB38" s="2">
         <f t="shared" si="12"/>
-        <v>63.157945000000154</v>
+        <v>73.999371449999998</v>
       </c>
       <c r="AC38" s="2">
         <f t="shared" si="13"/>
-        <v>39.016490899999894</v>
+        <v>60.936207249998461</v>
       </c>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.25">
@@ -4730,43 +4727,43 @@
         <v>2016</v>
       </c>
       <c r="B39" s="2">
-        <v>140.27255600000001</v>
+        <v>124.776687</v>
       </c>
       <c r="C39" s="2">
-        <v>88.335727000000006</v>
+        <v>79.257249999999999</v>
       </c>
       <c r="D39" s="2">
-        <v>381.605569</v>
+        <v>251.501847</v>
       </c>
       <c r="E39" s="2">
-        <v>303.28670099999999</v>
+        <v>208.35254599999999</v>
       </c>
       <c r="F39" s="2">
-        <v>187.032096</v>
+        <v>99.741915000000006</v>
       </c>
       <c r="G39" s="2">
-        <v>43.368986</v>
+        <v>31.135712999999999</v>
       </c>
       <c r="H39" s="2">
-        <v>173.980908</v>
+        <v>82.672372999999993</v>
       </c>
       <c r="I39" s="2">
-        <v>176.31230500000001</v>
+        <v>5.7100999999999999E-2</v>
       </c>
       <c r="J39" s="2">
-        <v>256.68582400000003</v>
+        <v>23.970611999999999</v>
       </c>
       <c r="K39" s="2">
-        <v>174.83712399999999</v>
+        <v>56.860884999999897</v>
       </c>
       <c r="L39" s="2">
-        <v>242.91256899999999</v>
+        <v>105.251618999999</v>
       </c>
       <c r="M39" s="2">
-        <v>219.52889999999999</v>
+        <v>73.565167000000002</v>
       </c>
       <c r="N39" s="2">
-        <v>-275.76122799999899</v>
+        <v>-1056.7516009999999</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" s="3">
@@ -4774,55 +4771,55 @@
       </c>
       <c r="Q39" s="2">
         <f t="shared" si="1"/>
-        <v>-18.909342149999873</v>
+        <v>-17.438421899999881</v>
       </c>
       <c r="R39" s="2">
         <f t="shared" si="2"/>
-        <v>-16.260618350000001</v>
+        <v>-9.541314549999953</v>
       </c>
       <c r="S39" s="2">
         <f t="shared" si="3"/>
-        <v>-20.866459499999735</v>
+        <v>-19.509266599999989</v>
       </c>
       <c r="T39" s="2">
         <f t="shared" si="4"/>
-        <v>-2.5134480999998345</v>
+        <v>4.8672272500000986</v>
       </c>
       <c r="U39" s="2">
         <f t="shared" si="5"/>
-        <v>-56.489467749999989</v>
+        <v>-36.088491049999902</v>
       </c>
       <c r="V39" s="2">
         <f t="shared" si="6"/>
-        <v>-73.02679629999983</v>
+        <v>-42.109782749999923</v>
       </c>
       <c r="W39" s="2">
         <f t="shared" si="7"/>
-        <v>-15.947196549999887</v>
+        <v>19.404024350000057</v>
       </c>
       <c r="X39" s="2">
         <f t="shared" si="8"/>
-        <v>59.830570050000091</v>
+        <v>34.703187750000012</v>
       </c>
       <c r="Y39" s="2">
         <f t="shared" si="9"/>
-        <v>70.785016650000074</v>
+        <v>95.616921600000026</v>
       </c>
       <c r="Z39" s="2">
         <f t="shared" si="10"/>
-        <v>63.784047100000009</v>
+        <v>69.198824149999894</v>
       </c>
       <c r="AA39" s="2">
         <f t="shared" si="11"/>
-        <v>86.998616550000037</v>
+        <v>136.52845004999898</v>
       </c>
       <c r="AB39" s="2">
         <f t="shared" si="12"/>
-        <v>49.070920000000143</v>
+        <v>60.993525450000007</v>
       </c>
       <c r="AC39" s="2">
         <f t="shared" si="13"/>
-        <v>228.6753819000009</v>
+        <v>269.14622124999846</v>
       </c>
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.25">
@@ -4830,43 +4827,43 @@
         <v>2017</v>
       </c>
       <c r="B40" s="2">
-        <v>122.752653</v>
+        <v>112.19272599999999</v>
       </c>
       <c r="C40" s="2">
-        <v>57.356108999999996</v>
+        <v>51.336115999999997</v>
       </c>
       <c r="D40" s="2">
-        <v>402.55259699999999</v>
+        <v>286.95062300000001</v>
       </c>
       <c r="E40" s="2">
-        <v>361.35963399999901</v>
+        <v>244.02316400000001</v>
       </c>
       <c r="F40" s="2">
-        <v>238.934113</v>
+        <v>134.68771100000001</v>
       </c>
       <c r="G40" s="2">
-        <v>111.227975</v>
+        <v>73.436790999999999</v>
       </c>
       <c r="H40" s="2">
-        <v>212.341004</v>
+        <v>99.713608999999906</v>
       </c>
       <c r="I40" s="2">
-        <v>121.085759</v>
+        <v>-36.673178999999998</v>
       </c>
       <c r="J40" s="2">
-        <v>145.037181</v>
+        <v>-73.643598999999995</v>
       </c>
       <c r="K40" s="2">
-        <v>85.172501999999994</v>
+        <v>-11.001302000000001</v>
       </c>
       <c r="L40" s="2">
-        <v>128.96492599999999</v>
+        <v>-27.034887999999999</v>
       </c>
       <c r="M40" s="2">
-        <v>158.6833</v>
+        <v>5.4660529999999996</v>
       </c>
       <c r="N40" s="2">
-        <v>-483.11684200000002</v>
+        <v>-1297.7125140000001</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" s="3">
@@ -4874,55 +4871,55 @@
       </c>
       <c r="Q40" s="2">
         <f t="shared" si="1"/>
-        <v>-36.429245149999886</v>
+        <v>-30.022382899999883</v>
       </c>
       <c r="R40" s="2">
         <f t="shared" si="2"/>
-        <v>-47.240236350000011</v>
+        <v>-37.462448549999955</v>
       </c>
       <c r="S40" s="2">
         <f t="shared" si="3"/>
-        <v>8.0568500000254062E-2</v>
+        <v>15.93950940000002</v>
       </c>
       <c r="T40" s="2">
         <f t="shared" si="4"/>
-        <v>55.559484899999177</v>
+        <v>40.537845250000117</v>
       </c>
       <c r="U40" s="2">
         <f t="shared" si="5"/>
-        <v>-4.5874507499999879</v>
+        <v>-1.1426950499999009</v>
       </c>
       <c r="V40" s="2">
         <f t="shared" si="6"/>
-        <v>-5.1678072999998363</v>
+        <v>0.1912952500000813</v>
       </c>
       <c r="W40" s="2">
         <f t="shared" si="7"/>
-        <v>22.412899450000111</v>
+        <v>36.44526034999997</v>
       </c>
       <c r="X40" s="2">
         <f t="shared" si="8"/>
-        <v>4.6040240500000778</v>
+        <v>-2.0270922499999884</v>
       </c>
       <c r="Y40" s="2">
         <f t="shared" si="9"/>
-        <v>-40.863626349999947</v>
+        <v>-1.9972893999999712</v>
       </c>
       <c r="Z40" s="2">
         <f t="shared" si="10"/>
-        <v>-25.880574899999985</v>
+        <v>1.3366371499999996</v>
       </c>
       <c r="AA40" s="2">
         <f t="shared" si="11"/>
-        <v>-26.949026449999963</v>
+        <v>4.2419430499999997</v>
       </c>
       <c r="AB40" s="2">
         <f t="shared" si="12"/>
-        <v>-11.774679999999847</v>
+        <v>-7.1055885499999922</v>
       </c>
       <c r="AC40" s="2">
         <f t="shared" si="13"/>
-        <v>21.319767899999874</v>
+        <v>28.185308249998343</v>
       </c>
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.25">
@@ -4930,43 +4927,43 @@
         <v>2018</v>
       </c>
       <c r="B41" s="2">
-        <v>180.195685</v>
+        <v>165.96186</v>
       </c>
       <c r="C41" s="2">
-        <v>20.011157000000001</v>
+        <v>18.541967</v>
       </c>
       <c r="D41" s="2">
-        <v>395.098995</v>
+        <v>255.800014</v>
       </c>
       <c r="E41" s="2">
-        <v>368.11682400000001</v>
+        <v>254.84713500000001</v>
       </c>
       <c r="F41" s="2">
-        <v>170.758836</v>
+        <v>100.166822</v>
       </c>
       <c r="G41" s="2">
-        <v>73.406183999999996</v>
+        <v>41.077235999999999</v>
       </c>
       <c r="H41" s="2">
-        <v>177.527569</v>
+        <v>61.165242999999997</v>
       </c>
       <c r="I41" s="2">
-        <v>147.938795</v>
+        <v>31.316298</v>
       </c>
       <c r="J41" s="2">
-        <v>188.72457499999999</v>
+        <v>-72.330729000000005</v>
       </c>
       <c r="K41" s="2">
-        <v>104.70424300000001</v>
+        <v>-0.96045899999999995</v>
       </c>
       <c r="L41" s="2">
-        <v>158.60550000000001</v>
+        <v>-29.961479999999899</v>
       </c>
       <c r="M41" s="2">
-        <v>172.21686499999899</v>
+        <v>11.370564999999999</v>
       </c>
       <c r="N41" s="2">
-        <v>-516.83152199999995</v>
+        <v>-1290.077464</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" s="3">
@@ -4974,55 +4971,55 @@
       </c>
       <c r="Q41" s="2">
         <f t="shared" si="1"/>
-        <v>21.013786850000116</v>
+        <v>23.746751100000125</v>
       </c>
       <c r="R41" s="2">
         <f t="shared" si="2"/>
-        <v>-84.58518835000001</v>
+        <v>-70.256597549999952</v>
       </c>
       <c r="S41" s="2">
         <f t="shared" si="3"/>
-        <v>-7.3730334999997353</v>
+        <v>-15.211099599999983</v>
       </c>
       <c r="T41" s="2">
         <f t="shared" si="4"/>
-        <v>62.31667490000018</v>
+        <v>51.361816250000118</v>
       </c>
       <c r="U41" s="2">
         <f t="shared" si="5"/>
-        <v>-72.762727749999982</v>
+        <v>-35.663584049999912</v>
       </c>
       <c r="V41" s="2">
         <f t="shared" si="6"/>
-        <v>-42.989598299999841</v>
+        <v>-32.168259749999919</v>
       </c>
       <c r="W41" s="2">
         <f t="shared" si="7"/>
-        <v>-12.400535549999887</v>
+        <v>-2.1031056499999394</v>
       </c>
       <c r="X41" s="2">
         <f t="shared" si="8"/>
-        <v>31.457060050000081</v>
+        <v>65.962384750000012</v>
       </c>
       <c r="Y41" s="2">
         <f t="shared" si="9"/>
-        <v>2.8237676500000362</v>
+        <v>-0.68441939999998169</v>
       </c>
       <c r="Z41" s="2">
         <f t="shared" si="10"/>
-        <v>-6.3488338999999741</v>
+        <v>11.37748015</v>
       </c>
       <c r="AA41" s="2">
         <f t="shared" si="11"/>
-        <v>2.6915475500000525</v>
+        <v>1.3153510500000998</v>
       </c>
       <c r="AB41" s="2">
         <f t="shared" si="12"/>
-        <v>1.7588849999991396</v>
+        <v>-1.2010765499999927</v>
       </c>
       <c r="AC41" s="2">
         <f t="shared" si="13"/>
-        <v>-12.394912100000056</v>
+        <v>35.820358249998435</v>
       </c>
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.25">
@@ -5030,43 +5027,43 @@
         <v>2019</v>
       </c>
       <c r="B42" s="2">
-        <v>149.51705999999999</v>
+        <v>138.55377999999999</v>
       </c>
       <c r="C42" s="2">
-        <v>36.068545999999998</v>
+        <v>32.011451000000001</v>
       </c>
       <c r="D42" s="2">
-        <v>408.03375699999998</v>
+        <v>280.64056599999998</v>
       </c>
       <c r="E42" s="2">
-        <v>269.357595</v>
+        <v>185.047909</v>
       </c>
       <c r="F42" s="2">
-        <v>264.717645</v>
+        <v>160.61727500000001</v>
       </c>
       <c r="G42" s="2">
-        <v>121.95362799999999</v>
+        <v>80.506176999999994</v>
       </c>
       <c r="H42" s="2">
-        <v>199.00463500000001</v>
+        <v>96.218360000000004</v>
       </c>
       <c r="I42" s="2">
-        <v>133.575648</v>
+        <v>15.693866999999999</v>
       </c>
       <c r="J42" s="2">
-        <v>276.723005</v>
+        <v>66.431003000000004</v>
       </c>
       <c r="K42" s="2">
-        <v>84.193056999999996</v>
+        <v>-2.1736219999999999</v>
       </c>
       <c r="L42" s="2">
-        <v>253.50335099999899</v>
+        <v>105.405254</v>
       </c>
       <c r="M42" s="2">
-        <v>191.57552200000001</v>
+        <v>44.569262999999999</v>
       </c>
       <c r="N42" s="2">
-        <v>-379.19001800000001</v>
+        <v>-1173.5172560000001</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" s="3">
@@ -5074,112 +5071,109 @@
       </c>
       <c r="Q42" s="2">
         <f t="shared" si="1"/>
-        <v>-9.6648381499998948</v>
+        <v>-3.6613288999998872</v>
       </c>
       <c r="R42" s="2">
         <f t="shared" si="2"/>
-        <v>-68.527799350000009</v>
+        <v>-56.787113549999951</v>
       </c>
       <c r="S42" s="2">
         <f t="shared" si="3"/>
-        <v>5.5617285000002425</v>
+        <v>9.629452399999991</v>
       </c>
       <c r="T42" s="2">
         <f t="shared" si="4"/>
-        <v>-36.442554099999825</v>
+        <v>-18.437409749999887</v>
       </c>
       <c r="U42" s="2">
         <f t="shared" si="5"/>
-        <v>21.19608125000002</v>
+        <v>24.786868950000098</v>
       </c>
       <c r="V42" s="2">
         <f t="shared" si="6"/>
-        <v>5.5578457000001578</v>
+        <v>7.2606812500000757</v>
       </c>
       <c r="W42" s="2">
         <f t="shared" si="7"/>
-        <v>9.0765304500001207</v>
+        <v>32.950011350000068</v>
       </c>
       <c r="X42" s="2">
         <f t="shared" si="8"/>
-        <v>17.093913050000083</v>
+        <v>50.339953750000006</v>
       </c>
       <c r="Y42" s="2">
         <f t="shared" si="9"/>
-        <v>90.822197650000049</v>
+        <v>138.07731260000003</v>
       </c>
       <c r="Z42" s="2">
         <f t="shared" si="10"/>
-        <v>-26.860019899999983</v>
+        <v>10.16431715</v>
       </c>
       <c r="AA42" s="2">
         <f t="shared" si="11"/>
-        <v>97.589398549999032</v>
+        <v>136.68208505000001</v>
       </c>
       <c r="AB42" s="2">
         <f t="shared" si="12"/>
-        <v>21.117542000000157</v>
+        <v>31.997621450000008</v>
       </c>
       <c r="AC42" s="2">
         <f t="shared" si="13"/>
-        <v>125.24659189999988</v>
+        <v>152.38056624999831</v>
       </c>
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="B45">
         <f>AVERAGE(B23:B42)</f>
-        <v>159.18189814999988</v>
+        <v>142.21510889999988</v>
       </c>
       <c r="C45">
         <f t="shared" ref="C45:N45" si="14">AVERAGE(C23:C42)</f>
-        <v>104.59634535000001</v>
+        <v>88.798564549999952</v>
       </c>
       <c r="D45">
         <f t="shared" si="14"/>
-        <v>402.47202849999974</v>
+        <v>271.01111359999999</v>
       </c>
       <c r="E45">
         <f t="shared" si="14"/>
-        <v>305.80014909999983</v>
+        <v>203.48531874999989</v>
       </c>
       <c r="F45">
         <f t="shared" si="14"/>
-        <v>243.52156374999998</v>
+        <v>135.83040604999991</v>
       </c>
       <c r="G45">
         <f t="shared" si="14"/>
-        <v>116.39578229999984</v>
+        <v>73.245495749999918</v>
       </c>
       <c r="H45">
         <f t="shared" si="14"/>
-        <v>189.92810454999989</v>
+        <v>63.268348649999936</v>
       </c>
       <c r="I45">
         <f t="shared" si="14"/>
-        <v>116.48173494999992</v>
+        <v>-34.646086750000009</v>
       </c>
       <c r="J45">
         <f t="shared" si="14"/>
-        <v>185.90080734999995</v>
+        <v>-71.646309600000023</v>
       </c>
       <c r="K45">
         <f t="shared" si="14"/>
-        <v>111.05307689999998</v>
+        <v>-12.33793915</v>
       </c>
       <c r="L45">
         <f t="shared" si="14"/>
-        <v>155.91395244999995</v>
+        <v>-31.276831049999998</v>
       </c>
       <c r="M45">
         <f t="shared" si="14"/>
-        <v>170.45797999999985</v>
+        <v>12.571641549999992</v>
       </c>
       <c r="N45">
         <f t="shared" si="14"/>
-        <v>-504.43660989999989</v>
+        <v>-1325.8978222499984</v>
       </c>
     </row>
   </sheetData>

--- a/Ice_Melt_AWP/Melt_AWP_region_Heatmap.xlsx
+++ b/Ice_Melt_AWP/Melt_AWP_region_Heatmap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\NSIDC\Melt_AWP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94BD0E06-CBC1-4920-AB4E-9D8D62EFCE44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCDF7B16-E9E3-4BCD-A933-DBF7E5DD6276}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11805" yWindow="480" windowWidth="21300" windowHeight="19725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51480" yWindow="1650" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Super_regional_List2" sheetId="1" r:id="rId1"/>
@@ -927,7 +927,7 @@
   <dimension ref="A1:AC45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1027,43 +1027,43 @@
         <v>1979</v>
       </c>
       <c r="B2" s="2">
-        <v>215.22173100000001</v>
+        <v>260.617052</v>
       </c>
       <c r="C2" s="2">
-        <v>68.051529000000002</v>
+        <v>79.503940999999998</v>
       </c>
       <c r="D2" s="2">
-        <v>263.46058699999998</v>
+        <v>381.381304</v>
       </c>
       <c r="E2" s="2">
-        <v>139.96447699999999</v>
+        <v>219.44131299999901</v>
       </c>
       <c r="F2" s="2">
-        <v>111.70300899999999</v>
+        <v>171.696831</v>
       </c>
       <c r="G2" s="2">
-        <v>91.187597999999994</v>
+        <v>158.69299599999999</v>
       </c>
       <c r="H2" s="2">
-        <v>-32.068097999999999</v>
+        <v>58.466859999999997</v>
       </c>
       <c r="I2" s="2">
-        <v>-217.06034099999999</v>
+        <v>-118.74036299999899</v>
       </c>
       <c r="J2" s="2">
-        <v>-500.96615800000001</v>
+        <v>-330.63889799999998</v>
       </c>
       <c r="K2" s="2">
-        <v>-139.41340700000001</v>
+        <v>-51.717882000000003</v>
       </c>
       <c r="L2" s="2">
-        <v>-251.65729899999999</v>
+        <v>-139.27704599999899</v>
       </c>
       <c r="M2" s="2">
-        <v>-196.77208899999999</v>
+        <v>-99.436738000000005</v>
       </c>
       <c r="N2" s="2">
-        <v>-1764.2568530000001</v>
+        <v>-1381.609915</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" s="3">
@@ -1071,55 +1071,55 @@
       </c>
       <c r="Q2" s="2">
         <f>B2-B$45</f>
-        <v>73.006622100000129</v>
+        <v>96.369870550000087</v>
       </c>
       <c r="R2" s="2">
         <f t="shared" ref="R2:AC2" si="0">C2-C$45</f>
-        <v>-20.74703554999995</v>
+        <v>-25.895960199999891</v>
       </c>
       <c r="S2" s="2">
         <f t="shared" si="0"/>
-        <v>-7.550526600000012</v>
+        <v>5.6416814499999646</v>
       </c>
       <c r="T2" s="2">
         <f t="shared" si="0"/>
-        <v>-63.520841749999903</v>
+        <v>-51.632922800000813</v>
       </c>
       <c r="U2" s="2">
         <f t="shared" si="0"/>
-        <v>-24.127397049999914</v>
+        <v>-13.609459849999894</v>
       </c>
       <c r="V2" s="2">
         <f t="shared" si="0"/>
-        <v>17.942102250000076</v>
+        <v>62.588906099999988</v>
       </c>
       <c r="W2" s="2">
         <f t="shared" si="0"/>
-        <v>-95.336446649999942</v>
+        <v>-73.910653549999864</v>
       </c>
       <c r="X2" s="2">
         <f t="shared" si="0"/>
-        <v>-182.41425425</v>
+        <v>-162.36112574999896</v>
       </c>
       <c r="Y2" s="2">
         <f t="shared" si="0"/>
-        <v>-429.31984839999996</v>
+        <v>-395.39488269999998</v>
       </c>
       <c r="Z2" s="2">
         <f t="shared" si="0"/>
-        <v>-127.07546785000001</v>
+        <v>-112.50781614999995</v>
       </c>
       <c r="AA2" s="2">
         <f t="shared" si="0"/>
-        <v>-220.38046795</v>
+        <v>-203.44017579999888</v>
       </c>
       <c r="AB2" s="2">
         <f t="shared" si="0"/>
-        <v>-209.34373054999998</v>
+        <v>-192.92984474999997</v>
       </c>
       <c r="AC2" s="2">
         <f t="shared" si="0"/>
-        <v>-438.35903075000169</v>
+        <v>-422.97832025000048</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
@@ -1127,43 +1127,43 @@
         <v>1980</v>
       </c>
       <c r="B3" s="2">
-        <v>199.58315400000001</v>
+        <v>253.42603799999901</v>
       </c>
       <c r="C3" s="2">
-        <v>112.121675</v>
+        <v>131.76676699999999</v>
       </c>
       <c r="D3" s="2">
-        <v>231.800862</v>
+        <v>346.52740899999998</v>
       </c>
       <c r="E3" s="2">
-        <v>128.73783</v>
+        <v>211.93261999999999</v>
       </c>
       <c r="F3" s="2">
-        <v>70.889510000000001</v>
+        <v>129.80809399999899</v>
       </c>
       <c r="G3" s="2">
-        <v>90.094511999999995</v>
+        <v>144.16869199999999</v>
       </c>
       <c r="H3" s="2">
-        <v>-92.995384999999999</v>
+        <v>4.4699</v>
       </c>
       <c r="I3" s="2">
-        <v>-171.45108300000001</v>
+        <v>-81.603906999999893</v>
       </c>
       <c r="J3" s="2">
-        <v>-383.73089900000002</v>
+        <v>-222.03790799999999</v>
       </c>
       <c r="K3" s="2">
-        <v>-151.138758</v>
+        <v>-60.183256999999998</v>
       </c>
       <c r="L3" s="2">
-        <v>-268.80838999999997</v>
+        <v>-154.726371</v>
       </c>
       <c r="M3" s="2">
-        <v>-86.711107999999996</v>
+        <v>1.3774759999999999</v>
       </c>
       <c r="N3" s="2">
-        <v>-1732.8687789999999</v>
+        <v>-1351.0219729999999</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" s="3">
@@ -1171,55 +1171,55 @@
       </c>
       <c r="Q3" s="2">
         <f t="shared" ref="Q3:Q42" si="1">B3-B$45</f>
-        <v>57.368045100000131</v>
+        <v>89.178856549999097</v>
       </c>
       <c r="R3" s="2">
         <f t="shared" ref="R3:R42" si="2">C3-C$45</f>
-        <v>23.323110450000044</v>
+        <v>26.366865800000099</v>
       </c>
       <c r="S3" s="2">
         <f t="shared" ref="S3:S42" si="3">D3-D$45</f>
-        <v>-39.210251599999992</v>
+        <v>-29.212213550000058</v>
       </c>
       <c r="T3" s="2">
         <f t="shared" ref="T3:T42" si="4">E3-E$45</f>
-        <v>-74.747488749999889</v>
+        <v>-59.14161579999984</v>
       </c>
       <c r="U3" s="2">
         <f t="shared" ref="U3:U42" si="5">F3-F$45</f>
-        <v>-64.940896049999907</v>
+        <v>-55.498196850000909</v>
       </c>
       <c r="V3" s="2">
         <f t="shared" ref="V3:V42" si="6">G3-G$45</f>
-        <v>16.849016250000076</v>
+        <v>48.064602099999988</v>
       </c>
       <c r="W3" s="2">
         <f t="shared" ref="W3:W42" si="7">H3-H$45</f>
-        <v>-156.26373364999995</v>
+        <v>-127.90761354999987</v>
       </c>
       <c r="X3" s="2">
         <f t="shared" ref="X3:X42" si="8">I3-I$45</f>
-        <v>-136.80499624999999</v>
+        <v>-125.22466974999988</v>
       </c>
       <c r="Y3" s="2">
         <f t="shared" ref="Y3:Y42" si="9">J3-J$45</f>
-        <v>-312.08458940000003</v>
+        <v>-286.79389269999996</v>
       </c>
       <c r="Z3" s="2">
         <f t="shared" ref="Z3:Z42" si="10">K3-K$45</f>
-        <v>-138.80081884999998</v>
+        <v>-120.97319114999995</v>
       </c>
       <c r="AA3" s="2">
         <f t="shared" ref="AA3:AA42" si="11">L3-L$45</f>
-        <v>-237.53155894999998</v>
+        <v>-218.88950079999989</v>
       </c>
       <c r="AB3" s="2">
         <f t="shared" ref="AB3:AB42" si="12">M3-M$45</f>
-        <v>-99.282749549999991</v>
+        <v>-92.115630749999951</v>
       </c>
       <c r="AC3" s="2">
         <f t="shared" ref="AC3:AC42" si="13">N3-N$45</f>
-        <v>-406.97095675000151</v>
+        <v>-392.39037825000037</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
@@ -1227,43 +1227,43 @@
         <v>1981</v>
       </c>
       <c r="B4" s="2">
-        <v>191.17874900000001</v>
+        <v>219.15896599999999</v>
       </c>
       <c r="C4" s="2">
-        <v>72.964023999999995</v>
+        <v>86.884925999999993</v>
       </c>
       <c r="D4" s="2">
-        <v>188.93710999999999</v>
+        <v>312.176491</v>
       </c>
       <c r="E4" s="2">
-        <v>134.461017</v>
+        <v>210.495138</v>
       </c>
       <c r="F4" s="2">
-        <v>210.15427799999901</v>
+        <v>279.65955000000002</v>
       </c>
       <c r="G4" s="2">
-        <v>102.87181899999899</v>
+        <v>167.29589899999999</v>
       </c>
       <c r="H4" s="2">
-        <v>-176.84858600000001</v>
+        <v>-73.075924000000001</v>
       </c>
       <c r="I4" s="2">
-        <v>-138.54229099999901</v>
+        <v>-50.663294</v>
       </c>
       <c r="J4" s="2">
-        <v>-243.16130999999999</v>
+        <v>-93.052826999999994</v>
       </c>
       <c r="K4" s="2">
-        <v>-83.197213000000005</v>
+        <v>2.7345989999999998</v>
       </c>
       <c r="L4" s="2">
-        <v>-144.29505399999999</v>
+        <v>-38.487071999999998</v>
       </c>
       <c r="M4" s="2">
-        <v>-51.415120000000002</v>
+        <v>30.557569000000001</v>
       </c>
       <c r="N4" s="2">
-        <v>-1713.6491100000001</v>
+        <v>-1333.5354170000001</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" s="3">
@@ -1271,55 +1271,55 @@
       </c>
       <c r="Q4" s="2">
         <f t="shared" si="1"/>
-        <v>48.963640100000134</v>
+        <v>54.911784550000078</v>
       </c>
       <c r="R4" s="2">
         <f t="shared" si="2"/>
-        <v>-15.834540549999957</v>
+        <v>-18.514975199999895</v>
       </c>
       <c r="S4" s="2">
         <f t="shared" si="3"/>
-        <v>-82.074003599999998</v>
+        <v>-63.563131550000037</v>
       </c>
       <c r="T4" s="2">
         <f t="shared" si="4"/>
-        <v>-69.024301749999893</v>
+        <v>-60.579097799999829</v>
       </c>
       <c r="U4" s="2">
         <f t="shared" si="5"/>
-        <v>74.323871949999102</v>
+        <v>94.353259150000127</v>
       </c>
       <c r="V4" s="2">
         <f t="shared" si="6"/>
-        <v>29.626323249999075</v>
+        <v>71.191809099999986</v>
       </c>
       <c r="W4" s="2">
         <f t="shared" si="7"/>
-        <v>-240.11693464999996</v>
+        <v>-205.45343754999988</v>
       </c>
       <c r="X4" s="2">
         <f t="shared" si="8"/>
-        <v>-103.896204249999</v>
+        <v>-94.284056749999991</v>
       </c>
       <c r="Y4" s="2">
         <f t="shared" si="9"/>
-        <v>-171.51500039999996</v>
+        <v>-157.80881169999998</v>
       </c>
       <c r="Z4" s="2">
         <f t="shared" si="10"/>
-        <v>-70.859273850000008</v>
+        <v>-58.055335149999948</v>
       </c>
       <c r="AA4" s="2">
         <f t="shared" si="11"/>
-        <v>-113.01822294999999</v>
+        <v>-102.65020179999991</v>
       </c>
       <c r="AB4" s="2">
         <f t="shared" si="12"/>
-        <v>-63.986761549999997</v>
+        <v>-62.935537749999952</v>
       </c>
       <c r="AC4" s="2">
         <f t="shared" si="13"/>
-        <v>-387.75128775000167</v>
+        <v>-374.90382225000053</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
@@ -1327,43 +1327,43 @@
         <v>1982</v>
       </c>
       <c r="B5" s="2">
-        <v>161.80416399999999</v>
+        <v>201.582134</v>
       </c>
       <c r="C5" s="2">
-        <v>110.517896999999</v>
+        <v>130.62748300000001</v>
       </c>
       <c r="D5" s="2">
-        <v>229.34898999999999</v>
+        <v>351.70201600000001</v>
       </c>
       <c r="E5" s="2">
-        <v>161.729983</v>
+        <v>257.77680899999899</v>
       </c>
       <c r="F5" s="2">
-        <v>138.57429099999999</v>
+        <v>204.54458799999901</v>
       </c>
       <c r="G5" s="2">
-        <v>53.943570999999999</v>
+        <v>117.444015999999</v>
       </c>
       <c r="H5" s="2">
-        <v>-109.769385</v>
+        <v>-15.4817059999999</v>
       </c>
       <c r="I5" s="2">
-        <v>-225.88773599999999</v>
+        <v>-128.21605199999999</v>
       </c>
       <c r="J5" s="2">
-        <v>-473.10710499999999</v>
+        <v>-305.05269900000002</v>
       </c>
       <c r="K5" s="2">
-        <v>-157.929416</v>
+        <v>-68.700163000000003</v>
       </c>
       <c r="L5" s="2">
-        <v>-228.30516600000001</v>
+        <v>-122.682452</v>
       </c>
       <c r="M5" s="2">
-        <v>-106.099402</v>
+        <v>-16.797481000000001</v>
       </c>
       <c r="N5" s="2">
-        <v>-1882.2067850000001</v>
+        <v>-1493.1570939999999</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" s="3">
@@ -1371,55 +1371,55 @@
       </c>
       <c r="Q5" s="2">
         <f t="shared" si="1"/>
-        <v>19.58905510000011</v>
+        <v>37.334952550000082</v>
       </c>
       <c r="R5" s="2">
         <f t="shared" si="2"/>
-        <v>21.719332449999044</v>
+        <v>25.227581800000124</v>
       </c>
       <c r="S5" s="2">
         <f t="shared" si="3"/>
-        <v>-41.662123600000001</v>
+        <v>-24.037606550000021</v>
       </c>
       <c r="T5" s="2">
         <f t="shared" si="4"/>
-        <v>-41.755335749999887</v>
+        <v>-13.297426800000835</v>
       </c>
       <c r="U5" s="2">
         <f t="shared" si="5"/>
-        <v>2.7438849500000799</v>
+        <v>19.238297149999113</v>
       </c>
       <c r="V5" s="2">
         <f t="shared" si="6"/>
-        <v>-19.30192474999992</v>
+        <v>21.339926099998991</v>
       </c>
       <c r="W5" s="2">
         <f t="shared" si="7"/>
-        <v>-173.03773364999995</v>
+        <v>-147.85921954999975</v>
       </c>
       <c r="X5" s="2">
         <f t="shared" si="8"/>
-        <v>-191.24164924999997</v>
+        <v>-171.83681474999997</v>
       </c>
       <c r="Y5" s="2">
         <f t="shared" si="9"/>
-        <v>-401.46079539999994</v>
+        <v>-369.80868370000002</v>
       </c>
       <c r="Z5" s="2">
         <f t="shared" si="10"/>
-        <v>-145.59147684999999</v>
+        <v>-129.49009714999994</v>
       </c>
       <c r="AA5" s="2">
         <f t="shared" si="11"/>
-        <v>-197.02833495000002</v>
+        <v>-186.84558179999991</v>
       </c>
       <c r="AB5" s="2">
         <f t="shared" si="12"/>
-        <v>-118.67104354999999</v>
+        <v>-110.29058774999996</v>
       </c>
       <c r="AC5" s="2">
         <f t="shared" si="13"/>
-        <v>-556.30896275000168</v>
+        <v>-534.52549925000039</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
@@ -1427,43 +1427,43 @@
         <v>1983</v>
       </c>
       <c r="B6" s="2">
-        <v>156.58585500000001</v>
+        <v>186.01508999999999</v>
       </c>
       <c r="C6" s="2">
-        <v>83.180581000000004</v>
+        <v>100.84756899999999</v>
       </c>
       <c r="D6" s="2">
-        <v>224.42735299999899</v>
+        <v>361.00195000000002</v>
       </c>
       <c r="E6" s="2">
-        <v>228.58913999999999</v>
+        <v>337.69944299999997</v>
       </c>
       <c r="F6" s="2">
-        <v>142.29331399999899</v>
+        <v>197.98243400000001</v>
       </c>
       <c r="G6" s="2">
-        <v>89.795154999999994</v>
+        <v>126.99339099999899</v>
       </c>
       <c r="H6" s="2">
-        <v>-101.171506999999</v>
+        <v>-5.2193719999999999</v>
       </c>
       <c r="I6" s="2">
-        <v>-111.392455</v>
+        <v>-22.008151000000002</v>
       </c>
       <c r="J6" s="2">
-        <v>-460.40522499999997</v>
+        <v>-292.222737</v>
       </c>
       <c r="K6" s="2">
-        <v>-240.067216</v>
+        <v>-137.25364099999999</v>
       </c>
       <c r="L6" s="2">
-        <v>-275.41390899999999</v>
+        <v>-158.82575299999999</v>
       </c>
       <c r="M6" s="2">
-        <v>-89.045613000000003</v>
+        <v>0.98584400000000005</v>
       </c>
       <c r="N6" s="2">
-        <v>-1632.2457010000001</v>
+        <v>-1255.559522</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" s="3">
@@ -1471,55 +1471,55 @@
       </c>
       <c r="Q6" s="2">
         <f t="shared" si="1"/>
-        <v>14.370746100000133</v>
+        <v>21.767908550000072</v>
       </c>
       <c r="R6" s="2">
         <f t="shared" si="2"/>
-        <v>-5.6179835499999484</v>
+        <v>-4.5523321999998956</v>
       </c>
       <c r="S6" s="2">
         <f t="shared" si="3"/>
-        <v>-46.583760600001</v>
+        <v>-14.737672550000013</v>
       </c>
       <c r="T6" s="2">
         <f t="shared" si="4"/>
-        <v>25.103821250000095</v>
+        <v>66.625207200000148</v>
       </c>
       <c r="U6" s="2">
         <f t="shared" si="5"/>
-        <v>6.462907949999078</v>
+        <v>12.676143150000115</v>
       </c>
       <c r="V6" s="2">
         <f t="shared" si="6"/>
-        <v>16.549659250000076</v>
+        <v>30.889301099998988</v>
       </c>
       <c r="W6" s="2">
         <f t="shared" si="7"/>
-        <v>-164.43985564999895</v>
+        <v>-137.59688554999985</v>
       </c>
       <c r="X6" s="2">
         <f t="shared" si="8"/>
-        <v>-76.746368249999989</v>
+        <v>-65.628913749999981</v>
       </c>
       <c r="Y6" s="2">
         <f t="shared" si="9"/>
-        <v>-388.75891539999998</v>
+        <v>-356.97872169999999</v>
       </c>
       <c r="Z6" s="2">
         <f t="shared" si="10"/>
-        <v>-227.72927684999999</v>
+        <v>-198.04357514999992</v>
       </c>
       <c r="AA6" s="2">
         <f t="shared" si="11"/>
-        <v>-244.13707794999999</v>
+        <v>-222.98888279999989</v>
       </c>
       <c r="AB6" s="2">
         <f t="shared" si="12"/>
-        <v>-101.61725455</v>
+        <v>-92.507262749999953</v>
       </c>
       <c r="AC6" s="2">
         <f t="shared" si="13"/>
-        <v>-306.34787875000166</v>
+        <v>-296.92792725000049</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
@@ -1527,43 +1527,43 @@
         <v>1984</v>
       </c>
       <c r="B7" s="2">
-        <v>125.01792500000001</v>
+        <v>148.00531799999999</v>
       </c>
       <c r="C7" s="2">
-        <v>129.96747999999999</v>
+        <v>154.578216</v>
       </c>
       <c r="D7" s="2">
-        <v>229.50824399999999</v>
+        <v>351.35806200000002</v>
       </c>
       <c r="E7" s="2">
-        <v>194.48433299999999</v>
+        <v>300.78465699999998</v>
       </c>
       <c r="F7" s="2">
-        <v>161.83251999999999</v>
+        <v>214.160966</v>
       </c>
       <c r="G7" s="2">
-        <v>59.195183999999998</v>
+        <v>92.077439999999996</v>
       </c>
       <c r="H7" s="2">
-        <v>-79.255848999999998</v>
+        <v>8.6238849999999996</v>
       </c>
       <c r="I7" s="2">
-        <v>-220.256258</v>
+        <v>-119.809478</v>
       </c>
       <c r="J7" s="2">
-        <v>-457.222792999999</v>
+        <v>-289.80717700000002</v>
       </c>
       <c r="K7" s="2">
-        <v>-138.06703200000001</v>
+        <v>-47.269019999999998</v>
       </c>
       <c r="L7" s="2">
-        <v>-236.39157299999999</v>
+        <v>-119.78883999999999</v>
       </c>
       <c r="M7" s="2">
-        <v>-81.560907999999998</v>
+        <v>5.2566709999999999</v>
       </c>
       <c r="N7" s="2">
-        <v>-1624.045537</v>
+        <v>-1249.526028</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" s="3">
@@ -1571,55 +1571,55 @@
       </c>
       <c r="Q7" s="2">
         <f t="shared" si="1"/>
-        <v>-17.197183899999871</v>
+        <v>-16.241863449999926</v>
       </c>
       <c r="R7" s="2">
         <f t="shared" si="2"/>
-        <v>41.168915450000043</v>
+        <v>49.178314800000109</v>
       </c>
       <c r="S7" s="2">
         <f t="shared" si="3"/>
-        <v>-41.502869599999997</v>
+        <v>-24.381560550000017</v>
       </c>
       <c r="T7" s="2">
         <f t="shared" si="4"/>
-        <v>-9.0009857499998986</v>
+        <v>29.710421200000155</v>
       </c>
       <c r="U7" s="2">
         <f t="shared" si="5"/>
-        <v>26.00211395000008</v>
+        <v>28.854675150000105</v>
       </c>
       <c r="V7" s="2">
         <f t="shared" si="6"/>
-        <v>-14.050311749999921</v>
+        <v>-4.0266499000000096</v>
       </c>
       <c r="W7" s="2">
         <f t="shared" si="7"/>
-        <v>-142.52419764999993</v>
+        <v>-123.75362854999986</v>
       </c>
       <c r="X7" s="2">
         <f t="shared" si="8"/>
-        <v>-185.61017125000001</v>
+        <v>-163.43024075</v>
       </c>
       <c r="Y7" s="2">
         <f t="shared" si="9"/>
-        <v>-385.57648339999901</v>
+        <v>-354.56316170000002</v>
       </c>
       <c r="Z7" s="2">
         <f t="shared" si="10"/>
-        <v>-125.72909285000001</v>
+        <v>-108.05895414999995</v>
       </c>
       <c r="AA7" s="2">
         <f t="shared" si="11"/>
-        <v>-205.11474195</v>
+        <v>-183.95196979999992</v>
       </c>
       <c r="AB7" s="2">
         <f t="shared" si="12"/>
-        <v>-94.132549549999993</v>
+        <v>-88.236435749999956</v>
       </c>
       <c r="AC7" s="2">
         <f t="shared" si="13"/>
-        <v>-298.14771475000157</v>
+        <v>-290.89443325000047</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
@@ -1627,43 +1627,43 @@
         <v>1985</v>
       </c>
       <c r="B8" s="2">
-        <v>130.20827199999999</v>
+        <v>166.64278999999999</v>
       </c>
       <c r="C8" s="2">
-        <v>118.73265600000001</v>
+        <v>147.27716799999999</v>
       </c>
       <c r="D8" s="2">
-        <v>192.71206799999999</v>
+        <v>317.77199400000001</v>
       </c>
       <c r="E8" s="2">
-        <v>217.70913199999899</v>
+        <v>299.09103199999998</v>
       </c>
       <c r="F8" s="2">
-        <v>165.58020300000001</v>
+        <v>218.08905200000001</v>
       </c>
       <c r="G8" s="2">
-        <v>91.204879000000005</v>
+        <v>139.316396</v>
       </c>
       <c r="H8" s="2">
-        <v>16.984907</v>
+        <v>97.510379</v>
       </c>
       <c r="I8" s="2">
-        <v>-139.61671299999901</v>
+        <v>-47.447671</v>
       </c>
       <c r="J8" s="2">
-        <v>-411.51916199999999</v>
+        <v>-246.701818</v>
       </c>
       <c r="K8" s="2">
-        <v>-216.74229199999999</v>
+        <v>-116.617847</v>
       </c>
       <c r="L8" s="2">
-        <v>-268.37476299999997</v>
+        <v>-149.32673399999999</v>
       </c>
       <c r="M8" s="2">
-        <v>-62.743246999999997</v>
+        <v>22.1602</v>
       </c>
       <c r="N8" s="2">
-        <v>-1543.442818</v>
+        <v>-1171.9643169999999</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="3">
@@ -1671,55 +1671,55 @@
       </c>
       <c r="Q8" s="2">
         <f t="shared" si="1"/>
-        <v>-12.006836899999882</v>
+        <v>2.3956085500000768</v>
       </c>
       <c r="R8" s="2">
         <f t="shared" si="2"/>
-        <v>29.934091450000054</v>
+        <v>41.8772668000001</v>
       </c>
       <c r="S8" s="2">
         <f t="shared" si="3"/>
-        <v>-78.299045599999999</v>
+        <v>-57.967628550000029</v>
       </c>
       <c r="T8" s="2">
         <f t="shared" si="4"/>
-        <v>14.223813249999097</v>
+        <v>28.016796200000158</v>
       </c>
       <c r="U8" s="2">
         <f t="shared" si="5"/>
-        <v>29.749796950000103</v>
+        <v>32.782761150000113</v>
       </c>
       <c r="V8" s="2">
         <f t="shared" si="6"/>
-        <v>17.959383250000087</v>
+        <v>43.212306099999992</v>
       </c>
       <c r="W8" s="2">
         <f t="shared" si="7"/>
-        <v>-46.283441649999936</v>
+        <v>-34.867134549999861</v>
       </c>
       <c r="X8" s="2">
         <f t="shared" si="8"/>
-        <v>-104.970626249999</v>
+        <v>-91.068433749999983</v>
       </c>
       <c r="Y8" s="2">
         <f t="shared" si="9"/>
-        <v>-339.87285239999994</v>
+        <v>-311.4578027</v>
       </c>
       <c r="Z8" s="2">
         <f t="shared" si="10"/>
-        <v>-204.40435284999998</v>
+        <v>-177.40778114999995</v>
       </c>
       <c r="AA8" s="2">
         <f t="shared" si="11"/>
-        <v>-237.09793194999997</v>
+        <v>-213.48986379999991</v>
       </c>
       <c r="AB8" s="2">
         <f t="shared" si="12"/>
-        <v>-75.314888549999992</v>
+        <v>-71.33290674999995</v>
       </c>
       <c r="AC8" s="2">
         <f t="shared" si="13"/>
-        <v>-217.54499575000159</v>
+        <v>-213.33272225000042</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
@@ -1727,43 +1727,43 @@
         <v>1986</v>
       </c>
       <c r="B9" s="2">
-        <v>142.60808899999901</v>
+        <v>168.35161099999999</v>
       </c>
       <c r="C9" s="2">
-        <v>102.688768</v>
+        <v>120.460536</v>
       </c>
       <c r="D9" s="2">
-        <v>261.952089</v>
+        <v>382.33617199999998</v>
       </c>
       <c r="E9" s="2">
-        <v>164.62972500000001</v>
+        <v>245.89845</v>
       </c>
       <c r="F9" s="2">
-        <v>89.291075000000006</v>
+        <v>153.93394799999999</v>
       </c>
       <c r="G9" s="2">
-        <v>40.886212999999998</v>
+        <v>93.391813999999997</v>
       </c>
       <c r="H9" s="2">
-        <v>-129.235297</v>
+        <v>-31.755834999999902</v>
       </c>
       <c r="I9" s="2">
-        <v>-223.69203399999901</v>
+        <v>-125.383487</v>
       </c>
       <c r="J9" s="2">
-        <v>-231.19983300000001</v>
+        <v>-81.441224000000005</v>
       </c>
       <c r="K9" s="2">
-        <v>-134.59583699999999</v>
+        <v>-53.030611999999998</v>
       </c>
       <c r="L9" s="2">
-        <v>-273.30221699999998</v>
+        <v>-155.61304999999999</v>
       </c>
       <c r="M9" s="2">
-        <v>-138.27865199999999</v>
+        <v>-45.720776999999998</v>
       </c>
       <c r="N9" s="2">
-        <v>-1773.1855410000001</v>
+        <v>-1388.472863</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="3">
@@ -1771,55 +1771,55 @@
       </c>
       <c r="Q9" s="2">
         <f t="shared" si="1"/>
-        <v>0.39298009999913575</v>
+        <v>4.1044295500000771</v>
       </c>
       <c r="R9" s="2">
         <f t="shared" si="2"/>
-        <v>13.890203450000044</v>
+        <v>15.060634800000116</v>
       </c>
       <c r="S9" s="2">
         <f t="shared" si="3"/>
-        <v>-9.0590245999999865</v>
+        <v>6.5965494499999409</v>
       </c>
       <c r="T9" s="2">
         <f t="shared" si="4"/>
-        <v>-38.855593749999883</v>
+        <v>-25.175785799999829</v>
       </c>
       <c r="U9" s="2">
         <f t="shared" si="5"/>
-        <v>-46.539331049999902</v>
+        <v>-31.37234284999991</v>
       </c>
       <c r="V9" s="2">
         <f t="shared" si="6"/>
-        <v>-32.35928274999992</v>
+        <v>-2.7122759000000087</v>
       </c>
       <c r="W9" s="2">
         <f t="shared" si="7"/>
-        <v>-192.50364564999995</v>
+        <v>-164.13334854999977</v>
       </c>
       <c r="X9" s="2">
         <f t="shared" si="8"/>
-        <v>-189.04594724999902</v>
+        <v>-169.00424974999999</v>
       </c>
       <c r="Y9" s="2">
         <f t="shared" si="9"/>
-        <v>-159.55352339999999</v>
+        <v>-146.19720869999998</v>
       </c>
       <c r="Z9" s="2">
         <f t="shared" si="10"/>
-        <v>-122.25789784999999</v>
+        <v>-113.82054614999996</v>
       </c>
       <c r="AA9" s="2">
         <f t="shared" si="11"/>
-        <v>-242.02538594999999</v>
+        <v>-219.77617979999991</v>
       </c>
       <c r="AB9" s="2">
         <f t="shared" si="12"/>
-        <v>-150.85029354999998</v>
+        <v>-139.21388374999995</v>
       </c>
       <c r="AC9" s="2">
         <f t="shared" si="13"/>
-        <v>-447.28771875000166</v>
+        <v>-429.84126825000044</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
@@ -1827,43 +1827,43 @@
         <v>1987</v>
       </c>
       <c r="B10" s="2">
-        <v>168.798509</v>
+        <v>193.43424199999899</v>
       </c>
       <c r="C10" s="2">
-        <v>110.038302</v>
+        <v>132.17748899999901</v>
       </c>
       <c r="D10" s="2">
-        <v>241.908886</v>
+        <v>367.39417799999899</v>
       </c>
       <c r="E10" s="2">
-        <v>229.35451</v>
+        <v>320.013668</v>
       </c>
       <c r="F10" s="2">
-        <v>151.30108300000001</v>
+        <v>209.95254700000001</v>
       </c>
       <c r="G10" s="2">
-        <v>79.408896999999996</v>
+        <v>137.10314499999899</v>
       </c>
       <c r="H10" s="2">
-        <v>-37.534140999999998</v>
+        <v>54.534089000000002</v>
       </c>
       <c r="I10" s="2">
-        <v>-201.086961</v>
+        <v>-104.51512</v>
       </c>
       <c r="J10" s="2">
-        <v>-406.60066</v>
+        <v>-247.03170600000001</v>
       </c>
       <c r="K10" s="2">
-        <v>-163.95335800000001</v>
+        <v>-72.508336999999997</v>
       </c>
       <c r="L10" s="2">
-        <v>-181.014306</v>
+        <v>-81.565256000000005</v>
       </c>
       <c r="M10" s="2">
-        <v>-131.14870400000001</v>
+        <v>-39.402670999999998</v>
       </c>
       <c r="N10" s="2">
-        <v>-1711.5636669999999</v>
+        <v>-1332.9392269999901</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" s="3">
@@ -1871,55 +1871,55 @@
       </c>
       <c r="Q10" s="2">
         <f t="shared" si="1"/>
-        <v>26.583400100000119</v>
+        <v>29.187060549999075</v>
       </c>
       <c r="R10" s="2">
         <f t="shared" si="2"/>
-        <v>21.23973745000005</v>
+        <v>26.777587799999125</v>
       </c>
       <c r="S10" s="2">
         <f t="shared" si="3"/>
-        <v>-29.102227599999992</v>
+        <v>-8.3454445500010479</v>
       </c>
       <c r="T10" s="2">
         <f t="shared" si="4"/>
-        <v>25.869191250000114</v>
+        <v>48.939432200000169</v>
       </c>
       <c r="U10" s="2">
         <f t="shared" si="5"/>
-        <v>15.470676950000097</v>
+        <v>24.646256150000113</v>
       </c>
       <c r="V10" s="2">
         <f t="shared" si="6"/>
-        <v>6.1634012500000779</v>
+        <v>40.999055099998984</v>
       </c>
       <c r="W10" s="2">
         <f t="shared" si="7"/>
-        <v>-100.80248964999993</v>
+        <v>-77.843424549999867</v>
       </c>
       <c r="X10" s="2">
         <f t="shared" si="8"/>
-        <v>-166.44087424999998</v>
+        <v>-148.13588274999998</v>
       </c>
       <c r="Y10" s="2">
         <f t="shared" si="9"/>
-        <v>-334.95435039999995</v>
+        <v>-311.78769069999998</v>
       </c>
       <c r="Z10" s="2">
         <f t="shared" si="10"/>
-        <v>-151.61541885</v>
+        <v>-133.29827114999995</v>
       </c>
       <c r="AA10" s="2">
         <f t="shared" si="11"/>
-        <v>-149.73747495000001</v>
+        <v>-145.7283857999999</v>
       </c>
       <c r="AB10" s="2">
         <f t="shared" si="12"/>
-        <v>-143.72034554999999</v>
+        <v>-132.89577774999995</v>
       </c>
       <c r="AC10" s="2">
         <f t="shared" si="13"/>
-        <v>-385.6658447500015</v>
+        <v>-374.30763224999055</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
@@ -1927,43 +1927,43 @@
         <v>1988</v>
       </c>
       <c r="B11" s="2">
-        <v>157.21942999999999</v>
+        <v>183.97233399999999</v>
       </c>
       <c r="C11" s="2">
-        <v>101.039245999999</v>
+        <v>119.544417</v>
       </c>
       <c r="D11" s="2">
-        <v>245.951764</v>
+        <v>362.71272399999998</v>
       </c>
       <c r="E11" s="2">
-        <v>162.03233899999901</v>
+        <v>242.18148599999901</v>
       </c>
       <c r="F11" s="2">
-        <v>164.260086</v>
+        <v>225.65598399999999</v>
       </c>
       <c r="G11" s="2">
-        <v>86.245233999999996</v>
+        <v>134.92803699999999</v>
       </c>
       <c r="H11" s="2">
-        <v>-40.156844999999997</v>
+        <v>47.285643</v>
       </c>
       <c r="I11" s="2">
-        <v>-137.99653499999999</v>
+        <v>-52.449052999999999</v>
       </c>
       <c r="J11" s="2">
-        <v>-381.29091899999997</v>
+        <v>-218.58669399999999</v>
       </c>
       <c r="K11" s="2">
-        <v>-158.707258</v>
+        <v>-61.205654000000003</v>
       </c>
       <c r="L11" s="2">
-        <v>-171.30324899999999</v>
+        <v>-66.786994999999905</v>
       </c>
       <c r="M11" s="2">
-        <v>-54.282670999999901</v>
+        <v>27.042971999999999</v>
       </c>
       <c r="N11" s="2">
-        <v>-1763.9568280000001</v>
+        <v>-1378.1578750000001</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" s="3">
@@ -1971,55 +1971,55 @@
       </c>
       <c r="Q11" s="2">
         <f t="shared" si="1"/>
-        <v>15.004321100000112</v>
+        <v>19.725152550000075</v>
       </c>
       <c r="R11" s="2">
         <f t="shared" si="2"/>
-        <v>12.240681449999045</v>
+        <v>14.144515800000107</v>
       </c>
       <c r="S11" s="2">
         <f t="shared" si="3"/>
-        <v>-25.05934959999999</v>
+        <v>-13.026898550000055</v>
       </c>
       <c r="T11" s="2">
         <f t="shared" si="4"/>
-        <v>-41.452979750000878</v>
+        <v>-28.892749800000814</v>
       </c>
       <c r="U11" s="2">
         <f t="shared" si="5"/>
-        <v>28.429679950000093</v>
+        <v>40.349693150000093</v>
       </c>
       <c r="V11" s="2">
         <f t="shared" si="6"/>
-        <v>12.999738250000078</v>
+        <v>38.823947099999984</v>
       </c>
       <c r="W11" s="2">
         <f t="shared" si="7"/>
-        <v>-103.42519364999993</v>
+        <v>-85.091870549999868</v>
       </c>
       <c r="X11" s="2">
         <f t="shared" si="8"/>
-        <v>-103.35044824999999</v>
+        <v>-96.069815749999975</v>
       </c>
       <c r="Y11" s="2">
         <f t="shared" si="9"/>
-        <v>-309.64460939999992</v>
+        <v>-283.34267869999996</v>
       </c>
       <c r="Z11" s="2">
         <f t="shared" si="10"/>
-        <v>-146.36931884999998</v>
+        <v>-121.99558814999995</v>
       </c>
       <c r="AA11" s="2">
         <f t="shared" si="11"/>
-        <v>-140.02641795</v>
+        <v>-130.9501247999998</v>
       </c>
       <c r="AB11" s="2">
         <f t="shared" si="12"/>
-        <v>-66.854312549999889</v>
+        <v>-66.450134749999961</v>
       </c>
       <c r="AC11" s="2">
         <f t="shared" si="13"/>
-        <v>-438.05900575000169</v>
+        <v>-419.52628025000058</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
@@ -2027,43 +2027,43 @@
         <v>1989</v>
       </c>
       <c r="B12" s="2">
-        <v>126.180925</v>
+        <v>144.44584399999999</v>
       </c>
       <c r="C12" s="2">
-        <v>75.003102999999996</v>
+        <v>84.75582</v>
       </c>
       <c r="D12" s="2">
-        <v>220.41056399999999</v>
+        <v>342.38434100000001</v>
       </c>
       <c r="E12" s="2">
-        <v>215.210589</v>
+        <v>301.939233</v>
       </c>
       <c r="F12" s="2">
-        <v>129.55122800000001</v>
+        <v>199.45763600000001</v>
       </c>
       <c r="G12" s="2">
-        <v>67.200366000000002</v>
+        <v>109.61661100000001</v>
       </c>
       <c r="H12" s="2">
-        <v>-177.939043</v>
+        <v>-81.606117999999995</v>
       </c>
       <c r="I12" s="2">
-        <v>-178.713661</v>
+        <v>-81.327699999999993</v>
       </c>
       <c r="J12" s="2">
-        <v>-210.701336</v>
+        <v>-65.325361000000001</v>
       </c>
       <c r="K12" s="2">
-        <v>-133.519417</v>
+        <v>-47.612589</v>
       </c>
       <c r="L12" s="2">
-        <v>-194.95545200000001</v>
+        <v>-80.243734000000003</v>
       </c>
       <c r="M12" s="2">
-        <v>-41.391296999999902</v>
+        <v>43.834808000000002</v>
       </c>
       <c r="N12" s="2">
-        <v>-1839.6920210000001</v>
+        <v>-1446.1110699999999</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" s="3">
@@ -2071,55 +2071,55 @@
       </c>
       <c r="Q12" s="2">
         <f t="shared" si="1"/>
-        <v>-16.034183899999874</v>
+        <v>-19.80133744999992</v>
       </c>
       <c r="R12" s="2">
         <f t="shared" si="2"/>
-        <v>-13.795461549999956</v>
+        <v>-20.644081199999889</v>
       </c>
       <c r="S12" s="2">
         <f t="shared" si="3"/>
-        <v>-50.600549599999994</v>
+        <v>-33.355281550000029</v>
       </c>
       <c r="T12" s="2">
         <f t="shared" si="4"/>
-        <v>11.725270250000108</v>
+        <v>30.864997200000175</v>
       </c>
       <c r="U12" s="2">
         <f t="shared" si="5"/>
-        <v>-6.2791780499998993</v>
+        <v>14.151345150000111</v>
       </c>
       <c r="V12" s="2">
         <f t="shared" si="6"/>
-        <v>-6.0451297499999157</v>
+        <v>13.512521100000001</v>
       </c>
       <c r="W12" s="2">
         <f t="shared" si="7"/>
-        <v>-241.20739164999992</v>
+        <v>-213.98363154999987</v>
       </c>
       <c r="X12" s="2">
         <f t="shared" si="8"/>
-        <v>-144.06757425000001</v>
+        <v>-124.94846274999998</v>
       </c>
       <c r="Y12" s="2">
         <f t="shared" si="9"/>
-        <v>-139.05502639999997</v>
+        <v>-130.08134569999999</v>
       </c>
       <c r="Z12" s="2">
         <f t="shared" si="10"/>
-        <v>-121.18147785000001</v>
+        <v>-108.40252314999995</v>
       </c>
       <c r="AA12" s="2">
         <f t="shared" si="11"/>
-        <v>-163.67862095000001</v>
+        <v>-144.40686379999991</v>
       </c>
       <c r="AB12" s="2">
         <f t="shared" si="12"/>
-        <v>-53.96293854999989</v>
+        <v>-49.65829874999995</v>
       </c>
       <c r="AC12" s="2">
         <f t="shared" si="13"/>
-        <v>-513.79419875000167</v>
+        <v>-487.47947525000041</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
@@ -2127,43 +2127,43 @@
         <v>1990</v>
       </c>
       <c r="B13" s="2">
-        <v>147.25173100000001</v>
+        <v>164.20599099999899</v>
       </c>
       <c r="C13" s="2">
-        <v>112.073511</v>
+        <v>131.23620299999999</v>
       </c>
       <c r="D13" s="2">
-        <v>248.158331</v>
+        <v>369.72091699999999</v>
       </c>
       <c r="E13" s="2">
-        <v>292.81214599999998</v>
+        <v>382.18240800000001</v>
       </c>
       <c r="F13" s="2">
-        <v>222.03571700000001</v>
+        <v>276.44149199999998</v>
       </c>
       <c r="G13" s="2">
-        <v>96.738336000000004</v>
+        <v>122.743567</v>
       </c>
       <c r="H13" s="2">
-        <v>-76.571600000000004</v>
+        <v>9.3313220000000001</v>
       </c>
       <c r="I13" s="2">
-        <v>-63.238170999999902</v>
+        <v>13.469397000000001</v>
       </c>
       <c r="J13" s="2">
-        <v>-91.386354999999995</v>
+        <v>22.025798000000002</v>
       </c>
       <c r="K13" s="2">
-        <v>-112.804588</v>
+        <v>-28.911439000000001</v>
       </c>
       <c r="L13" s="2">
-        <v>-250.48130099999901</v>
+        <v>-137.144893</v>
       </c>
       <c r="M13" s="2">
-        <v>-112.784945999999</v>
+        <v>-22.688195</v>
       </c>
       <c r="N13" s="2">
-        <v>-1722.1292249999999</v>
+        <v>-1336.709627</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" s="3">
@@ -2171,55 +2171,55 @@
       </c>
       <c r="Q13" s="2">
         <f t="shared" si="1"/>
-        <v>5.0366221000001303</v>
+        <v>-4.1190450000925694E-2</v>
       </c>
       <c r="R13" s="2">
         <f t="shared" si="2"/>
-        <v>23.274946450000044</v>
+        <v>25.836301800000101</v>
       </c>
       <c r="S13" s="2">
         <f t="shared" si="3"/>
-        <v>-22.852782599999983</v>
+        <v>-6.0187055500000497</v>
       </c>
       <c r="T13" s="2">
         <f t="shared" si="4"/>
-        <v>89.326827250000093</v>
+        <v>111.10817220000018</v>
       </c>
       <c r="U13" s="2">
         <f t="shared" si="5"/>
-        <v>86.205310950000097</v>
+        <v>91.135201150000086</v>
       </c>
       <c r="V13" s="2">
         <f t="shared" si="6"/>
-        <v>23.492840250000086</v>
+        <v>26.639477099999993</v>
       </c>
       <c r="W13" s="2">
         <f t="shared" si="7"/>
-        <v>-139.83994864999994</v>
+        <v>-123.04619154999986</v>
       </c>
       <c r="X13" s="2">
         <f t="shared" si="8"/>
-        <v>-28.592084249999893</v>
+        <v>-30.151365749999982</v>
       </c>
       <c r="Y13" s="2">
         <f t="shared" si="9"/>
-        <v>-19.740045399999971</v>
+        <v>-42.730186699999983</v>
       </c>
       <c r="Z13" s="2">
         <f t="shared" si="10"/>
-        <v>-100.46664885</v>
+        <v>-89.701373149999952</v>
       </c>
       <c r="AA13" s="2">
         <f t="shared" si="11"/>
-        <v>-219.20446994999901</v>
+        <v>-201.30802279999989</v>
       </c>
       <c r="AB13" s="2">
         <f t="shared" si="12"/>
-        <v>-125.35658754999899</v>
+        <v>-116.18130174999996</v>
       </c>
       <c r="AC13" s="2">
         <f t="shared" si="13"/>
-        <v>-396.23140275000151</v>
+        <v>-378.07803225000043</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
@@ -2227,43 +2227,43 @@
         <v>1991</v>
       </c>
       <c r="B14" s="2">
-        <v>141.46614600000001</v>
+        <v>162.26085900000001</v>
       </c>
       <c r="C14" s="2">
-        <v>94.291850999999994</v>
+        <v>117.143883</v>
       </c>
       <c r="D14" s="2">
-        <v>228.23396600000001</v>
+        <v>346.97606099999899</v>
       </c>
       <c r="E14" s="2">
-        <v>208.47612599999999</v>
+        <v>310.16850399999998</v>
       </c>
       <c r="F14" s="2">
-        <v>133.48827199999999</v>
+        <v>185.20631699999899</v>
       </c>
       <c r="G14" s="2">
-        <v>99.570038999999994</v>
+        <v>139.61272500000001</v>
       </c>
       <c r="H14" s="2">
-        <v>-61.281306999999998</v>
+        <v>31.686461999999999</v>
       </c>
       <c r="I14" s="2">
-        <v>-86.477667999999994</v>
+        <v>-3.9115089999999899</v>
       </c>
       <c r="J14" s="2">
-        <v>-201.25632899999999</v>
+        <v>-56.236904000000003</v>
       </c>
       <c r="K14" s="2">
-        <v>-161.01912999999999</v>
+        <v>-69.669882999999999</v>
       </c>
       <c r="L14" s="2">
-        <v>-262.14196299999998</v>
+        <v>-143.58680799999999</v>
       </c>
       <c r="M14" s="2">
-        <v>-49.706395000000001</v>
+        <v>36.824746999999903</v>
       </c>
       <c r="N14" s="2">
-        <v>-1680.1996140000001</v>
+        <v>-1293.3982119999901</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" s="3">
@@ -2271,55 +2271,55 @@
       </c>
       <c r="Q14" s="2">
         <f t="shared" si="1"/>
-        <v>-0.7489628999998672</v>
+        <v>-1.9863224499999035</v>
       </c>
       <c r="R14" s="2">
         <f t="shared" si="2"/>
-        <v>5.493286450000042</v>
+        <v>11.743981800000114</v>
       </c>
       <c r="S14" s="2">
         <f t="shared" si="3"/>
-        <v>-42.777147599999978</v>
+        <v>-28.763561550001043</v>
       </c>
       <c r="T14" s="2">
         <f t="shared" si="4"/>
-        <v>4.9908072500001026</v>
+        <v>39.094268200000158</v>
       </c>
       <c r="U14" s="2">
         <f t="shared" si="5"/>
-        <v>-2.3421340499999133</v>
+        <v>-9.9973850000907305E-2</v>
       </c>
       <c r="V14" s="2">
         <f t="shared" si="6"/>
-        <v>26.324543250000076</v>
+        <v>43.508635100000006</v>
       </c>
       <c r="W14" s="2">
         <f t="shared" si="7"/>
-        <v>-124.54965564999993</v>
+        <v>-100.69105154999986</v>
       </c>
       <c r="X14" s="2">
         <f t="shared" si="8"/>
-        <v>-51.831581249999985</v>
+        <v>-47.532271749999971</v>
       </c>
       <c r="Y14" s="2">
         <f t="shared" si="9"/>
-        <v>-129.61001939999997</v>
+        <v>-120.99288869999998</v>
       </c>
       <c r="Z14" s="2">
         <f t="shared" si="10"/>
-        <v>-148.68119084999998</v>
+        <v>-130.45981714999994</v>
       </c>
       <c r="AA14" s="2">
         <f t="shared" si="11"/>
-        <v>-230.86513194999998</v>
+        <v>-207.74993779999988</v>
       </c>
       <c r="AB14" s="2">
         <f t="shared" si="12"/>
-        <v>-62.278036549999996</v>
+        <v>-56.66835975000005</v>
       </c>
       <c r="AC14" s="2">
         <f t="shared" si="13"/>
-        <v>-354.30179175000171</v>
+        <v>-334.76661724999053</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
@@ -2327,43 +2327,43 @@
         <v>1992</v>
       </c>
       <c r="B15" s="2">
-        <v>123.620866999999</v>
+        <v>145.99113399999999</v>
       </c>
       <c r="C15" s="2">
-        <v>95.517871</v>
+        <v>119.12329</v>
       </c>
       <c r="D15" s="2">
-        <v>226.26673500000001</v>
+        <v>370.42974600000002</v>
       </c>
       <c r="E15" s="2">
-        <v>221.71895099999901</v>
+        <v>320.67266599999999</v>
       </c>
       <c r="F15" s="2">
-        <v>127.653894999999</v>
+        <v>195.73184599999999</v>
       </c>
       <c r="G15" s="2">
-        <v>80.960622000000001</v>
+        <v>107.36803500000001</v>
       </c>
       <c r="H15" s="2">
-        <v>-59.734521999999998</v>
+        <v>30.589371</v>
       </c>
       <c r="I15" s="2">
-        <v>-144.26481100000001</v>
+        <v>-50.754233999999997</v>
       </c>
       <c r="J15" s="2">
-        <v>-185.575255</v>
+        <v>-44.303089</v>
       </c>
       <c r="K15" s="2">
-        <v>-179.73973799999999</v>
+        <v>-88.397497000000001</v>
       </c>
       <c r="L15" s="2">
-        <v>-287.36167499999999</v>
+        <v>-166.31474499999999</v>
       </c>
       <c r="M15" s="2">
-        <v>-120.662228</v>
+        <v>-29.442706000000001</v>
       </c>
       <c r="N15" s="2">
-        <v>-1672.4888169999999</v>
+        <v>-1284.5587189999901</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" s="3">
@@ -2371,55 +2371,55 @@
       </c>
       <c r="Q15" s="2">
         <f t="shared" si="1"/>
-        <v>-18.594241900000881</v>
+        <v>-18.256047449999926</v>
       </c>
       <c r="R15" s="2">
         <f t="shared" si="2"/>
-        <v>6.7193064500000474</v>
+        <v>13.723388800000109</v>
       </c>
       <c r="S15" s="2">
         <f t="shared" si="3"/>
-        <v>-44.744378599999976</v>
+        <v>-5.3098765500000127</v>
       </c>
       <c r="T15" s="2">
         <f t="shared" si="4"/>
-        <v>18.233632249999118</v>
+        <v>49.598430200000166</v>
       </c>
       <c r="U15" s="2">
         <f t="shared" si="5"/>
-        <v>-8.1765110500009115</v>
+        <v>10.425555150000093</v>
       </c>
       <c r="V15" s="2">
         <f t="shared" si="6"/>
-        <v>7.7151262500000826</v>
+        <v>11.263945100000001</v>
       </c>
       <c r="W15" s="2">
         <f t="shared" si="7"/>
-        <v>-123.00287064999993</v>
+        <v>-101.78814254999986</v>
       </c>
       <c r="X15" s="2">
         <f t="shared" si="8"/>
-        <v>-109.61872425</v>
+        <v>-94.37499674999998</v>
       </c>
       <c r="Y15" s="2">
         <f t="shared" si="9"/>
-        <v>-113.92894539999998</v>
+        <v>-109.05907369999998</v>
       </c>
       <c r="Z15" s="2">
         <f t="shared" si="10"/>
-        <v>-167.40179884999998</v>
+        <v>-149.18743114999995</v>
       </c>
       <c r="AA15" s="2">
         <f t="shared" si="11"/>
-        <v>-256.08484394999999</v>
+        <v>-230.47787479999988</v>
       </c>
       <c r="AB15" s="2">
         <f t="shared" si="12"/>
-        <v>-133.23386954999998</v>
+        <v>-122.93581274999995</v>
       </c>
       <c r="AC15" s="2">
         <f t="shared" si="13"/>
-        <v>-346.59099475000153</v>
+        <v>-325.92712424999058</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
@@ -2427,43 +2427,43 @@
         <v>1993</v>
       </c>
       <c r="B16" s="2">
-        <v>152.54019299999999</v>
+        <v>176.60585800000001</v>
       </c>
       <c r="C16" s="2">
-        <v>77.222424000000004</v>
+        <v>91.489315000000005</v>
       </c>
       <c r="D16" s="2">
-        <v>213.63191099999901</v>
+        <v>328.97595799999999</v>
       </c>
       <c r="E16" s="2">
-        <v>278.52948099999998</v>
+        <v>378.20370600000001</v>
       </c>
       <c r="F16" s="2">
-        <v>85.728645</v>
+        <v>149.278887</v>
       </c>
       <c r="G16" s="2">
-        <v>77.638157999999905</v>
+        <v>124.63489199999999</v>
       </c>
       <c r="H16" s="2">
-        <v>23.737544</v>
+        <v>101.64024499999999</v>
       </c>
       <c r="I16" s="2">
-        <v>-122.858035</v>
+        <v>-33.125174999999999</v>
       </c>
       <c r="J16" s="2">
-        <v>-136.216396</v>
+        <v>-1.78358499999999</v>
       </c>
       <c r="K16" s="2">
-        <v>-60.889596999999902</v>
+        <v>16.011289999999999</v>
       </c>
       <c r="L16" s="2">
-        <v>-110.24981399999901</v>
+        <v>-15.813699</v>
       </c>
       <c r="M16" s="2">
-        <v>-24.286885999999999</v>
+        <v>57.404117999999997</v>
       </c>
       <c r="N16" s="2">
-        <v>-1555.6517119999901</v>
+        <v>-1180.334306</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" s="3">
@@ -2471,55 +2471,55 @@
       </c>
       <c r="Q16" s="2">
         <f t="shared" si="1"/>
-        <v>10.325084100000112</v>
+        <v>12.358676550000098</v>
       </c>
       <c r="R16" s="2">
         <f t="shared" si="2"/>
-        <v>-11.576140549999948</v>
+        <v>-13.910586199999884</v>
       </c>
       <c r="S16" s="2">
         <f t="shared" si="3"/>
-        <v>-57.37920260000098</v>
+        <v>-46.763664550000044</v>
       </c>
       <c r="T16" s="2">
         <f t="shared" si="4"/>
-        <v>75.044162250000085</v>
+        <v>107.12947020000018</v>
       </c>
       <c r="U16" s="2">
         <f t="shared" si="5"/>
-        <v>-50.101761049999908</v>
+        <v>-36.027403849999899</v>
       </c>
       <c r="V16" s="2">
         <f t="shared" si="6"/>
-        <v>4.3926622499999866</v>
+        <v>28.530802099999988</v>
       </c>
       <c r="W16" s="2">
         <f t="shared" si="7"/>
-        <v>-39.530804649999936</v>
+        <v>-30.737268549999868</v>
       </c>
       <c r="X16" s="2">
         <f t="shared" si="8"/>
-        <v>-88.211948249999992</v>
+        <v>-76.745937749999982</v>
       </c>
       <c r="Y16" s="2">
         <f t="shared" si="9"/>
-        <v>-64.57008639999998</v>
+        <v>-66.539569699999973</v>
       </c>
       <c r="Z16" s="2">
         <f t="shared" si="10"/>
-        <v>-48.551657849999899</v>
+        <v>-44.778644149999948</v>
       </c>
       <c r="AA16" s="2">
         <f t="shared" si="11"/>
-        <v>-78.972982949999007</v>
+        <v>-79.976828799999907</v>
       </c>
       <c r="AB16" s="2">
         <f t="shared" si="12"/>
-        <v>-36.858527549999991</v>
+        <v>-36.088988749999956</v>
       </c>
       <c r="AC16" s="2">
         <f t="shared" si="13"/>
-        <v>-229.75388974999169</v>
+        <v>-221.70271125000045</v>
       </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.25">
@@ -2527,43 +2527,43 @@
         <v>1994</v>
       </c>
       <c r="B17" s="2">
-        <v>128.90710300000001</v>
+        <v>156.16521399999999</v>
       </c>
       <c r="C17" s="2">
-        <v>129.855986</v>
+        <v>153.279402</v>
       </c>
       <c r="D17" s="2">
-        <v>214.83138599999899</v>
+        <v>336.65572400000002</v>
       </c>
       <c r="E17" s="2">
-        <v>232.53143700000001</v>
+        <v>314.89197100000001</v>
       </c>
       <c r="F17" s="2">
-        <v>128.483869</v>
+        <v>180.55022099999999</v>
       </c>
       <c r="G17" s="2">
-        <v>78.006694999999993</v>
+        <v>119.673687</v>
       </c>
       <c r="H17" s="2">
-        <v>-36.319798999999897</v>
+        <v>50.958320999999998</v>
       </c>
       <c r="I17" s="2">
-        <v>-109.29447500000001</v>
+        <v>-20.637442</v>
       </c>
       <c r="J17" s="2">
-        <v>-348.88086499999997</v>
+        <v>-186.93396999999999</v>
       </c>
       <c r="K17" s="2">
-        <v>-137.028021</v>
+        <v>-42.436463000000003</v>
       </c>
       <c r="L17" s="2">
-        <v>-213.75985699999899</v>
+        <v>-98.345990999999998</v>
       </c>
       <c r="M17" s="2">
-        <v>-15.424218</v>
+        <v>64.540167999999994</v>
       </c>
       <c r="N17" s="2">
-        <v>-1535.922564</v>
+        <v>-1165.6977879999999</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" s="3">
@@ -2571,55 +2571,55 @@
       </c>
       <c r="Q17" s="2">
         <f t="shared" si="1"/>
-        <v>-13.30800589999987</v>
+        <v>-8.0819674499999223</v>
       </c>
       <c r="R17" s="2">
         <f t="shared" si="2"/>
-        <v>41.057421450000049</v>
+        <v>47.879500800000116</v>
       </c>
       <c r="S17" s="2">
         <f t="shared" si="3"/>
-        <v>-56.179727600001002</v>
+        <v>-39.083898550000015</v>
       </c>
       <c r="T17" s="2">
         <f t="shared" si="4"/>
-        <v>29.04611825000012</v>
+        <v>43.817735200000186</v>
       </c>
       <c r="U17" s="2">
         <f t="shared" si="5"/>
-        <v>-7.3465370499999096</v>
+        <v>-4.7560698499999035</v>
       </c>
       <c r="V17" s="2">
         <f t="shared" si="6"/>
-        <v>4.7611992500000753</v>
+        <v>23.569597099999996</v>
       </c>
       <c r="W17" s="2">
         <f t="shared" si="7"/>
-        <v>-99.588147649999826</v>
+        <v>-81.419192549999863</v>
       </c>
       <c r="X17" s="2">
         <f t="shared" si="8"/>
-        <v>-74.648388249999996</v>
+        <v>-64.258204749999976</v>
       </c>
       <c r="Y17" s="2">
         <f t="shared" si="9"/>
-        <v>-277.23455539999998</v>
+        <v>-251.68995469999999</v>
       </c>
       <c r="Z17" s="2">
         <f t="shared" si="10"/>
-        <v>-124.69008185</v>
+        <v>-103.22639714999995</v>
       </c>
       <c r="AA17" s="2">
         <f t="shared" si="11"/>
-        <v>-182.48302594999899</v>
+        <v>-162.50912079999989</v>
       </c>
       <c r="AB17" s="2">
         <f t="shared" si="12"/>
-        <v>-27.995859549999992</v>
+        <v>-28.952938749999959</v>
       </c>
       <c r="AC17" s="2">
         <f t="shared" si="13"/>
-        <v>-210.02474175000157</v>
+        <v>-207.06619325000042</v>
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
@@ -2627,43 +2627,43 @@
         <v>1995</v>
       </c>
       <c r="B18" s="2">
-        <v>156.09869599999999</v>
+        <v>182.142011</v>
       </c>
       <c r="C18" s="2">
-        <v>96.728043</v>
+        <v>116.15419799999999</v>
       </c>
       <c r="D18" s="2">
-        <v>213.00803999999999</v>
+        <v>323.04678999999999</v>
       </c>
       <c r="E18" s="2">
-        <v>208.911967</v>
+        <v>286.44394399999999</v>
       </c>
       <c r="F18" s="2">
-        <v>124.828554</v>
+        <v>189.804813</v>
       </c>
       <c r="G18" s="2">
-        <v>62.668308999999901</v>
+        <v>85.384108999999995</v>
       </c>
       <c r="H18" s="2">
-        <v>103.118898</v>
+        <v>160.73876200000001</v>
       </c>
       <c r="I18" s="2">
-        <v>-45.959365999999903</v>
+        <v>30.530139999999999</v>
       </c>
       <c r="J18" s="2">
-        <v>-301.40643999999998</v>
+        <v>-146.39514399999999</v>
       </c>
       <c r="K18" s="2">
-        <v>-101.210272</v>
+        <v>-14.094141</v>
       </c>
       <c r="L18" s="2">
-        <v>-68.146023</v>
+        <v>27.076494</v>
       </c>
       <c r="M18" s="2">
-        <v>-8.0572280000000003</v>
+        <v>72.406028000000006</v>
       </c>
       <c r="N18" s="2">
-        <v>-1623.4149829999999</v>
+        <v>-1244.5086679999999</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" s="3">
@@ -2671,55 +2671,55 @@
       </c>
       <c r="Q18" s="2">
         <f t="shared" si="1"/>
-        <v>13.883587100000113</v>
+        <v>17.894829550000082</v>
       </c>
       <c r="R18" s="2">
         <f t="shared" si="2"/>
-        <v>7.9294784500000475</v>
+        <v>10.754296800000105</v>
       </c>
       <c r="S18" s="2">
         <f t="shared" si="3"/>
-        <v>-58.003073599999993</v>
+        <v>-52.692832550000048</v>
       </c>
       <c r="T18" s="2">
         <f t="shared" si="4"/>
-        <v>5.4266482500001132</v>
+        <v>15.369708200000161</v>
       </c>
       <c r="U18" s="2">
         <f t="shared" si="5"/>
-        <v>-11.001852049999911</v>
+        <v>4.4985221500000989</v>
       </c>
       <c r="V18" s="2">
         <f t="shared" si="6"/>
-        <v>-10.577186750000017</v>
+        <v>-10.71998090000001</v>
       </c>
       <c r="W18" s="2">
         <f t="shared" si="7"/>
-        <v>39.850549350000065</v>
+        <v>28.361248450000147</v>
       </c>
       <c r="X18" s="2">
         <f t="shared" si="8"/>
-        <v>-11.313279249999894</v>
+        <v>-13.090622749999984</v>
       </c>
       <c r="Y18" s="2">
         <f t="shared" si="9"/>
-        <v>-229.76013039999995</v>
+        <v>-211.15112869999996</v>
       </c>
       <c r="Z18" s="2">
         <f t="shared" si="10"/>
-        <v>-88.872332850000006</v>
+        <v>-74.884075149999944</v>
       </c>
       <c r="AA18" s="2">
         <f t="shared" si="11"/>
-        <v>-36.869191950000001</v>
+        <v>-37.086635799999911</v>
       </c>
       <c r="AB18" s="2">
         <f t="shared" si="12"/>
-        <v>-20.62886954999999</v>
+        <v>-21.087078749999947</v>
       </c>
       <c r="AC18" s="2">
         <f t="shared" si="13"/>
-        <v>-297.51716075000149</v>
+        <v>-285.87707325000042</v>
       </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.25">
@@ -2727,43 +2727,43 @@
         <v>1996</v>
       </c>
       <c r="B19" s="2">
-        <v>133.044274</v>
+        <v>148.88941</v>
       </c>
       <c r="C19" s="2">
-        <v>67.678618</v>
+        <v>78.114073000000005</v>
       </c>
       <c r="D19" s="2">
-        <v>239.05071899999999</v>
+        <v>360.418069</v>
       </c>
       <c r="E19" s="2">
-        <v>181.42927499999999</v>
+        <v>269.79795899999999</v>
       </c>
       <c r="F19" s="2">
-        <v>211.82374899999999</v>
+        <v>268.30489599999999</v>
       </c>
       <c r="G19" s="2">
-        <v>76.386374000000004</v>
+        <v>119.341009</v>
       </c>
       <c r="H19" s="2">
-        <v>-120.140277</v>
+        <v>-24.478698000000001</v>
       </c>
       <c r="I19" s="2">
-        <v>-272.7826</v>
+        <v>-166.71006800000001</v>
       </c>
       <c r="J19" s="2">
-        <v>-428.68228699999997</v>
+        <v>-258.872411</v>
       </c>
       <c r="K19" s="2">
-        <v>-87.636036000000004</v>
+        <v>-8.4948090000000001</v>
       </c>
       <c r="L19" s="2">
-        <v>-170.868582</v>
+        <v>-56.778562000000001</v>
       </c>
       <c r="M19" s="2">
-        <v>-32.587561999999998</v>
+        <v>51.171015999999902</v>
       </c>
       <c r="N19" s="2">
-        <v>-1665.2191849999999</v>
+        <v>-1278.265889</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" s="3">
@@ -2771,55 +2771,55 @@
       </c>
       <c r="Q19" s="2">
         <f t="shared" si="1"/>
-        <v>-9.1708348999998748</v>
+        <v>-15.357771449999916</v>
       </c>
       <c r="R19" s="2">
         <f t="shared" si="2"/>
-        <v>-21.119946549999952</v>
+        <v>-27.285828199999884</v>
       </c>
       <c r="S19" s="2">
         <f t="shared" si="3"/>
-        <v>-31.960394600000001</v>
+        <v>-15.321553550000033</v>
       </c>
       <c r="T19" s="2">
         <f t="shared" si="4"/>
-        <v>-22.056043749999901</v>
+        <v>-1.2762767999998346</v>
       </c>
       <c r="U19" s="2">
         <f t="shared" si="5"/>
-        <v>75.993342950000084</v>
+        <v>82.998605150000088</v>
       </c>
       <c r="V19" s="2">
         <f t="shared" si="6"/>
-        <v>3.1408782500000854</v>
+        <v>23.236919099999994</v>
       </c>
       <c r="W19" s="2">
         <f t="shared" si="7"/>
-        <v>-183.40862564999992</v>
+        <v>-156.85621154999987</v>
       </c>
       <c r="X19" s="2">
         <f t="shared" si="8"/>
-        <v>-238.13651325000001</v>
+        <v>-210.33083074999999</v>
       </c>
       <c r="Y19" s="2">
         <f t="shared" si="9"/>
-        <v>-357.03597739999998</v>
+        <v>-323.6283957</v>
       </c>
       <c r="Z19" s="2">
         <f t="shared" si="10"/>
-        <v>-75.298096850000007</v>
+        <v>-69.284743149999954</v>
       </c>
       <c r="AA19" s="2">
         <f t="shared" si="11"/>
-        <v>-139.59175095000001</v>
+        <v>-120.94169179999992</v>
       </c>
       <c r="AB19" s="2">
         <f t="shared" si="12"/>
-        <v>-45.159203549999987</v>
+        <v>-42.322090750000051</v>
       </c>
       <c r="AC19" s="2">
         <f t="shared" si="13"/>
-        <v>-339.32136275000153</v>
+        <v>-319.63429425000049</v>
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.25">
@@ -2827,43 +2827,43 @@
         <v>1997</v>
       </c>
       <c r="B20" s="2">
-        <v>122.61984099999999</v>
+        <v>135.497536</v>
       </c>
       <c r="C20" s="2">
-        <v>86.476006999999996</v>
+        <v>100.427616</v>
       </c>
       <c r="D20" s="2">
-        <v>223.07427799999999</v>
+        <v>336.306412999999</v>
       </c>
       <c r="E20" s="2">
-        <v>208.596103</v>
+        <v>283.239868</v>
       </c>
       <c r="F20" s="2">
-        <v>167.765469</v>
+        <v>229.603613</v>
       </c>
       <c r="G20" s="2">
-        <v>118.44122400000001</v>
+        <v>161.57118799999901</v>
       </c>
       <c r="H20" s="2">
-        <v>61.810718000000001</v>
+        <v>129.56396899999999</v>
       </c>
       <c r="I20" s="2">
-        <v>-103.043238</v>
+        <v>-18.324076000000002</v>
       </c>
       <c r="J20" s="2">
-        <v>-280.14236799999998</v>
+        <v>-127.92737700000001</v>
       </c>
       <c r="K20" s="2">
-        <v>-94.743358999999998</v>
+        <v>-17.639320000000001</v>
       </c>
       <c r="L20" s="2">
-        <v>-138.491883</v>
+        <v>-34.666545999999997</v>
       </c>
       <c r="M20" s="2">
-        <v>-59.796344999999903</v>
+        <v>24.882529000000002</v>
       </c>
       <c r="N20" s="2">
-        <v>-1673.516216</v>
+        <v>-1296.93522799999</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" s="3">
@@ -2871,55 +2871,55 @@
       </c>
       <c r="Q20" s="2">
         <f t="shared" si="1"/>
-        <v>-19.595267899999882</v>
+        <v>-28.749645449999917</v>
       </c>
       <c r="R20" s="2">
         <f t="shared" si="2"/>
-        <v>-2.3225575499999564</v>
+        <v>-4.9722851999998881</v>
       </c>
       <c r="S20" s="2">
         <f t="shared" si="3"/>
-        <v>-47.936835599999995</v>
+        <v>-39.433209550001038</v>
       </c>
       <c r="T20" s="2">
         <f t="shared" si="4"/>
-        <v>5.1107842500001084</v>
+        <v>12.165632200000175</v>
       </c>
       <c r="U20" s="2">
         <f t="shared" si="5"/>
-        <v>31.935062950000088</v>
+        <v>44.297322150000099</v>
       </c>
       <c r="V20" s="2">
         <f t="shared" si="6"/>
-        <v>45.195728250000087</v>
+        <v>65.467098099999006</v>
       </c>
       <c r="W20" s="2">
         <f t="shared" si="7"/>
-        <v>-1.4576306499999347</v>
+        <v>-2.8135445499998752</v>
       </c>
       <c r="X20" s="2">
         <f t="shared" si="8"/>
-        <v>-68.397151249999993</v>
+        <v>-61.944838749999988</v>
       </c>
       <c r="Y20" s="2">
         <f t="shared" si="9"/>
-        <v>-208.49605839999995</v>
+        <v>-192.68336169999998</v>
       </c>
       <c r="Z20" s="2">
         <f t="shared" si="10"/>
-        <v>-82.405419850000001</v>
+        <v>-78.429254149999949</v>
       </c>
       <c r="AA20" s="2">
         <f t="shared" si="11"/>
-        <v>-107.21505195</v>
+        <v>-98.829675799999904</v>
       </c>
       <c r="AB20" s="2">
         <f t="shared" si="12"/>
-        <v>-72.367986549999898</v>
+        <v>-68.610577749999948</v>
       </c>
       <c r="AC20" s="2">
         <f t="shared" si="13"/>
-        <v>-347.61839375000159</v>
+        <v>-338.30363324999053</v>
       </c>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.25">
@@ -2927,43 +2927,43 @@
         <v>1998</v>
       </c>
       <c r="B21" s="2">
-        <v>165.17643200000001</v>
+        <v>191.822746</v>
       </c>
       <c r="C21" s="2">
-        <v>84.529089999999997</v>
+        <v>101.46015300000001</v>
       </c>
       <c r="D21" s="2">
-        <v>262.91101800000001</v>
+        <v>356.10765900000001</v>
       </c>
       <c r="E21" s="2">
-        <v>241.05774299999999</v>
+        <v>310.72812599999997</v>
       </c>
       <c r="F21" s="2">
-        <v>175.46752799999999</v>
+        <v>235.71791400000001</v>
       </c>
       <c r="G21" s="2">
-        <v>139.78966499999899</v>
+        <v>202.85987900000001</v>
       </c>
       <c r="H21" s="2">
-        <v>-72.000339999999994</v>
+        <v>22.407579999999999</v>
       </c>
       <c r="I21" s="2">
-        <v>-98.789905000000005</v>
+        <v>-7.93515399999999</v>
       </c>
       <c r="J21" s="2">
-        <v>-275.43225699999999</v>
+        <v>-115.447695</v>
       </c>
       <c r="K21" s="2">
-        <v>-36.853698000000001</v>
+        <v>49.080671000000002</v>
       </c>
       <c r="L21" s="2">
-        <v>-59.113323999999999</v>
+        <v>18.722331000000001</v>
       </c>
       <c r="M21" s="2">
-        <v>75.143753000000004</v>
+        <v>147.58014499999999</v>
       </c>
       <c r="N21" s="2">
-        <v>-1505.568544</v>
+        <v>-1128.8433680000001</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" s="3">
@@ -2971,55 +2971,55 @@
       </c>
       <c r="Q21" s="2">
         <f t="shared" si="1"/>
-        <v>22.961323100000129</v>
+        <v>27.575564550000081</v>
       </c>
       <c r="R21" s="2">
         <f t="shared" si="2"/>
-        <v>-4.2694745499999556</v>
+        <v>-3.9397481999998831</v>
       </c>
       <c r="S21" s="2">
         <f t="shared" si="3"/>
-        <v>-8.1000955999999746</v>
+        <v>-19.631963550000023</v>
       </c>
       <c r="T21" s="2">
         <f t="shared" si="4"/>
-        <v>37.572424250000097</v>
+        <v>39.653890200000149</v>
       </c>
       <c r="U21" s="2">
         <f t="shared" si="5"/>
-        <v>39.637121950000079</v>
+        <v>50.411623150000111</v>
       </c>
       <c r="V21" s="2">
         <f t="shared" si="6"/>
-        <v>66.544169249999072</v>
+        <v>106.7557891</v>
       </c>
       <c r="W21" s="2">
         <f t="shared" si="7"/>
-        <v>-135.26868864999994</v>
+        <v>-109.96993354999987</v>
       </c>
       <c r="X21" s="2">
         <f t="shared" si="8"/>
-        <v>-64.143818249999995</v>
+        <v>-51.555916749999973</v>
       </c>
       <c r="Y21" s="2">
         <f t="shared" si="9"/>
-        <v>-203.78594739999997</v>
+        <v>-180.20367969999998</v>
       </c>
       <c r="Z21" s="2">
         <f t="shared" si="10"/>
-        <v>-24.515758850000001</v>
+        <v>-11.709263149999948</v>
       </c>
       <c r="AA21" s="2">
         <f t="shared" si="11"/>
-        <v>-27.83649295</v>
+        <v>-45.440798799999911</v>
       </c>
       <c r="AB21" s="2">
         <f t="shared" si="12"/>
-        <v>62.572111450000008</v>
+        <v>54.087038250000035</v>
       </c>
       <c r="AC21" s="2">
         <f t="shared" si="13"/>
-        <v>-179.67072175000158</v>
+        <v>-170.21177325000053</v>
       </c>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.25">
@@ -3027,43 +3027,43 @@
         <v>1999</v>
       </c>
       <c r="B22" s="2">
-        <v>194.27495200000001</v>
+        <v>232.46717699999999</v>
       </c>
       <c r="C22" s="2">
-        <v>139.94582</v>
+        <v>168.904809</v>
       </c>
       <c r="D22" s="2">
-        <v>279.151162</v>
+        <v>370.681445</v>
       </c>
       <c r="E22" s="2">
-        <v>156.28699900000001</v>
+        <v>235.609722</v>
       </c>
       <c r="F22" s="2">
-        <v>96.369101999999998</v>
+        <v>143.839212</v>
       </c>
       <c r="G22" s="2">
-        <v>111.493033</v>
+        <v>163.404212</v>
       </c>
       <c r="H22" s="2">
-        <v>20.866278999999999</v>
+        <v>117.192027</v>
       </c>
       <c r="I22" s="2">
-        <v>-47.711624999999998</v>
+        <v>34.487118000000002</v>
       </c>
       <c r="J22" s="2">
-        <v>-193.68188499999999</v>
+        <v>-40.246763000000001</v>
       </c>
       <c r="K22" s="2">
-        <v>-66.715213000000006</v>
+        <v>20.295663999999999</v>
       </c>
       <c r="L22" s="2">
-        <v>-75.718667999999994</v>
+        <v>29.472729999999999</v>
       </c>
       <c r="M22" s="2">
-        <v>-8.6932980000000004</v>
+        <v>72.947830999999994</v>
       </c>
       <c r="N22" s="2">
-        <v>-1564.0970279999999</v>
+        <v>-1182.15076</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" s="3">
@@ -3071,55 +3071,55 @@
       </c>
       <c r="Q22" s="2">
         <f t="shared" si="1"/>
-        <v>52.059843100000137</v>
+        <v>68.219995550000078</v>
       </c>
       <c r="R22" s="2">
         <f t="shared" si="2"/>
-        <v>51.147255450000046</v>
+        <v>63.504907800000112</v>
       </c>
       <c r="S22" s="2">
         <f t="shared" si="3"/>
-        <v>8.140048400000012</v>
+        <v>-5.058177550000039</v>
       </c>
       <c r="T22" s="2">
         <f t="shared" si="4"/>
-        <v>-47.198319749999882</v>
+        <v>-35.464513799999821</v>
       </c>
       <c r="U22" s="2">
         <f t="shared" si="5"/>
-        <v>-39.46130404999991</v>
+        <v>-41.467078849999893</v>
       </c>
       <c r="V22" s="2">
         <f t="shared" si="6"/>
-        <v>38.247537250000079</v>
+        <v>67.300122099999996</v>
       </c>
       <c r="W22" s="2">
         <f t="shared" si="7"/>
-        <v>-42.402069649999937</v>
+        <v>-15.185486549999865</v>
       </c>
       <c r="X22" s="2">
         <f t="shared" si="8"/>
-        <v>-13.065538249999989</v>
+        <v>-9.1336447499999807</v>
       </c>
       <c r="Y22" s="2">
         <f t="shared" si="9"/>
-        <v>-122.03557539999997</v>
+        <v>-105.00274769999999</v>
       </c>
       <c r="Z22" s="2">
         <f t="shared" si="10"/>
-        <v>-54.377273850000009</v>
+        <v>-40.494270149999949</v>
       </c>
       <c r="AA22" s="2">
         <f t="shared" si="11"/>
-        <v>-44.441836949999995</v>
+        <v>-34.690399799999909</v>
       </c>
       <c r="AB22" s="2">
         <f t="shared" si="12"/>
-        <v>-21.264939549999994</v>
+        <v>-20.545275749999959</v>
       </c>
       <c r="AC22" s="2">
         <f t="shared" si="13"/>
-        <v>-238.19920575000151</v>
+        <v>-223.51916525000047</v>
       </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.25">
@@ -3127,43 +3127,43 @@
         <v>2000</v>
       </c>
       <c r="B23" s="2">
-        <v>171.220732</v>
+        <v>196.81971399999901</v>
       </c>
       <c r="C23" s="2">
-        <v>101.63166200000001</v>
+        <v>122.89916599999999</v>
       </c>
       <c r="D23" s="2">
-        <v>272.35763300000002</v>
+        <v>383.83285599999999</v>
       </c>
       <c r="E23" s="2">
-        <v>163.17545699999999</v>
+        <v>235.80766</v>
       </c>
       <c r="F23" s="2">
-        <v>153.50824299999999</v>
+        <v>212.37874099999999</v>
       </c>
       <c r="G23" s="2">
-        <v>102.615554</v>
+        <v>129.90068500000001</v>
       </c>
       <c r="H23" s="2">
-        <v>21.080590000000001</v>
+        <v>101.1267</v>
       </c>
       <c r="I23" s="2">
-        <v>-31.780033</v>
+        <v>46.703309999999902</v>
       </c>
       <c r="J23" s="2">
-        <v>-192.86390700000001</v>
+        <v>-43.040609000000003</v>
       </c>
       <c r="K23" s="2">
-        <v>-63.308222000000001</v>
+        <v>25.247091999999999</v>
       </c>
       <c r="L23" s="2">
-        <v>-141.81192300000001</v>
+        <v>-29.360264999999998</v>
       </c>
       <c r="M23" s="2">
-        <v>8.6241059999999994</v>
+        <v>91.458598999999893</v>
       </c>
       <c r="N23" s="2">
-        <v>-1386.0653929999901</v>
+        <v>-1016.348249</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" s="3">
@@ -3171,55 +3171,55 @@
       </c>
       <c r="Q23" s="2">
         <f t="shared" si="1"/>
-        <v>29.005623100000122</v>
+        <v>32.572532549999096</v>
       </c>
       <c r="R23" s="2">
         <f t="shared" si="2"/>
-        <v>12.833097450000054</v>
+        <v>17.499264800000105</v>
       </c>
       <c r="S23" s="2">
         <f t="shared" si="3"/>
-        <v>1.3465194000000338</v>
+        <v>8.093233449999957</v>
       </c>
       <c r="T23" s="2">
         <f t="shared" si="4"/>
-        <v>-40.309861749999897</v>
+        <v>-35.266575799999828</v>
       </c>
       <c r="U23" s="2">
         <f t="shared" si="5"/>
-        <v>17.677836950000085</v>
+        <v>27.072450150000094</v>
       </c>
       <c r="V23" s="2">
         <f t="shared" si="6"/>
-        <v>29.370058250000085</v>
+        <v>33.796595100000005</v>
       </c>
       <c r="W23" s="2">
         <f t="shared" si="7"/>
-        <v>-42.187758649999935</v>
+        <v>-31.250813549999862</v>
       </c>
       <c r="X23" s="2">
         <f t="shared" si="8"/>
-        <v>2.8660537500000096</v>
+        <v>3.0825472499999194</v>
       </c>
       <c r="Y23" s="2">
         <f t="shared" si="9"/>
-        <v>-121.21759739999999</v>
+        <v>-107.79659369999999</v>
       </c>
       <c r="Z23" s="2">
         <f t="shared" si="10"/>
-        <v>-50.970282850000004</v>
+        <v>-35.542842149999956</v>
       </c>
       <c r="AA23" s="2">
         <f t="shared" si="11"/>
-        <v>-110.53509195000001</v>
+        <v>-93.523394799999906</v>
       </c>
       <c r="AB23" s="2">
         <f t="shared" si="12"/>
-        <v>-3.9475355499999925</v>
+        <v>-2.0345077500000599</v>
       </c>
       <c r="AC23" s="2">
         <f t="shared" si="13"/>
-        <v>-60.167570749991683</v>
+        <v>-57.716654250000488</v>
       </c>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.25">
@@ -3227,43 +3227,43 @@
         <v>2001</v>
       </c>
       <c r="B24" s="2">
-        <v>184.43480099999999</v>
+        <v>227.60787999999999</v>
       </c>
       <c r="C24" s="2">
-        <v>92.991185999999999</v>
+        <v>109.75443799999999</v>
       </c>
       <c r="D24" s="2">
-        <v>271.08287100000001</v>
+        <v>363.89133700000002</v>
       </c>
       <c r="E24" s="2">
-        <v>209.66773799999899</v>
+        <v>279.92384700000002</v>
       </c>
       <c r="F24" s="2">
-        <v>167.58565200000001</v>
+        <v>222.21741599999999</v>
       </c>
       <c r="G24" s="2">
-        <v>67.853864999999999</v>
+        <v>100.07023700000001</v>
       </c>
       <c r="H24" s="2">
-        <v>24.981901000000001</v>
+        <v>101.917102</v>
       </c>
       <c r="I24" s="2">
-        <v>-165.535854</v>
+        <v>-70.068515000000005</v>
       </c>
       <c r="J24" s="2">
-        <v>-203.397684</v>
+        <v>-51.115245999999999</v>
       </c>
       <c r="K24" s="2">
-        <v>-63.612483999999903</v>
+        <v>20.014755999999998</v>
       </c>
       <c r="L24" s="2">
-        <v>-188.225886</v>
+        <v>-72.733207999999905</v>
       </c>
       <c r="M24" s="2">
-        <v>-26.010857999999999</v>
+        <v>57.212883999999903</v>
       </c>
       <c r="N24" s="2">
-        <v>-1485.4449059999999</v>
+        <v>-1112.932266</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" s="3">
@@ -3271,55 +3271,55 @@
       </c>
       <c r="Q24" s="2">
         <f t="shared" si="1"/>
-        <v>42.219692100000117</v>
+        <v>63.36069855000008</v>
       </c>
       <c r="R24" s="2">
         <f t="shared" si="2"/>
-        <v>4.1926214500000469</v>
+        <v>4.3545368000001048</v>
       </c>
       <c r="S24" s="2">
         <f t="shared" si="3"/>
-        <v>7.1757400000024063E-2</v>
+        <v>-11.848285550000014</v>
       </c>
       <c r="T24" s="2">
         <f t="shared" si="4"/>
-        <v>6.1824192499991</v>
+        <v>8.8496112000001972</v>
       </c>
       <c r="U24" s="2">
         <f t="shared" si="5"/>
-        <v>31.755245950000102</v>
+        <v>36.911125150000089</v>
       </c>
       <c r="V24" s="2">
         <f t="shared" si="6"/>
-        <v>-5.3916307499999192</v>
+        <v>3.9661471000000006</v>
       </c>
       <c r="W24" s="2">
         <f t="shared" si="7"/>
-        <v>-38.286447649999936</v>
+        <v>-30.460411549999861</v>
       </c>
       <c r="X24" s="2">
         <f t="shared" si="8"/>
-        <v>-130.88976724999998</v>
+        <v>-113.68927774999999</v>
       </c>
       <c r="Y24" s="2">
         <f t="shared" si="9"/>
-        <v>-131.75137439999997</v>
+        <v>-115.87123069999998</v>
       </c>
       <c r="Z24" s="2">
         <f t="shared" si="10"/>
-        <v>-51.274544849999899</v>
+        <v>-40.775178149999952</v>
       </c>
       <c r="AA24" s="2">
         <f t="shared" si="11"/>
-        <v>-156.94905495</v>
+        <v>-136.8963377999998</v>
       </c>
       <c r="AB24" s="2">
         <f t="shared" si="12"/>
-        <v>-38.582499549999994</v>
+        <v>-36.28022275000005</v>
       </c>
       <c r="AC24" s="2">
         <f t="shared" si="13"/>
-        <v>-159.54708375000155</v>
+        <v>-154.30067125000051</v>
       </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.25">
@@ -3327,43 +3327,43 @@
         <v>2002</v>
       </c>
       <c r="B25" s="2">
-        <v>173.436904</v>
+        <v>199.59497199999899</v>
       </c>
       <c r="C25" s="2">
-        <v>68.954825999999997</v>
+        <v>81.881722999999994</v>
       </c>
       <c r="D25" s="2">
-        <v>243.02770299999901</v>
+        <v>358.04153600000001</v>
       </c>
       <c r="E25" s="2">
-        <v>154.92355800000001</v>
+        <v>224.25024500000001</v>
       </c>
       <c r="F25" s="2">
-        <v>136.67551799999899</v>
+        <v>181.84165200000001</v>
       </c>
       <c r="G25" s="2">
-        <v>103.786316</v>
+        <v>136.68838299999999</v>
       </c>
       <c r="H25" s="2">
-        <v>-10.285368</v>
+        <v>76.485405</v>
       </c>
       <c r="I25" s="2">
-        <v>-85.257604999999998</v>
+        <v>0.59637499999999999</v>
       </c>
       <c r="J25" s="2">
-        <v>-131.73435499999999</v>
+        <v>5.5554360000000003</v>
       </c>
       <c r="K25" s="2">
-        <v>-15.2999309999999</v>
+        <v>58.244461999999999</v>
       </c>
       <c r="L25" s="2">
-        <v>-103.317235</v>
+        <v>4.5552919999999997</v>
       </c>
       <c r="M25" s="2">
-        <v>-3.9635279999999899</v>
+        <v>81.420971999999907</v>
       </c>
       <c r="N25" s="2">
-        <v>-1606.3370669999999</v>
+        <v>-1227.0902080000001</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" s="3">
@@ -3371,55 +3371,55 @@
       </c>
       <c r="Q25" s="2">
         <f t="shared" si="1"/>
-        <v>31.221795100000122</v>
+        <v>35.347790549999075</v>
       </c>
       <c r="R25" s="2">
         <f t="shared" si="2"/>
-        <v>-19.843738549999955</v>
+        <v>-23.518178199999895</v>
       </c>
       <c r="S25" s="2">
         <f t="shared" si="3"/>
-        <v>-27.98341060000098</v>
+        <v>-17.698086550000028</v>
       </c>
       <c r="T25" s="2">
         <f t="shared" si="4"/>
-        <v>-48.561760749999877</v>
+        <v>-46.82399079999982</v>
       </c>
       <c r="U25" s="2">
         <f t="shared" si="5"/>
-        <v>0.84511194999907957</v>
+        <v>-3.4646388499998864</v>
       </c>
       <c r="V25" s="2">
         <f t="shared" si="6"/>
-        <v>30.540820250000081</v>
+        <v>40.584293099999982</v>
       </c>
       <c r="W25" s="2">
         <f t="shared" si="7"/>
-        <v>-73.553716649999942</v>
+        <v>-55.892108549999861</v>
       </c>
       <c r="X25" s="2">
         <f t="shared" si="8"/>
-        <v>-50.611518249999989</v>
+        <v>-43.024387749999981</v>
       </c>
       <c r="Y25" s="2">
         <f t="shared" si="9"/>
-        <v>-60.08804539999997</v>
+        <v>-59.200548699999985</v>
       </c>
       <c r="Z25" s="2">
         <f t="shared" si="10"/>
-        <v>-2.9619918499998992</v>
+        <v>-2.5454721499999522</v>
       </c>
       <c r="AA25" s="2">
         <f t="shared" si="11"/>
-        <v>-72.040403949999998</v>
+        <v>-59.607837799999906</v>
       </c>
       <c r="AB25" s="2">
         <f t="shared" si="12"/>
-        <v>-16.535169549999981</v>
+        <v>-12.072134750000046</v>
       </c>
       <c r="AC25" s="2">
         <f t="shared" si="13"/>
-        <v>-280.43924475000154</v>
+        <v>-268.45861325000055</v>
       </c>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.25">
@@ -3427,43 +3427,43 @@
         <v>2003</v>
       </c>
       <c r="B26" s="2">
-        <v>166.748897</v>
+        <v>190.35998499999999</v>
       </c>
       <c r="C26" s="2">
-        <v>43.911512999999999</v>
+        <v>55.334682999999998</v>
       </c>
       <c r="D26" s="2">
-        <v>272.50495999999998</v>
+        <v>377.35040199999997</v>
       </c>
       <c r="E26" s="2">
-        <v>237.22800799999999</v>
+        <v>299.17027999999999</v>
       </c>
       <c r="F26" s="2">
-        <v>164.79413</v>
+        <v>210.35364300000001</v>
       </c>
       <c r="G26" s="2">
-        <v>143.169568</v>
+        <v>191.30723</v>
       </c>
       <c r="H26" s="2">
-        <v>-73.842681999999996</v>
+        <v>22.188851</v>
       </c>
       <c r="I26" s="2">
-        <v>-39.431930999999999</v>
+        <v>40.584196999999897</v>
       </c>
       <c r="J26" s="2">
-        <v>-54.900655999999998</v>
+        <v>81.850950999999995</v>
       </c>
       <c r="K26" s="2">
-        <v>-19.715419000000001</v>
+        <v>50.681686999999997</v>
       </c>
       <c r="L26" s="2">
-        <v>-39.698832000000003</v>
+        <v>62.683135</v>
       </c>
       <c r="M26" s="2">
-        <v>-40.161845</v>
+        <v>46.340909000000003</v>
       </c>
       <c r="N26" s="2">
-        <v>-1490.1907470000001</v>
+        <v>-1112.0576859999901</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" s="3">
@@ -3471,55 +3471,55 @@
       </c>
       <c r="Q26" s="2">
         <f t="shared" si="1"/>
-        <v>24.533788100000123</v>
+        <v>26.112803550000081</v>
       </c>
       <c r="R26" s="2">
         <f t="shared" si="2"/>
-        <v>-44.887051549999953</v>
+        <v>-50.06521819999989</v>
       </c>
       <c r="S26" s="2">
         <f t="shared" si="3"/>
-        <v>1.4938463999999954</v>
+        <v>1.6107794499999386</v>
       </c>
       <c r="T26" s="2">
         <f t="shared" si="4"/>
-        <v>33.742689250000097</v>
+        <v>28.096044200000165</v>
       </c>
       <c r="U26" s="2">
         <f t="shared" si="5"/>
-        <v>28.963723950000087</v>
+        <v>25.047352150000108</v>
       </c>
       <c r="V26" s="2">
         <f t="shared" si="6"/>
-        <v>69.92407225000008</v>
+        <v>95.203140099999999</v>
       </c>
       <c r="W26" s="2">
         <f t="shared" si="7"/>
-        <v>-137.11103064999992</v>
+        <v>-110.18866254999986</v>
       </c>
       <c r="X26" s="2">
         <f t="shared" si="8"/>
-        <v>-4.7858442499999896</v>
+        <v>-3.0365657500000864</v>
       </c>
       <c r="Y26" s="2">
         <f t="shared" si="9"/>
-        <v>16.745653600000026</v>
+        <v>17.09496630000001</v>
       </c>
       <c r="Z26" s="2">
         <f t="shared" si="10"/>
-        <v>-7.3774798500000003</v>
+        <v>-10.108247149999954</v>
       </c>
       <c r="AA26" s="2">
         <f t="shared" si="11"/>
-        <v>-8.4220009500000046</v>
+        <v>-1.4799947999999077</v>
       </c>
       <c r="AB26" s="2">
         <f t="shared" si="12"/>
-        <v>-52.733486549999995</v>
+        <v>-47.152197749999949</v>
       </c>
       <c r="AC26" s="2">
         <f t="shared" si="13"/>
-        <v>-164.2929247500017</v>
+        <v>-153.42609124999058</v>
       </c>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.25">
@@ -3527,43 +3527,43 @@
         <v>2004</v>
       </c>
       <c r="B27" s="2">
-        <v>126.368246</v>
+        <v>144.485681</v>
       </c>
       <c r="C27" s="2">
-        <v>69.052052000000003</v>
+        <v>82.266779</v>
       </c>
       <c r="D27" s="2">
-        <v>293.21854999999999</v>
+        <v>411.97132599999998</v>
       </c>
       <c r="E27" s="2">
-        <v>148.801839</v>
+        <v>214.800625999999</v>
       </c>
       <c r="F27" s="2">
-        <v>117.919881</v>
+        <v>159.677772</v>
       </c>
       <c r="G27" s="2">
-        <v>85.808477999999994</v>
+        <v>120.884022</v>
       </c>
       <c r="H27" s="2">
-        <v>29.851051999999999</v>
+        <v>106.140449</v>
       </c>
       <c r="I27" s="2">
-        <v>-204.216385</v>
+        <v>-103.570353</v>
       </c>
       <c r="J27" s="2">
-        <v>-156.88764</v>
+        <v>-9.1547940000000008</v>
       </c>
       <c r="K27" s="2">
-        <v>-34.920228000000002</v>
+        <v>40.387934000000001</v>
       </c>
       <c r="L27" s="2">
-        <v>-117.097719</v>
+        <v>-13.9157109999999</v>
       </c>
       <c r="M27" s="2">
-        <v>-66.813655999999995</v>
+        <v>21.866125</v>
       </c>
       <c r="N27" s="2">
-        <v>-1490.805762</v>
+        <v>-1119.054907</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" s="3">
@@ -3571,55 +3571,55 @@
       </c>
       <c r="Q27" s="2">
         <f t="shared" si="1"/>
-        <v>-15.846862899999877</v>
+        <v>-19.761500449999915</v>
       </c>
       <c r="R27" s="2">
         <f t="shared" si="2"/>
-        <v>-19.746512549999949</v>
+        <v>-23.133122199999889</v>
       </c>
       <c r="S27" s="2">
         <f t="shared" si="3"/>
-        <v>22.207436400000006</v>
+        <v>36.231703449999941</v>
       </c>
       <c r="T27" s="2">
         <f t="shared" si="4"/>
-        <v>-54.68347974999989</v>
+        <v>-56.273609800000827</v>
       </c>
       <c r="U27" s="2">
         <f t="shared" si="5"/>
-        <v>-17.910525049999904</v>
+        <v>-25.628518849999892</v>
       </c>
       <c r="V27" s="2">
         <f t="shared" si="6"/>
-        <v>12.562982250000076</v>
+        <v>24.779932099999996</v>
       </c>
       <c r="W27" s="2">
         <f t="shared" si="7"/>
-        <v>-33.41729664999994</v>
+        <v>-26.237064549999857</v>
       </c>
       <c r="X27" s="2">
         <f t="shared" si="8"/>
-        <v>-169.57029825000001</v>
+        <v>-147.19111574999999</v>
       </c>
       <c r="Y27" s="2">
         <f t="shared" si="9"/>
-        <v>-85.241330399999981</v>
+        <v>-73.91077869999998</v>
       </c>
       <c r="Z27" s="2">
         <f t="shared" si="10"/>
-        <v>-22.582288850000001</v>
+        <v>-20.402000149999949</v>
       </c>
       <c r="AA27" s="2">
         <f t="shared" si="11"/>
-        <v>-85.820887949999999</v>
+        <v>-78.07884079999981</v>
       </c>
       <c r="AB27" s="2">
         <f t="shared" si="12"/>
-        <v>-79.38529754999999</v>
+        <v>-71.626981749999956</v>
       </c>
       <c r="AC27" s="2">
         <f t="shared" si="13"/>
-        <v>-164.90793975000156</v>
+        <v>-160.42331225000044</v>
       </c>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.25">
@@ -3627,43 +3627,43 @@
         <v>2005</v>
       </c>
       <c r="B28" s="2">
-        <v>126.21536999999999</v>
+        <v>146.779516</v>
       </c>
       <c r="C28" s="2">
-        <v>92.095981999999907</v>
+        <v>108.722262</v>
       </c>
       <c r="D28" s="2">
-        <v>353.481382</v>
+        <v>449.80852299999998</v>
       </c>
       <c r="E28" s="2">
-        <v>154.63065</v>
+        <v>217.170627</v>
       </c>
       <c r="F28" s="2">
-        <v>132.833023</v>
+        <v>184.162712</v>
       </c>
       <c r="G28" s="2">
-        <v>74.430867000000006</v>
+        <v>105.32556099999999</v>
       </c>
       <c r="H28" s="2">
-        <v>64.428608999999994</v>
+        <v>135.697554</v>
       </c>
       <c r="I28" s="2">
-        <v>-36.499184</v>
+        <v>39.813478000000003</v>
       </c>
       <c r="J28" s="2">
-        <v>-98.229828999999995</v>
+        <v>37.885527000000003</v>
       </c>
       <c r="K28" s="2">
-        <v>-70.012073999999998</v>
+        <v>8.0350280000000005</v>
       </c>
       <c r="L28" s="2">
-        <v>-146.83216299999901</v>
+        <v>-42.169012000000002</v>
       </c>
       <c r="M28" s="2">
-        <v>14.6690079999999</v>
+        <v>97.74991</v>
       </c>
       <c r="N28" s="2">
-        <v>-1552.5272619999901</v>
+        <v>-1171.7917130000001</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" s="3">
@@ -3671,55 +3671,55 @@
       </c>
       <c r="Q28" s="2">
         <f t="shared" si="1"/>
-        <v>-15.999738899999883</v>
+        <v>-17.467665449999913</v>
       </c>
       <c r="R28" s="2">
         <f t="shared" si="2"/>
-        <v>3.2974174499999549</v>
+        <v>3.3223608000001121</v>
       </c>
       <c r="S28" s="2">
         <f t="shared" si="3"/>
-        <v>82.470268400000009</v>
+        <v>74.068900449999944</v>
       </c>
       <c r="T28" s="2">
         <f t="shared" si="4"/>
-        <v>-48.854668749999888</v>
+        <v>-53.90360879999983</v>
       </c>
       <c r="U28" s="2">
         <f t="shared" si="5"/>
-        <v>-2.997383049999911</v>
+        <v>-1.1435788499998978</v>
       </c>
       <c r="V28" s="2">
         <f t="shared" si="6"/>
-        <v>1.1853712500000881</v>
+        <v>9.221471099999988</v>
       </c>
       <c r="W28" s="2">
         <f t="shared" si="7"/>
-        <v>1.1602603500000583</v>
+        <v>3.3200404500001355</v>
       </c>
       <c r="X28" s="2">
         <f t="shared" si="8"/>
-        <v>-1.8530972499999905</v>
+        <v>-3.8072847499999796</v>
       </c>
       <c r="Y28" s="2">
         <f t="shared" si="9"/>
-        <v>-26.583519399999972</v>
+        <v>-26.870457699999982</v>
       </c>
       <c r="Z28" s="2">
         <f t="shared" si="10"/>
-        <v>-57.674134850000002</v>
+        <v>-52.754906149999954</v>
       </c>
       <c r="AA28" s="2">
         <f t="shared" si="11"/>
-        <v>-115.55533194999902</v>
+        <v>-106.3321417999999</v>
       </c>
       <c r="AB28" s="2">
         <f t="shared" si="12"/>
-        <v>2.0973664499999085</v>
+        <v>4.256803250000047</v>
       </c>
       <c r="AC28" s="2">
         <f t="shared" si="13"/>
-        <v>-226.62943974999166</v>
+        <v>-213.16011825000055</v>
       </c>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.25">
@@ -3727,43 +3727,43 @@
         <v>2006</v>
       </c>
       <c r="B29" s="2">
-        <v>127.75914499999899</v>
+        <v>146.25982999999999</v>
       </c>
       <c r="C29" s="2">
-        <v>141.166752</v>
+        <v>163.56470300000001</v>
       </c>
       <c r="D29" s="2">
-        <v>262.74782099999999</v>
+        <v>353.165652999999</v>
       </c>
       <c r="E29" s="2">
-        <v>168.30161100000001</v>
+        <v>224.877227</v>
       </c>
       <c r="F29" s="2">
-        <v>119.227751</v>
+        <v>167.70553899999999</v>
       </c>
       <c r="G29" s="2">
-        <v>50.166028999999902</v>
+        <v>61.496343999999901</v>
       </c>
       <c r="H29" s="2">
-        <v>57.811558999999903</v>
+        <v>126.55211499999901</v>
       </c>
       <c r="I29" s="2">
-        <v>-40.294536000000001</v>
+        <v>40.225202000000003</v>
       </c>
       <c r="J29" s="2">
-        <v>-25.587413000000002</v>
+        <v>113.163557</v>
       </c>
       <c r="K29" s="2">
-        <v>-58.727343999999903</v>
+        <v>27.040166999999901</v>
       </c>
       <c r="L29" s="2">
-        <v>-125.79042699999999</v>
+        <v>-13.592509</v>
       </c>
       <c r="M29" s="2">
-        <v>17.096084999999999</v>
+        <v>96.305626000000004</v>
       </c>
       <c r="N29" s="2">
-        <v>-1411.7889299999999</v>
+        <v>-1043.8858580000001</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" s="3">
@@ -3771,55 +3771,55 @@
       </c>
       <c r="Q29" s="2">
         <f t="shared" si="1"/>
-        <v>-14.455963900000881</v>
+        <v>-17.98735144999992</v>
       </c>
       <c r="R29" s="2">
         <f t="shared" si="2"/>
-        <v>52.36818745000005</v>
+        <v>58.16480180000012</v>
       </c>
       <c r="S29" s="2">
         <f t="shared" si="3"/>
-        <v>-8.2632925999999998</v>
+        <v>-22.573969550001038</v>
       </c>
       <c r="T29" s="2">
         <f t="shared" si="4"/>
-        <v>-35.183707749999883</v>
+        <v>-46.197008799999821</v>
       </c>
       <c r="U29" s="2">
         <f t="shared" si="5"/>
-        <v>-16.60265504999991</v>
+        <v>-17.600751849999909</v>
       </c>
       <c r="V29" s="2">
         <f t="shared" si="6"/>
-        <v>-23.079466750000016</v>
+        <v>-34.607745900000104</v>
       </c>
       <c r="W29" s="2">
         <f t="shared" si="7"/>
-        <v>-5.456789650000033</v>
+        <v>-5.8253985500008554</v>
       </c>
       <c r="X29" s="2">
         <f t="shared" si="8"/>
-        <v>-5.6484492499999917</v>
+        <v>-3.39556074999998</v>
       </c>
       <c r="Y29" s="2">
         <f t="shared" si="9"/>
-        <v>46.058896600000026</v>
+        <v>48.407572300000012</v>
       </c>
       <c r="Z29" s="2">
         <f t="shared" si="10"/>
-        <v>-46.389404849999906</v>
+        <v>-33.749767150000054</v>
       </c>
       <c r="AA29" s="2">
         <f t="shared" si="11"/>
-        <v>-94.513595949999996</v>
+        <v>-77.7556387999999</v>
       </c>
       <c r="AB29" s="2">
         <f t="shared" si="12"/>
-        <v>4.5244434500000068</v>
+        <v>2.8125192500000509</v>
       </c>
       <c r="AC29" s="2">
         <f t="shared" si="13"/>
-        <v>-85.891107750001538</v>
+        <v>-85.254263250000577</v>
       </c>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.25">
@@ -3827,43 +3827,43 @@
         <v>2007</v>
       </c>
       <c r="B30" s="2">
-        <v>122.213163999999</v>
+        <v>141.13183599999999</v>
       </c>
       <c r="C30" s="2">
-        <v>109.737224</v>
+        <v>127.128042999999</v>
       </c>
       <c r="D30" s="2">
-        <v>323.57561099999998</v>
+        <v>423.90579600000001</v>
       </c>
       <c r="E30" s="2">
-        <v>233.09435099999999</v>
+        <v>302.73414600000001</v>
       </c>
       <c r="F30" s="2">
-        <v>129.96417099999999</v>
+        <v>185.187826</v>
       </c>
       <c r="G30" s="2">
-        <v>73.285399999999996</v>
+        <v>90.502252999999996</v>
       </c>
       <c r="H30" s="2">
-        <v>90.614469999999997</v>
+        <v>160.69638499999999</v>
       </c>
       <c r="I30" s="2">
-        <v>-22.741195000000001</v>
+        <v>47.669477000000001</v>
       </c>
       <c r="J30" s="2">
-        <v>18.830613</v>
+        <v>134.66817399999999</v>
       </c>
       <c r="K30" s="2">
-        <v>14.964670999999999</v>
+        <v>82.302150999999995</v>
       </c>
       <c r="L30" s="2">
-        <v>75.621303999999995</v>
+        <v>165.96156399999899</v>
       </c>
       <c r="M30" s="2">
-        <v>31.938776000000001</v>
+        <v>108.79622999999999</v>
       </c>
       <c r="N30" s="2">
-        <v>-1235.753483</v>
+        <v>-870.45045000000005</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" s="3">
@@ -3871,55 +3871,55 @@
       </c>
       <c r="Q30" s="2">
         <f t="shared" si="1"/>
-        <v>-20.001944900000879</v>
+        <v>-23.115345449999921</v>
       </c>
       <c r="R30" s="2">
         <f t="shared" si="2"/>
-        <v>20.938659450000046</v>
+        <v>21.728141799999108</v>
       </c>
       <c r="S30" s="2">
         <f t="shared" si="3"/>
-        <v>52.564497399999993</v>
+        <v>48.166173449999974</v>
       </c>
       <c r="T30" s="2">
         <f t="shared" si="4"/>
-        <v>29.609032250000098</v>
+        <v>31.659910200000184</v>
       </c>
       <c r="U30" s="2">
         <f t="shared" si="5"/>
-        <v>-5.866235049999915</v>
+        <v>-0.1184648499998957</v>
       </c>
       <c r="V30" s="2">
         <f t="shared" si="6"/>
-        <v>3.9904250000077468E-2</v>
+        <v>-5.6018369000000092</v>
       </c>
       <c r="W30" s="2">
         <f t="shared" si="7"/>
-        <v>27.346121350000061</v>
+        <v>28.318871450000131</v>
       </c>
       <c r="X30" s="2">
         <f t="shared" si="8"/>
-        <v>11.904891750000008</v>
+        <v>4.0487142500000175</v>
       </c>
       <c r="Y30" s="2">
         <f t="shared" si="9"/>
-        <v>90.476922600000023</v>
+        <v>69.912189300000009</v>
       </c>
       <c r="Z30" s="2">
         <f t="shared" si="10"/>
-        <v>27.30261015</v>
+        <v>21.512216850000044</v>
       </c>
       <c r="AA30" s="2">
         <f t="shared" si="11"/>
-        <v>106.89813504999999</v>
+        <v>101.79843419999908</v>
       </c>
       <c r="AB30" s="2">
         <f t="shared" si="12"/>
-        <v>19.367134450000009</v>
+        <v>15.303123250000041</v>
       </c>
       <c r="AC30" s="2">
         <f t="shared" si="13"/>
-        <v>90.144339249998438</v>
+        <v>88.181144749999476</v>
       </c>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.25">
@@ -3927,43 +3927,43 @@
         <v>2008</v>
       </c>
       <c r="B31" s="2">
-        <v>124.88616399999999</v>
+        <v>143.818487</v>
       </c>
       <c r="C31" s="2">
-        <v>109.593694</v>
+        <v>134.97100699999999</v>
       </c>
       <c r="D31" s="2">
-        <v>230.488406</v>
+        <v>339.41339499999998</v>
       </c>
       <c r="E31" s="2">
-        <v>192.90114399999999</v>
+        <v>262.571845</v>
       </c>
       <c r="F31" s="2">
-        <v>126.194622</v>
+        <v>180.75365500000001</v>
       </c>
       <c r="G31" s="2">
-        <v>80.262472000000002</v>
+        <v>104.593937</v>
       </c>
       <c r="H31" s="2">
-        <v>77.673061000000004</v>
+        <v>148.758104</v>
       </c>
       <c r="I31" s="2">
-        <v>-121.064196</v>
+        <v>-26.116437000000001</v>
       </c>
       <c r="J31" s="2">
-        <v>-57.398986999999998</v>
+        <v>83.193973999999997</v>
       </c>
       <c r="K31" s="2">
-        <v>29.3637219999999</v>
+        <v>102.916845</v>
       </c>
       <c r="L31" s="2">
-        <v>84.746954000000002</v>
+        <v>157.39943</v>
       </c>
       <c r="M31" s="2">
-        <v>11.777328000000001</v>
+        <v>90.694058999999996</v>
       </c>
       <c r="N31" s="2">
-        <v>-1233.3901719999999</v>
+        <v>-868.18274099999996</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" s="3">
@@ -3971,55 +3971,55 @@
       </c>
       <c r="Q31" s="2">
         <f t="shared" si="1"/>
-        <v>-17.328944899999883</v>
+        <v>-20.428694449999909</v>
       </c>
       <c r="R31" s="2">
         <f t="shared" si="2"/>
-        <v>20.795129450000047</v>
+        <v>29.571105800000097</v>
       </c>
       <c r="S31" s="2">
         <f t="shared" si="3"/>
-        <v>-40.52270759999999</v>
+        <v>-36.326227550000056</v>
       </c>
       <c r="T31" s="2">
         <f t="shared" si="4"/>
-        <v>-10.584174749999903</v>
+        <v>-8.5023907999998301</v>
       </c>
       <c r="U31" s="2">
         <f t="shared" si="5"/>
-        <v>-9.6357840499999128</v>
+        <v>-4.5526358499998878</v>
       </c>
       <c r="V31" s="2">
         <f t="shared" si="6"/>
-        <v>7.0169762500000843</v>
+        <v>8.4898470999999915</v>
       </c>
       <c r="W31" s="2">
         <f t="shared" si="7"/>
-        <v>14.404712350000068</v>
+        <v>16.380590450000142</v>
       </c>
       <c r="X31" s="2">
         <f t="shared" si="8"/>
-        <v>-86.418109249999986</v>
+        <v>-69.737199749999988</v>
       </c>
       <c r="Y31" s="2">
         <f t="shared" si="9"/>
-        <v>14.247322600000025</v>
+        <v>18.437989300000012</v>
       </c>
       <c r="Z31" s="2">
         <f t="shared" si="10"/>
-        <v>41.7016611499999</v>
+        <v>42.126910850000044</v>
       </c>
       <c r="AA31" s="2">
         <f t="shared" si="11"/>
-        <v>116.02378505</v>
+        <v>93.236300200000088</v>
       </c>
       <c r="AB31" s="2">
         <f t="shared" si="12"/>
-        <v>-0.79431354999999115</v>
+        <v>-2.7990477499999571</v>
       </c>
       <c r="AC31" s="2">
         <f t="shared" si="13"/>
-        <v>92.507650249998505</v>
+        <v>90.448853749999557</v>
       </c>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.25">
@@ -4027,43 +4027,43 @@
         <v>2009</v>
       </c>
       <c r="B32" s="2">
-        <v>120.632687</v>
+        <v>139.54673099999999</v>
       </c>
       <c r="C32" s="2">
-        <v>122.3633</v>
+        <v>147.42332999999999</v>
       </c>
       <c r="D32" s="2">
-        <v>229.92230799999999</v>
+        <v>348.12398999999999</v>
       </c>
       <c r="E32" s="2">
-        <v>219.43086400000001</v>
+        <v>291.02842099999998</v>
       </c>
       <c r="F32" s="2">
-        <v>110.78976599999901</v>
+        <v>159.65127200000001</v>
       </c>
       <c r="G32" s="2">
-        <v>91.892016999999996</v>
+        <v>117.625974</v>
       </c>
       <c r="H32" s="2">
-        <v>66.074680000000001</v>
+        <v>140.61944299999999</v>
       </c>
       <c r="I32" s="2">
-        <v>-5.4134399999999996</v>
+        <v>69.948691999999994</v>
       </c>
       <c r="J32" s="2">
-        <v>-122.31619499999999</v>
+        <v>15.775491000000001</v>
       </c>
       <c r="K32" s="2">
-        <v>-30.056556</v>
+        <v>41.574483999999998</v>
       </c>
       <c r="L32" s="2">
-        <v>-58.805728999999999</v>
+        <v>40.825648000000001</v>
       </c>
       <c r="M32" s="2">
-        <v>-3.6524220000000001</v>
+        <v>80.604972000000004</v>
       </c>
       <c r="N32" s="2">
-        <v>-1485.7707</v>
+        <v>-1108.79259</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" s="3">
@@ -4071,55 +4071,55 @@
       </c>
       <c r="Q32" s="2">
         <f t="shared" si="1"/>
-        <v>-21.582421899999872</v>
+        <v>-24.70045044999992</v>
       </c>
       <c r="R32" s="2">
         <f t="shared" si="2"/>
-        <v>33.564735450000043</v>
+        <v>42.023428800000104</v>
       </c>
       <c r="S32" s="2">
         <f t="shared" si="3"/>
-        <v>-41.088805600000001</v>
+        <v>-27.615632550000043</v>
       </c>
       <c r="T32" s="2">
         <f t="shared" si="4"/>
-        <v>15.945545250000123</v>
+        <v>19.954185200000154</v>
       </c>
       <c r="U32" s="2">
         <f t="shared" si="5"/>
-        <v>-25.040640050000903</v>
+        <v>-25.655018849999891</v>
       </c>
       <c r="V32" s="2">
         <f t="shared" si="6"/>
-        <v>18.646521250000077</v>
+        <v>21.521884099999994</v>
       </c>
       <c r="W32" s="2">
         <f t="shared" si="7"/>
-        <v>2.8063313500000646</v>
+        <v>8.2419294500001286</v>
       </c>
       <c r="X32" s="2">
         <f t="shared" si="8"/>
-        <v>29.232646750000008</v>
+        <v>26.327929250000011</v>
       </c>
       <c r="Y32" s="2">
         <f t="shared" si="9"/>
-        <v>-50.66988539999997</v>
+        <v>-48.980493699999982</v>
       </c>
       <c r="Z32" s="2">
         <f t="shared" si="10"/>
-        <v>-17.71861685</v>
+        <v>-19.215450149999953</v>
       </c>
       <c r="AA32" s="2">
         <f t="shared" si="11"/>
-        <v>-27.528897950000001</v>
+        <v>-23.337481799999907</v>
       </c>
       <c r="AB32" s="2">
         <f t="shared" si="12"/>
-        <v>-16.224063549999993</v>
+        <v>-12.888134749999949</v>
       </c>
       <c r="AC32" s="2">
         <f t="shared" si="13"/>
-        <v>-159.87287775000163</v>
+        <v>-150.1609952500005</v>
       </c>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.25">
@@ -4127,43 +4127,43 @@
         <v>2010</v>
       </c>
       <c r="B33" s="2">
-        <v>170.052322</v>
+        <v>199.607136</v>
       </c>
       <c r="C33" s="2">
-        <v>109.771891</v>
+        <v>135.092826</v>
       </c>
       <c r="D33" s="2">
-        <v>284.62192900000002</v>
+        <v>374.73909500000002</v>
       </c>
       <c r="E33" s="2">
-        <v>189.59258700000001</v>
+        <v>250.83005199999999</v>
       </c>
       <c r="F33" s="2">
-        <v>125.47556299999999</v>
+        <v>173.483769</v>
       </c>
       <c r="G33" s="2">
-        <v>54.835547999999903</v>
+        <v>74.237249000000006</v>
       </c>
       <c r="H33" s="2">
-        <v>122.049904</v>
+        <v>186.00193200000001</v>
       </c>
       <c r="I33" s="2">
-        <v>-27.090955999999998</v>
+        <v>49.850949999999997</v>
       </c>
       <c r="J33" s="2">
-        <v>-72.482224000000002</v>
+        <v>69.819727</v>
       </c>
       <c r="K33" s="2">
-        <v>-22.281741</v>
+        <v>55.226013000000002</v>
       </c>
       <c r="L33" s="2">
-        <v>-6.6463199999999896</v>
+        <v>83.731909000000002</v>
       </c>
       <c r="M33" s="2">
-        <v>15.386904999999899</v>
+        <v>92.426547999999997</v>
       </c>
       <c r="N33" s="2">
-        <v>-1151.348935</v>
+        <v>-792.66458</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" s="3">
@@ -4171,55 +4171,55 @@
       </c>
       <c r="Q33" s="2">
         <f t="shared" si="1"/>
-        <v>27.837213100000127</v>
+        <v>35.359954550000083</v>
       </c>
       <c r="R33" s="2">
         <f t="shared" si="2"/>
-        <v>20.973326450000044</v>
+        <v>29.692924800000114</v>
       </c>
       <c r="S33" s="2">
         <f t="shared" si="3"/>
-        <v>13.610815400000035</v>
+        <v>-1.0005275500000153</v>
       </c>
       <c r="T33" s="2">
         <f t="shared" si="4"/>
-        <v>-13.892731749999882</v>
+        <v>-20.244183799999831</v>
       </c>
       <c r="U33" s="2">
         <f t="shared" si="5"/>
-        <v>-10.354843049999914</v>
+        <v>-11.822521849999902</v>
       </c>
       <c r="V33" s="2">
         <f t="shared" si="6"/>
-        <v>-18.409947750000015</v>
+        <v>-21.8668409</v>
       </c>
       <c r="W33" s="2">
         <f t="shared" si="7"/>
-        <v>58.781555350000062</v>
+        <v>53.62441845000015</v>
       </c>
       <c r="X33" s="2">
         <f t="shared" si="8"/>
-        <v>7.5551307500000107</v>
+        <v>6.2301872500000144</v>
       </c>
       <c r="Y33" s="2">
         <f t="shared" si="9"/>
-        <v>-0.83591439999997874</v>
+        <v>5.0637423000000155</v>
       </c>
       <c r="Z33" s="2">
         <f t="shared" si="10"/>
-        <v>-9.9438018499999998</v>
+        <v>-5.563921149999949</v>
       </c>
       <c r="AA33" s="2">
         <f t="shared" si="11"/>
-        <v>24.63051105000001</v>
+        <v>19.568779200000094</v>
       </c>
       <c r="AB33" s="2">
         <f t="shared" si="12"/>
-        <v>2.8152634499999074</v>
+        <v>-1.066558749999956</v>
       </c>
       <c r="AC33" s="2">
         <f t="shared" si="13"/>
-        <v>174.54888724999842</v>
+        <v>165.96701474999952</v>
       </c>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.25">
@@ -4227,43 +4227,43 @@
         <v>2011</v>
       </c>
       <c r="B34" s="2">
-        <v>143.62297000000001</v>
+        <v>165.16620800000001</v>
       </c>
       <c r="C34" s="2">
-        <v>92.804351999999994</v>
+        <v>108.239903</v>
       </c>
       <c r="D34" s="2">
-        <v>247.10094100000001</v>
+        <v>344.352462</v>
       </c>
       <c r="E34" s="2">
-        <v>202.66475399999999</v>
+        <v>262.793249</v>
       </c>
       <c r="F34" s="2">
-        <v>131.50900799999999</v>
+        <v>188.81635</v>
       </c>
       <c r="G34" s="2">
-        <v>106.433388999999</v>
+        <v>127.775083</v>
       </c>
       <c r="H34" s="2">
-        <v>115.406269999999</v>
+        <v>167.04349399999899</v>
       </c>
       <c r="I34" s="2">
-        <v>17.810310000000001</v>
+        <v>83.096384999999998</v>
       </c>
       <c r="J34" s="2">
-        <v>-120.775879</v>
+        <v>17.016026</v>
       </c>
       <c r="K34" s="2">
-        <v>-34.469815999999902</v>
+        <v>34.857805999999997</v>
       </c>
       <c r="L34" s="2">
-        <v>13.145113</v>
+        <v>103.263228</v>
       </c>
       <c r="M34" s="2">
-        <v>66.960879000000006</v>
+        <v>142.98691299999999</v>
       </c>
       <c r="N34" s="2">
-        <v>-1198.1122989999999</v>
+        <v>-837.00925299999994</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" s="3">
@@ -4271,55 +4271,55 @@
       </c>
       <c r="Q34" s="2">
         <f t="shared" si="1"/>
-        <v>1.4078611000001331</v>
+        <v>0.91902655000009759</v>
       </c>
       <c r="R34" s="2">
         <f t="shared" si="2"/>
-        <v>4.0057874500000423</v>
+        <v>2.8400018000001097</v>
       </c>
       <c r="S34" s="2">
         <f t="shared" si="3"/>
-        <v>-23.910172599999981</v>
+        <v>-31.387160550000033</v>
       </c>
       <c r="T34" s="2">
         <f t="shared" si="4"/>
-        <v>-0.82056474999990314</v>
+        <v>-8.2809867999998232</v>
       </c>
       <c r="U34" s="2">
         <f t="shared" si="5"/>
-        <v>-4.3213980499999138</v>
+        <v>3.510059150000103</v>
       </c>
       <c r="V34" s="2">
         <f t="shared" si="6"/>
-        <v>33.187893249999078</v>
+        <v>31.67099309999999</v>
       </c>
       <c r="W34" s="2">
         <f t="shared" si="7"/>
-        <v>52.137921349999061</v>
+        <v>34.665980449999125</v>
       </c>
       <c r="X34" s="2">
         <f t="shared" si="8"/>
-        <v>52.45639675000001</v>
+        <v>39.475622250000015</v>
       </c>
       <c r="Y34" s="2">
         <f t="shared" si="9"/>
-        <v>-49.12956939999998</v>
+        <v>-47.739958699999988</v>
       </c>
       <c r="Z34" s="2">
         <f t="shared" si="10"/>
-        <v>-22.131876849999902</v>
+        <v>-25.932128149999954</v>
       </c>
       <c r="AA34" s="2">
         <f t="shared" si="11"/>
-        <v>44.42194405</v>
+        <v>39.10009820000009</v>
       </c>
       <c r="AB34" s="2">
         <f t="shared" si="12"/>
-        <v>54.38923745000001</v>
+        <v>49.493806250000034</v>
       </c>
       <c r="AC34" s="2">
         <f t="shared" si="13"/>
-        <v>127.7855232499985</v>
+        <v>121.62234174999958</v>
       </c>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.25">
@@ -4327,43 +4327,43 @@
         <v>2012</v>
       </c>
       <c r="B35" s="2">
-        <v>164.32192000000001</v>
+        <v>191.74847700000001</v>
       </c>
       <c r="C35" s="2">
-        <v>153.67648799999901</v>
+        <v>184.83041699999899</v>
       </c>
       <c r="D35" s="2">
-        <v>274.61569900000001</v>
+        <v>375.01044200000001</v>
       </c>
       <c r="E35" s="2">
-        <v>181.066846</v>
+        <v>246.48426000000001</v>
       </c>
       <c r="F35" s="2">
-        <v>169.480378</v>
+        <v>226.63447799999901</v>
       </c>
       <c r="G35" s="2">
-        <v>30.510206</v>
+        <v>41.063614999999999</v>
       </c>
       <c r="H35" s="2">
-        <v>89.599857</v>
+        <v>135.54222999999999</v>
       </c>
       <c r="I35" s="2">
-        <v>59.981120999999902</v>
+        <v>127.436222</v>
       </c>
       <c r="J35" s="2">
-        <v>115.80684299999901</v>
+        <v>238.457832</v>
       </c>
       <c r="K35" s="2">
-        <v>58.146970999999901</v>
+        <v>132.64511399999901</v>
       </c>
       <c r="L35" s="2">
-        <v>67.917828999999998</v>
+        <v>144.63848300000001</v>
       </c>
       <c r="M35" s="2">
-        <v>57.686931000000001</v>
+        <v>133.91686899999999</v>
       </c>
       <c r="N35" s="2">
-        <v>-1117.1481449999901</v>
+        <v>-762.69752300000005</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" s="3">
@@ -4371,55 +4371,55 @@
       </c>
       <c r="Q35" s="2">
         <f t="shared" si="1"/>
-        <v>22.106811100000129</v>
+        <v>27.501295550000094</v>
       </c>
       <c r="R35" s="2">
         <f t="shared" si="2"/>
-        <v>64.877923449999059</v>
+        <v>79.4305157999991</v>
       </c>
       <c r="S35" s="2">
         <f t="shared" si="3"/>
-        <v>3.604585400000019</v>
+        <v>-0.72918055000002369</v>
       </c>
       <c r="T35" s="2">
         <f t="shared" si="4"/>
-        <v>-22.418472749999893</v>
+        <v>-24.58997579999982</v>
       </c>
       <c r="U35" s="2">
         <f t="shared" si="5"/>
-        <v>33.649971950000094</v>
+        <v>41.32818714999911</v>
       </c>
       <c r="V35" s="2">
         <f t="shared" si="6"/>
-        <v>-42.735289749999922</v>
+        <v>-55.040474900000007</v>
       </c>
       <c r="W35" s="2">
         <f t="shared" si="7"/>
-        <v>26.331508350000064</v>
+        <v>3.1647164500001281</v>
       </c>
       <c r="X35" s="2">
         <f t="shared" si="8"/>
-        <v>94.627207749999911</v>
+        <v>83.815459250000018</v>
       </c>
       <c r="Y35" s="2">
         <f t="shared" si="9"/>
-        <v>187.45315259999904</v>
+        <v>173.7018473</v>
       </c>
       <c r="Z35" s="2">
         <f t="shared" si="10"/>
-        <v>70.484910149999905</v>
+        <v>71.855179849999061</v>
       </c>
       <c r="AA35" s="2">
         <f t="shared" si="11"/>
-        <v>99.194660049999996</v>
+        <v>80.4753532000001</v>
       </c>
       <c r="AB35" s="2">
         <f t="shared" si="12"/>
-        <v>45.115289450000006</v>
+        <v>40.423762250000038</v>
       </c>
       <c r="AC35" s="2">
         <f t="shared" si="13"/>
-        <v>208.74967725000829</v>
+        <v>195.93407174999948</v>
       </c>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.25">
@@ -4427,43 +4427,43 @@
         <v>2013</v>
       </c>
       <c r="B36" s="2">
-        <v>139.96476000000001</v>
+        <v>164.812307</v>
       </c>
       <c r="C36" s="2">
-        <v>134.34408500000001</v>
+        <v>159.62961999999999</v>
       </c>
       <c r="D36" s="2">
-        <v>234.71261799999999</v>
+        <v>343.44859400000001</v>
       </c>
       <c r="E36" s="2">
-        <v>220.874281</v>
+        <v>287.22759400000001</v>
       </c>
       <c r="F36" s="2">
-        <v>152.710162</v>
+        <v>200.216296</v>
       </c>
       <c r="G36" s="2">
-        <v>47.121891999999903</v>
+        <v>63.779780000000002</v>
       </c>
       <c r="H36" s="2">
-        <v>67.144782999999904</v>
+        <v>138.05702199999999</v>
       </c>
       <c r="I36" s="2">
-        <v>11.319953999999999</v>
+        <v>83.512872999999999</v>
       </c>
       <c r="J36" s="2">
-        <v>-114.89544199999899</v>
+        <v>29.322769999999998</v>
       </c>
       <c r="K36" s="2">
-        <v>-12.385968</v>
+        <v>64.418902000000003</v>
       </c>
       <c r="L36" s="2">
-        <v>-141.85489899999999</v>
+        <v>-31.772417999999998</v>
       </c>
       <c r="M36" s="2">
-        <v>-11.706977</v>
+        <v>72.805318</v>
       </c>
       <c r="N36" s="2">
-        <v>-1147.01126</v>
+        <v>-789.39583800000003</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" s="3">
@@ -4471,55 +4471,55 @@
       </c>
       <c r="Q36" s="2">
         <f t="shared" si="1"/>
-        <v>-2.2503488999998638</v>
+        <v>0.56512555000009002</v>
       </c>
       <c r="R36" s="2">
         <f t="shared" si="2"/>
-        <v>45.545520450000055</v>
+        <v>54.2297188000001</v>
       </c>
       <c r="S36" s="2">
         <f t="shared" si="3"/>
-        <v>-36.298495599999995</v>
+        <v>-32.291028550000021</v>
       </c>
       <c r="T36" s="2">
         <f t="shared" si="4"/>
-        <v>17.388962250000105</v>
+        <v>16.153358200000184</v>
       </c>
       <c r="U36" s="2">
         <f t="shared" si="5"/>
-        <v>16.879755950000089</v>
+        <v>14.910005150000103</v>
       </c>
       <c r="V36" s="2">
         <f t="shared" si="6"/>
-        <v>-26.123603750000015</v>
+        <v>-32.324309900000003</v>
       </c>
       <c r="W36" s="2">
         <f t="shared" si="7"/>
-        <v>3.8764343499999683</v>
+        <v>5.6795084500001281</v>
       </c>
       <c r="X36" s="2">
         <f t="shared" si="8"/>
-        <v>45.966040750000005</v>
+        <v>39.892110250000016</v>
       </c>
       <c r="Y36" s="2">
         <f t="shared" si="9"/>
-        <v>-43.24913239999897</v>
+        <v>-35.433214699999986</v>
       </c>
       <c r="Z36" s="2">
         <f t="shared" si="10"/>
-        <v>-4.8028849999999679E-2</v>
+        <v>3.628967850000052</v>
       </c>
       <c r="AA36" s="2">
         <f t="shared" si="11"/>
-        <v>-110.57806794999999</v>
+        <v>-95.93554779999991</v>
       </c>
       <c r="AB36" s="2">
         <f t="shared" si="12"/>
-        <v>-24.27861854999999</v>
+        <v>-20.687788749999953</v>
       </c>
       <c r="AC36" s="2">
         <f t="shared" si="13"/>
-        <v>178.88656224999841</v>
+        <v>169.2357567499995</v>
       </c>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.25">
@@ -4527,43 +4527,43 @@
         <v>2014</v>
       </c>
       <c r="B37" s="2">
-        <v>129.449704</v>
+        <v>143.472003</v>
       </c>
       <c r="C37" s="2">
-        <v>77.572389000000001</v>
+        <v>91.598232999999993</v>
       </c>
       <c r="D37" s="2">
-        <v>253.97269299999999</v>
+        <v>361.99895199999997</v>
       </c>
       <c r="E37" s="2">
-        <v>276.73172199999999</v>
+        <v>344.76836400000002</v>
       </c>
       <c r="F37" s="2">
-        <v>154.39534</v>
+        <v>202.48425900000001</v>
       </c>
       <c r="G37" s="2">
-        <v>80.145088000000001</v>
+        <v>98.539408999999907</v>
       </c>
       <c r="H37" s="2">
-        <v>105.267447</v>
+        <v>180.625866</v>
       </c>
       <c r="I37" s="2">
-        <v>13.545364999999901</v>
+        <v>77.107759999999999</v>
       </c>
       <c r="J37" s="2">
-        <v>-107.39218200000001</v>
+        <v>32.840090999999902</v>
       </c>
       <c r="K37" s="2">
-        <v>-21.868137000000001</v>
+        <v>54.173069999999903</v>
       </c>
       <c r="L37" s="2">
-        <v>-84.144892999999996</v>
+        <v>16.017174000000001</v>
       </c>
       <c r="M37" s="2">
-        <v>-41.939962000000001</v>
+        <v>42.673056000000003</v>
       </c>
       <c r="N37" s="2">
-        <v>-1443.2409339999999</v>
+        <v>-1062.266433</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" s="3">
@@ -4571,55 +4571,55 @@
       </c>
       <c r="Q37" s="2">
         <f t="shared" si="1"/>
-        <v>-12.765404899999879</v>
+        <v>-20.775178449999913</v>
       </c>
       <c r="R37" s="2">
         <f t="shared" si="2"/>
-        <v>-11.226175549999951</v>
+        <v>-13.801668199999895</v>
       </c>
       <c r="S37" s="2">
         <f t="shared" si="3"/>
-        <v>-17.038420599999995</v>
+        <v>-13.740670550000061</v>
       </c>
       <c r="T37" s="2">
         <f t="shared" si="4"/>
-        <v>73.2464032500001</v>
+        <v>73.694128200000193</v>
       </c>
       <c r="U37" s="2">
         <f t="shared" si="5"/>
-        <v>18.564933950000096</v>
+        <v>17.177968150000112</v>
       </c>
       <c r="V37" s="2">
         <f t="shared" si="6"/>
-        <v>6.899592250000083</v>
+        <v>2.4353190999999015</v>
       </c>
       <c r="W37" s="2">
         <f t="shared" si="7"/>
-        <v>41.999098350000068</v>
+        <v>48.248352450000141</v>
       </c>
       <c r="X37" s="2">
         <f t="shared" si="8"/>
-        <v>48.191451749999914</v>
+        <v>33.486997250000016</v>
       </c>
       <c r="Y37" s="2">
         <f t="shared" si="9"/>
-        <v>-35.745872399999982</v>
+        <v>-31.915893700000083</v>
       </c>
       <c r="Z37" s="2">
         <f t="shared" si="10"/>
-        <v>-9.5301978500000004</v>
+        <v>-6.6168641500000476</v>
       </c>
       <c r="AA37" s="2">
         <f t="shared" si="11"/>
-        <v>-52.868061949999998</v>
+        <v>-48.145955799999911</v>
       </c>
       <c r="AB37" s="2">
         <f t="shared" si="12"/>
-        <v>-54.51160354999999</v>
+        <v>-50.82005074999995</v>
       </c>
       <c r="AC37" s="2">
         <f t="shared" si="13"/>
-        <v>-117.34311175000153</v>
+        <v>-103.63483825000048</v>
       </c>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.25">
@@ -4627,43 +4627,43 @@
         <v>2015</v>
       </c>
       <c r="B38" s="2">
-        <v>111.48933899999901</v>
+        <v>129.43111999999999</v>
       </c>
       <c r="C38" s="2">
-        <v>75.157111</v>
+        <v>87.263506000000007</v>
       </c>
       <c r="D38" s="2">
-        <v>297.89809700000001</v>
+        <v>405.22581300000002</v>
       </c>
       <c r="E38" s="2">
-        <v>224.35021099999901</v>
+        <v>304.98620499999998</v>
       </c>
       <c r="F38" s="2">
-        <v>128.33118999999999</v>
+        <v>181.18226299999901</v>
       </c>
       <c r="G38" s="2">
-        <v>46.437308999999999</v>
+        <v>63.619847999999998</v>
       </c>
       <c r="H38" s="2">
-        <v>77.741254999999995</v>
+        <v>132.98296299999899</v>
       </c>
       <c r="I38" s="2">
-        <v>-26.647257</v>
+        <v>52.241546999999997</v>
       </c>
       <c r="J38" s="2">
-        <v>-53.128542000000003</v>
+        <v>75.823802000000001</v>
       </c>
       <c r="K38" s="2">
-        <v>54.698270999999998</v>
+        <v>117.179974</v>
       </c>
       <c r="L38" s="2">
-        <v>133.5977</v>
+        <v>217.72033399999901</v>
       </c>
       <c r="M38" s="2">
-        <v>86.571012999999994</v>
+        <v>161.49212499999999</v>
       </c>
       <c r="N38" s="2">
-        <v>-1264.9616149999999</v>
+        <v>-904.73043199999995</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" s="3">
@@ -4671,55 +4671,55 @@
       </c>
       <c r="Q38" s="2">
         <f t="shared" si="1"/>
-        <v>-30.72576990000087</v>
+        <v>-34.816061449999921</v>
       </c>
       <c r="R38" s="2">
         <f t="shared" si="2"/>
-        <v>-13.641453549999952</v>
+        <v>-18.136395199999882</v>
       </c>
       <c r="S38" s="2">
         <f t="shared" si="3"/>
-        <v>26.88698340000002</v>
+        <v>29.486190449999981</v>
       </c>
       <c r="T38" s="2">
         <f t="shared" si="4"/>
-        <v>20.864892249999116</v>
+        <v>33.911969200000158</v>
       </c>
       <c r="U38" s="2">
         <f t="shared" si="5"/>
-        <v>-7.4992160499999159</v>
+        <v>-4.1240278500008856</v>
       </c>
       <c r="V38" s="2">
         <f t="shared" si="6"/>
-        <v>-26.808186749999919</v>
+        <v>-32.484241900000008</v>
       </c>
       <c r="W38" s="2">
         <f t="shared" si="7"/>
-        <v>14.472906350000059</v>
+        <v>0.60544944999912786</v>
       </c>
       <c r="X38" s="2">
         <f t="shared" si="8"/>
-        <v>7.9988297500000094</v>
+        <v>8.620784250000014</v>
       </c>
       <c r="Y38" s="2">
         <f t="shared" si="9"/>
-        <v>18.51776760000002</v>
+        <v>11.067817300000016</v>
       </c>
       <c r="Z38" s="2">
         <f t="shared" si="10"/>
-        <v>67.036210150000002</v>
+        <v>56.390039850000051</v>
       </c>
       <c r="AA38" s="2">
         <f t="shared" si="11"/>
-        <v>164.87453105</v>
+        <v>153.55720419999909</v>
       </c>
       <c r="AB38" s="2">
         <f t="shared" si="12"/>
-        <v>73.999371449999998</v>
+        <v>67.999018250000034</v>
       </c>
       <c r="AC38" s="2">
         <f t="shared" si="13"/>
-        <v>60.936207249998461</v>
+        <v>53.901162749999571</v>
       </c>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.25">
@@ -4727,43 +4727,43 @@
         <v>2016</v>
       </c>
       <c r="B39" s="2">
-        <v>124.776687</v>
+        <v>145.92728500000001</v>
       </c>
       <c r="C39" s="2">
-        <v>79.257249999999999</v>
+        <v>90.558481</v>
       </c>
       <c r="D39" s="2">
-        <v>251.501847</v>
+        <v>359.56723099999999</v>
       </c>
       <c r="E39" s="2">
-        <v>208.35254599999999</v>
+        <v>275.29979800000001</v>
       </c>
       <c r="F39" s="2">
-        <v>99.741915000000006</v>
+        <v>139.24595400000001</v>
       </c>
       <c r="G39" s="2">
-        <v>31.135712999999999</v>
+        <v>37.697066999999997</v>
       </c>
       <c r="H39" s="2">
-        <v>82.672372999999993</v>
+        <v>135.730729</v>
       </c>
       <c r="I39" s="2">
-        <v>5.7100999999999999E-2</v>
+        <v>87.540210999999999</v>
       </c>
       <c r="J39" s="2">
-        <v>23.970611999999999</v>
+        <v>154.22143</v>
       </c>
       <c r="K39" s="2">
-        <v>56.860884999999897</v>
+        <v>127.69610299999999</v>
       </c>
       <c r="L39" s="2">
-        <v>105.251618999999</v>
+        <v>177.18758299999999</v>
       </c>
       <c r="M39" s="2">
-        <v>73.565167000000002</v>
+        <v>148.82104200000001</v>
       </c>
       <c r="N39" s="2">
-        <v>-1056.7516009999999</v>
+        <v>-705.52401299999997</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" s="3">
@@ -4771,55 +4771,55 @@
       </c>
       <c r="Q39" s="2">
         <f t="shared" si="1"/>
-        <v>-17.438421899999881</v>
+        <v>-18.319896449999902</v>
       </c>
       <c r="R39" s="2">
         <f t="shared" si="2"/>
-        <v>-9.541314549999953</v>
+        <v>-14.841420199999888</v>
       </c>
       <c r="S39" s="2">
         <f t="shared" si="3"/>
-        <v>-19.509266599999989</v>
+        <v>-16.172391550000043</v>
       </c>
       <c r="T39" s="2">
         <f t="shared" si="4"/>
-        <v>4.8672272500000986</v>
+        <v>4.2255622000001836</v>
       </c>
       <c r="U39" s="2">
         <f t="shared" si="5"/>
-        <v>-36.088491049999902</v>
+        <v>-46.060336849999885</v>
       </c>
       <c r="V39" s="2">
         <f t="shared" si="6"/>
-        <v>-42.109782749999923</v>
+        <v>-58.407022900000008</v>
       </c>
       <c r="W39" s="2">
         <f t="shared" si="7"/>
-        <v>19.404024350000057</v>
+        <v>3.3532154500001354</v>
       </c>
       <c r="X39" s="2">
         <f t="shared" si="8"/>
-        <v>34.703187750000012</v>
+        <v>43.919448250000016</v>
       </c>
       <c r="Y39" s="2">
         <f t="shared" si="9"/>
-        <v>95.616921600000026</v>
+        <v>89.465445300000013</v>
       </c>
       <c r="Z39" s="2">
         <f t="shared" si="10"/>
-        <v>69.198824149999894</v>
+        <v>66.906168850000043</v>
       </c>
       <c r="AA39" s="2">
         <f t="shared" si="11"/>
-        <v>136.52845004999898</v>
+        <v>113.02445320000008</v>
       </c>
       <c r="AB39" s="2">
         <f t="shared" si="12"/>
-        <v>60.993525450000007</v>
+        <v>55.327935250000053</v>
       </c>
       <c r="AC39" s="2">
         <f t="shared" si="13"/>
-        <v>269.14622124999846</v>
+        <v>253.10758174999955</v>
       </c>
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.25">
@@ -4827,43 +4827,43 @@
         <v>2017</v>
       </c>
       <c r="B40" s="2">
-        <v>112.19272599999999</v>
+        <v>125.30493300000001</v>
       </c>
       <c r="C40" s="2">
-        <v>51.336115999999997</v>
+        <v>60.199468999999901</v>
       </c>
       <c r="D40" s="2">
-        <v>286.95062300000001</v>
+        <v>383.76689099999999</v>
       </c>
       <c r="E40" s="2">
-        <v>244.02316400000001</v>
+        <v>324.494688</v>
       </c>
       <c r="F40" s="2">
-        <v>134.68771100000001</v>
+        <v>187.992209</v>
       </c>
       <c r="G40" s="2">
-        <v>73.436790999999999</v>
+        <v>93.845089999999999</v>
       </c>
       <c r="H40" s="2">
-        <v>99.713608999999906</v>
+        <v>163.68058500000001</v>
       </c>
       <c r="I40" s="2">
-        <v>-36.673178999999998</v>
+        <v>46.429113000000001</v>
       </c>
       <c r="J40" s="2">
-        <v>-73.643598999999995</v>
+        <v>50.688503999999902</v>
       </c>
       <c r="K40" s="2">
-        <v>-11.001302000000001</v>
+        <v>52.115952</v>
       </c>
       <c r="L40" s="2">
-        <v>-27.034887999999999</v>
+        <v>62.109039000000003</v>
       </c>
       <c r="M40" s="2">
-        <v>5.4660529999999996</v>
+        <v>86.882699000000002</v>
       </c>
       <c r="N40" s="2">
-        <v>-1297.7125140000001</v>
+        <v>-922.21640199999899</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" s="3">
@@ -4871,55 +4871,55 @@
       </c>
       <c r="Q40" s="2">
         <f t="shared" si="1"/>
-        <v>-30.022382899999883</v>
+        <v>-38.942248449999909</v>
       </c>
       <c r="R40" s="2">
         <f t="shared" si="2"/>
-        <v>-37.462448549999955</v>
+        <v>-45.200432199999987</v>
       </c>
       <c r="S40" s="2">
         <f t="shared" si="3"/>
-        <v>15.93950940000002</v>
+        <v>8.0272684499999514</v>
       </c>
       <c r="T40" s="2">
         <f t="shared" si="4"/>
-        <v>40.537845250000117</v>
+        <v>53.42045220000017</v>
       </c>
       <c r="U40" s="2">
         <f t="shared" si="5"/>
-        <v>-1.1426950499999009</v>
+        <v>2.6859181500001057</v>
       </c>
       <c r="V40" s="2">
         <f t="shared" si="6"/>
-        <v>0.1912952500000813</v>
+        <v>-2.2589999000000063</v>
       </c>
       <c r="W40" s="2">
         <f t="shared" si="7"/>
-        <v>36.44526034999997</v>
+        <v>31.303071450000147</v>
       </c>
       <c r="X40" s="2">
         <f t="shared" si="8"/>
-        <v>-2.0270922499999884</v>
+        <v>2.8083502500000179</v>
       </c>
       <c r="Y40" s="2">
         <f t="shared" si="9"/>
-        <v>-1.9972893999999712</v>
+        <v>-14.067480700000083</v>
       </c>
       <c r="Z40" s="2">
         <f t="shared" si="10"/>
-        <v>1.3366371499999996</v>
+        <v>-8.6739821499999508</v>
       </c>
       <c r="AA40" s="2">
         <f t="shared" si="11"/>
-        <v>4.2419430499999997</v>
+        <v>-2.054090799999905</v>
       </c>
       <c r="AB40" s="2">
         <f t="shared" si="12"/>
-        <v>-7.1055885499999922</v>
+        <v>-6.6104077499999505</v>
       </c>
       <c r="AC40" s="2">
         <f t="shared" si="13"/>
-        <v>28.185308249998343</v>
+        <v>36.415192750000529</v>
       </c>
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.25">
@@ -4927,43 +4927,43 @@
         <v>2018</v>
       </c>
       <c r="B41" s="2">
-        <v>165.96186</v>
+        <v>187.31147300000001</v>
       </c>
       <c r="C41" s="2">
-        <v>18.541967</v>
+        <v>20.543029000000001</v>
       </c>
       <c r="D41" s="2">
-        <v>255.800014</v>
+        <v>369.73129599999999</v>
       </c>
       <c r="E41" s="2">
-        <v>254.84713500000001</v>
+        <v>328.176977999999</v>
       </c>
       <c r="F41" s="2">
-        <v>100.166822</v>
+        <v>134.416607</v>
       </c>
       <c r="G41" s="2">
-        <v>41.077235999999999</v>
+        <v>61.623635999999998</v>
       </c>
       <c r="H41" s="2">
-        <v>61.165242999999997</v>
+        <v>131.483059</v>
       </c>
       <c r="I41" s="2">
-        <v>31.316298</v>
+        <v>97.614597000000003</v>
       </c>
       <c r="J41" s="2">
-        <v>-72.330729000000005</v>
+        <v>69.928764000000001</v>
       </c>
       <c r="K41" s="2">
-        <v>-0.96045899999999995</v>
+        <v>65.149799999999999</v>
       </c>
       <c r="L41" s="2">
-        <v>-29.961479999999899</v>
+        <v>69.984610000000004</v>
       </c>
       <c r="M41" s="2">
-        <v>11.370564999999999</v>
+        <v>93.797988000000004</v>
       </c>
       <c r="N41" s="2">
-        <v>-1290.077464</v>
+        <v>-931.054574</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" s="3">
@@ -4971,55 +4971,55 @@
       </c>
       <c r="Q41" s="2">
         <f t="shared" si="1"/>
-        <v>23.746751100000125</v>
+        <v>23.064291550000092</v>
       </c>
       <c r="R41" s="2">
         <f t="shared" si="2"/>
-        <v>-70.256597549999952</v>
+        <v>-84.856872199999884</v>
       </c>
       <c r="S41" s="2">
         <f t="shared" si="3"/>
-        <v>-15.211099599999983</v>
+        <v>-6.0083265500000493</v>
       </c>
       <c r="T41" s="2">
         <f t="shared" si="4"/>
-        <v>51.361816250000118</v>
+        <v>57.10274219999917</v>
       </c>
       <c r="U41" s="2">
         <f t="shared" si="5"/>
-        <v>-35.663584049999912</v>
+        <v>-50.889683849999898</v>
       </c>
       <c r="V41" s="2">
         <f t="shared" si="6"/>
-        <v>-32.168259749999919</v>
+        <v>-34.480453900000008</v>
       </c>
       <c r="W41" s="2">
         <f t="shared" si="7"/>
-        <v>-2.1031056499999394</v>
+        <v>-0.89445454999986396</v>
       </c>
       <c r="X41" s="2">
         <f t="shared" si="8"/>
-        <v>65.962384750000012</v>
+        <v>53.99383425000002</v>
       </c>
       <c r="Y41" s="2">
         <f t="shared" si="9"/>
-        <v>-0.68441939999998169</v>
+        <v>5.1727793000000162</v>
       </c>
       <c r="Z41" s="2">
         <f t="shared" si="10"/>
-        <v>11.37748015</v>
+        <v>4.3598658500000482</v>
       </c>
       <c r="AA41" s="2">
         <f t="shared" si="11"/>
-        <v>1.3153510500000998</v>
+        <v>5.8214802000000958</v>
       </c>
       <c r="AB41" s="2">
         <f t="shared" si="12"/>
-        <v>-1.2010765499999927</v>
+        <v>0.30488125000005084</v>
       </c>
       <c r="AC41" s="2">
         <f t="shared" si="13"/>
-        <v>35.820358249998435</v>
+        <v>27.577020749999519</v>
       </c>
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.25">
@@ -5027,43 +5027,43 @@
         <v>2019</v>
       </c>
       <c r="B42" s="2">
-        <v>138.55377999999999</v>
+        <v>155.75805500000001</v>
       </c>
       <c r="C42" s="2">
-        <v>32.011451000000001</v>
+        <v>36.096406000000002</v>
       </c>
       <c r="D42" s="2">
-        <v>280.64056599999998</v>
+        <v>387.44686100000001</v>
       </c>
       <c r="E42" s="2">
-        <v>185.047909</v>
+        <v>244.088604</v>
       </c>
       <c r="F42" s="2">
-        <v>160.61727500000001</v>
+        <v>207.72340399999999</v>
       </c>
       <c r="G42" s="2">
-        <v>80.506176999999994</v>
+        <v>101.506395</v>
       </c>
       <c r="H42" s="2">
-        <v>96.218360000000004</v>
+        <v>156.22028299999999</v>
       </c>
       <c r="I42" s="2">
-        <v>15.693866999999999</v>
+        <v>81.800170999999906</v>
       </c>
       <c r="J42" s="2">
-        <v>66.431003000000004</v>
+        <v>188.218287</v>
       </c>
       <c r="K42" s="2">
-        <v>-2.1736219999999999</v>
+        <v>55.891342999999999</v>
       </c>
       <c r="L42" s="2">
-        <v>105.405254</v>
+        <v>180.72828999999999</v>
       </c>
       <c r="M42" s="2">
-        <v>44.569262999999999</v>
+        <v>121.609290999999</v>
       </c>
       <c r="N42" s="2">
-        <v>-1173.5172560000001</v>
+        <v>-814.48617899999999</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" s="3">
@@ -5071,109 +5071,109 @@
       </c>
       <c r="Q42" s="2">
         <f t="shared" si="1"/>
-        <v>-3.6613288999998872</v>
+        <v>-8.4891264499999011</v>
       </c>
       <c r="R42" s="2">
         <f t="shared" si="2"/>
-        <v>-56.787113549999951</v>
+        <v>-69.303495199999887</v>
       </c>
       <c r="S42" s="2">
         <f t="shared" si="3"/>
-        <v>9.629452399999991</v>
+        <v>11.707238449999977</v>
       </c>
       <c r="T42" s="2">
         <f t="shared" si="4"/>
-        <v>-18.437409749999887</v>
+        <v>-26.985631799999823</v>
       </c>
       <c r="U42" s="2">
         <f t="shared" si="5"/>
-        <v>24.786868950000098</v>
+        <v>22.417113150000091</v>
       </c>
       <c r="V42" s="2">
         <f t="shared" si="6"/>
-        <v>7.2606812500000757</v>
+        <v>5.4023050999999924</v>
       </c>
       <c r="W42" s="2">
         <f t="shared" si="7"/>
-        <v>32.950011350000068</v>
+        <v>23.842769450000134</v>
       </c>
       <c r="X42" s="2">
         <f t="shared" si="8"/>
-        <v>50.339953750000006</v>
+        <v>38.179408249999923</v>
       </c>
       <c r="Y42" s="2">
         <f t="shared" si="9"/>
-        <v>138.07731260000003</v>
+        <v>123.46230230000002</v>
       </c>
       <c r="Z42" s="2">
         <f t="shared" si="10"/>
-        <v>10.16431715</v>
+        <v>-4.8985911499999517</v>
       </c>
       <c r="AA42" s="2">
         <f t="shared" si="11"/>
-        <v>136.68208505000001</v>
+        <v>116.56516020000008</v>
       </c>
       <c r="AB42" s="2">
         <f t="shared" si="12"/>
-        <v>31.997621450000008</v>
+        <v>28.116184249999051</v>
       </c>
       <c r="AC42" s="2">
         <f t="shared" si="13"/>
-        <v>152.38056624999831</v>
+        <v>144.14541574999953</v>
       </c>
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B45">
         <f>AVERAGE(B23:B42)</f>
-        <v>142.21510889999988</v>
+        <v>164.24718144999991</v>
       </c>
       <c r="C45">
         <f t="shared" ref="C45:N45" si="14">AVERAGE(C23:C42)</f>
-        <v>88.798564549999952</v>
+        <v>105.39990119999989</v>
       </c>
       <c r="D45">
         <f t="shared" si="14"/>
-        <v>271.01111359999999</v>
+        <v>375.73962255000004</v>
       </c>
       <c r="E45">
         <f t="shared" si="14"/>
-        <v>203.48531874999989</v>
+        <v>271.07423579999983</v>
       </c>
       <c r="F45">
         <f t="shared" si="14"/>
-        <v>135.83040604999991</v>
+        <v>185.3062908499999</v>
       </c>
       <c r="G45">
         <f t="shared" si="14"/>
-        <v>73.245495749999918</v>
+        <v>96.104089900000005</v>
       </c>
       <c r="H45">
         <f t="shared" si="14"/>
-        <v>63.268348649999936</v>
+        <v>132.37751354999986</v>
       </c>
       <c r="I45">
         <f t="shared" si="14"/>
-        <v>-34.646086750000009</v>
+        <v>43.620762749999983</v>
       </c>
       <c r="J45">
         <f t="shared" si="14"/>
-        <v>-71.646309600000023</v>
+        <v>64.755984699999985</v>
       </c>
       <c r="K45">
         <f t="shared" si="14"/>
-        <v>-12.33793915</v>
+        <v>60.789934149999951</v>
       </c>
       <c r="L45">
         <f t="shared" si="14"/>
-        <v>-31.276831049999998</v>
+        <v>64.163129799999908</v>
       </c>
       <c r="M45">
         <f t="shared" si="14"/>
-        <v>12.571641549999992</v>
+        <v>93.493106749999953</v>
       </c>
       <c r="N45">
         <f t="shared" si="14"/>
-        <v>-1325.8978222499984</v>
+        <v>-958.63159474999952</v>
       </c>
     </row>
   </sheetData>
